--- a/INTLINE/data/134/DEUSTATIS/old/National accounts - Productivity.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/old/National accounts - Productivity.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="81">
   <si>
     <t>National accounts - Productivity, compensation of employees,
 gross wages a.salaries,unit labour costs: Germany, quarters,
@@ -148,9 +148,6 @@
     <t>EUR</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>GVA at cur.pr. p.h.wor.by pers.in empl.(dom.conc.)</t>
   </si>
   <si>
@@ -259,7 +256,7 @@
     <t>Agency, Nürnberg.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:52:57</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:21:54</t>
   </si>
 </sst>
 </file>
@@ -3889,21 +3886,21 @@
         <v>21848.0</v>
       </c>
       <c r="DS8" t="n" s="11">
-        <v>21665.0</v>
+        <v>21664.0</v>
       </c>
       <c r="DT8" t="n" s="11">
-        <v>21841.0</v>
+        <v>21844.0</v>
       </c>
       <c r="DU8" t="n" s="11">
-        <v>21544.0</v>
-      </c>
-      <c r="DV8" t="s" s="11">
-        <v>44</v>
+        <v>21596.0</v>
+      </c>
+      <c r="DV8" t="n" s="11">
+        <v>22264.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s" s="14">
         <v>43</v>
@@ -4269,24 +4266,24 @@
         <v>60.45</v>
       </c>
       <c r="DS9" t="n" s="11">
-        <v>59.84</v>
+        <v>59.75</v>
       </c>
       <c r="DT9" t="n" s="11">
-        <v>65.25</v>
+        <v>65.3</v>
       </c>
       <c r="DU9" t="n" s="11">
-        <v>58.87</v>
-      </c>
-      <c r="DV9" t="s" s="11">
-        <v>44</v>
+        <v>59.17</v>
+      </c>
+      <c r="DV9" t="n" s="11">
+        <v>60.37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="14">
         <v>46</v>
-      </c>
-      <c r="B10" t="s" s="14">
-        <v>47</v>
       </c>
       <c r="C10" t="n" s="11">
         <v>54.87</v>
@@ -4649,24 +4646,24 @@
         <v>104.01</v>
       </c>
       <c r="DS10" t="n" s="11">
-        <v>100.84</v>
+        <v>100.9</v>
       </c>
       <c r="DT10" t="n" s="11">
-        <v>102.12</v>
+        <v>102.33</v>
       </c>
       <c r="DU10" t="n" s="11">
-        <v>98.61</v>
-      </c>
-      <c r="DV10" t="s" s="11">
-        <v>44</v>
+        <v>99.37</v>
+      </c>
+      <c r="DV10" t="n" s="11">
+        <v>102.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C11" t="n" s="11">
         <v>52.43</v>
@@ -5029,21 +5026,21 @@
         <v>106.18</v>
       </c>
       <c r="DS11" t="n" s="11">
-        <v>102.76</v>
+        <v>102.68</v>
       </c>
       <c r="DT11" t="n" s="11">
-        <v>112.57</v>
+        <v>112.86</v>
       </c>
       <c r="DU11" t="n" s="11">
-        <v>99.42</v>
-      </c>
-      <c r="DV11" t="s" s="11">
-        <v>44</v>
+        <v>100.45</v>
+      </c>
+      <c r="DV11" t="n" s="11">
+        <v>102.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s" s="14">
         <v>43</v>
@@ -5409,21 +5406,21 @@
         <v>15054.0</v>
       </c>
       <c r="DS12" t="n" s="11">
-        <v>13890.0</v>
+        <v>13889.0</v>
       </c>
       <c r="DT12" t="n" s="11">
-        <v>15209.0</v>
+        <v>15215.0</v>
       </c>
       <c r="DU12" t="n" s="11">
-        <v>14137.0</v>
-      </c>
-      <c r="DV12" t="s" s="11">
-        <v>44</v>
+        <v>14289.0</v>
+      </c>
+      <c r="DV12" t="n" s="11">
+        <v>15581.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s" s="14">
         <v>43</v>
@@ -5789,21 +5786,21 @@
         <v>42.11</v>
       </c>
       <c r="DS13" t="n" s="11">
-        <v>38.82</v>
+        <v>38.76</v>
       </c>
       <c r="DT13" t="n" s="11">
-        <v>45.99</v>
+        <v>46.04</v>
       </c>
       <c r="DU13" t="n" s="11">
-        <v>39.1</v>
-      </c>
-      <c r="DV13" t="s" s="11">
-        <v>44</v>
+        <v>39.63</v>
+      </c>
+      <c r="DV13" t="n" s="11">
+        <v>42.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s" s="14">
         <v>43</v>
@@ -6169,21 +6166,21 @@
         <v>12406.0</v>
       </c>
       <c r="DS14" t="n" s="11">
-        <v>11368.0</v>
+        <v>11369.0</v>
       </c>
       <c r="DT14" t="n" s="11">
-        <v>12467.0</v>
+        <v>12470.0</v>
       </c>
       <c r="DU14" t="n" s="11">
-        <v>11624.0</v>
-      </c>
-      <c r="DV14" t="s" s="11">
-        <v>44</v>
+        <v>11748.0</v>
+      </c>
+      <c r="DV14" t="n" s="11">
+        <v>12848.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15" t="s" s="14">
         <v>43</v>
@@ -6549,24 +6546,24 @@
         <v>34.7</v>
       </c>
       <c r="DS15" t="n" s="11">
-        <v>31.77</v>
+        <v>31.72</v>
       </c>
       <c r="DT15" t="n" s="11">
-        <v>37.7</v>
+        <v>37.73</v>
       </c>
       <c r="DU15" t="n" s="11">
-        <v>32.15</v>
-      </c>
-      <c r="DV15" t="s" s="11">
-        <v>44</v>
+        <v>32.58</v>
+      </c>
+      <c r="DV15" t="n" s="11">
+        <v>35.23</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" t="n" s="11">
         <v>80.55</v>
@@ -6929,24 +6926,24 @@
         <v>108.08</v>
       </c>
       <c r="DS16" t="n" s="11">
-        <v>102.87</v>
+        <v>102.78</v>
       </c>
       <c r="DT16" t="n" s="11">
-        <v>111.21</v>
+        <v>111.02</v>
       </c>
       <c r="DU16" t="n" s="11">
-        <v>107.06</v>
-      </c>
-      <c r="DV16" t="s" s="11">
-        <v>44</v>
+        <v>107.38</v>
+      </c>
+      <c r="DV16" t="n" s="11">
+        <v>113.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" t="n" s="11">
         <v>80.49</v>
@@ -7309,21 +7306,21 @@
         <v>107.56</v>
       </c>
       <c r="DS17" t="n" s="11">
-        <v>102.46</v>
+        <v>102.38</v>
       </c>
       <c r="DT17" t="n" s="11">
-        <v>110.82</v>
+        <v>110.65</v>
       </c>
       <c r="DU17" t="n" s="11">
-        <v>106.68</v>
-      </c>
-      <c r="DV17" t="s" s="11">
-        <v>44</v>
+        <v>107.01</v>
+      </c>
+      <c r="DV17" t="n" s="11">
+        <v>112.88</v>
       </c>
     </row>
     <row r="18" ht="33.75" customHeight="true">
       <c r="A18" t="s" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19">
@@ -7694,21 +7691,21 @@
         <v>19578.0</v>
       </c>
       <c r="DS19" t="n" s="11">
-        <v>19057.0</v>
+        <v>19092.0</v>
       </c>
       <c r="DT19" t="n" s="11">
-        <v>19297.0</v>
+        <v>19357.0</v>
       </c>
       <c r="DU19" t="n" s="11">
-        <v>20279.0</v>
-      </c>
-      <c r="DV19" t="s" s="11">
-        <v>44</v>
+        <v>20302.0</v>
+      </c>
+      <c r="DV19" t="n" s="11">
+        <v>20717.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s" s="14">
         <v>43</v>
@@ -8074,24 +8071,24 @@
         <v>58.03</v>
       </c>
       <c r="DS20" t="n" s="11">
-        <v>56.7</v>
+        <v>56.76</v>
       </c>
       <c r="DT20" t="n" s="11">
-        <v>61.02</v>
+        <v>61.26</v>
       </c>
       <c r="DU20" t="n" s="11">
-        <v>57.78</v>
-      </c>
-      <c r="DV20" t="s" s="11">
-        <v>44</v>
+        <v>57.95</v>
+      </c>
+      <c r="DV20" t="n" s="11">
+        <v>59.81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s" s="14">
         <v>46</v>
-      </c>
-      <c r="B21" t="s" s="14">
-        <v>47</v>
       </c>
       <c r="C21" t="n" s="11">
         <v>79.45</v>
@@ -8454,24 +8451,24 @@
         <v>101.82</v>
       </c>
       <c r="DS21" t="n" s="11">
-        <v>98.75</v>
+        <v>98.95</v>
       </c>
       <c r="DT21" t="n" s="11">
-        <v>99.83</v>
+        <v>100.15</v>
       </c>
       <c r="DU21" t="n" s="11">
-        <v>102.22</v>
-      </c>
-      <c r="DV21" t="s" s="11">
-        <v>44</v>
+        <v>102.49</v>
+      </c>
+      <c r="DV21" t="n" s="11">
+        <v>102.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" t="n" s="11">
         <v>69.85</v>
@@ -8834,21 +8831,21 @@
         <v>105.7</v>
       </c>
       <c r="DS22" t="n" s="11">
-        <v>102.89</v>
+        <v>103.03</v>
       </c>
       <c r="DT22" t="n" s="11">
-        <v>110.56</v>
+        <v>111.01</v>
       </c>
       <c r="DU22" t="n" s="11">
-        <v>102.01</v>
-      </c>
-      <c r="DV22" t="s" s="11">
-        <v>44</v>
+        <v>102.46</v>
+      </c>
+      <c r="DV22" t="n" s="11">
+        <v>103.82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s" s="14">
         <v>43</v>
@@ -9217,18 +9214,18 @@
         <v>10955.0</v>
       </c>
       <c r="DT23" t="n" s="11">
-        <v>11327.0</v>
+        <v>11328.0</v>
       </c>
       <c r="DU23" t="n" s="11">
-        <v>11585.0</v>
-      </c>
-      <c r="DV23" t="s" s="11">
-        <v>44</v>
+        <v>11640.0</v>
+      </c>
+      <c r="DV23" t="n" s="11">
+        <v>12817.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s" s="14">
         <v>43</v>
@@ -9594,21 +9591,21 @@
         <v>37.81</v>
       </c>
       <c r="DS24" t="n" s="11">
-        <v>33.68</v>
+        <v>33.65</v>
       </c>
       <c r="DT24" t="n" s="11">
-        <v>36.99</v>
+        <v>37.03</v>
       </c>
       <c r="DU24" t="n" s="11">
-        <v>34.23</v>
-      </c>
-      <c r="DV24" t="s" s="11">
-        <v>44</v>
+        <v>34.46</v>
+      </c>
+      <c r="DV24" t="n" s="11">
+        <v>38.14</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s" s="14">
         <v>43</v>
@@ -9974,21 +9971,21 @@
         <v>10166.0</v>
       </c>
       <c r="DS25" t="n" s="11">
-        <v>8901.0</v>
+        <v>8902.0</v>
       </c>
       <c r="DT25" t="n" s="11">
-        <v>9220.0</v>
+        <v>9222.0</v>
       </c>
       <c r="DU25" t="n" s="11">
-        <v>9508.0</v>
-      </c>
-      <c r="DV25" t="s" s="11">
-        <v>44</v>
+        <v>9558.0</v>
+      </c>
+      <c r="DV25" t="n" s="11">
+        <v>10539.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s" s="14">
         <v>43</v>
@@ -10354,24 +10351,24 @@
         <v>31.02</v>
       </c>
       <c r="DS26" t="n" s="11">
-        <v>27.37</v>
+        <v>27.35</v>
       </c>
       <c r="DT26" t="n" s="11">
-        <v>30.11</v>
+        <v>30.14</v>
       </c>
       <c r="DU26" t="n" s="11">
-        <v>28.09</v>
-      </c>
-      <c r="DV26" t="s" s="11">
-        <v>44</v>
+        <v>28.3</v>
+      </c>
+      <c r="DV26" t="n" s="11">
+        <v>31.36</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="n" s="11">
         <v>66.8</v>
@@ -10734,24 +10731,24 @@
         <v>120.65</v>
       </c>
       <c r="DS27" t="n" s="11">
-        <v>109.98</v>
+        <v>109.76</v>
       </c>
       <c r="DT27" t="n" s="11">
-        <v>112.5</v>
+        <v>112.14</v>
       </c>
       <c r="DU27" t="n" s="11">
-        <v>112.37</v>
-      </c>
-      <c r="DV27" t="s" s="11">
-        <v>44</v>
+        <v>112.61</v>
+      </c>
+      <c r="DV27" t="n" s="11">
+        <v>123.76</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C28" t="n" s="11">
         <v>66.73</v>
@@ -11114,21 +11111,21 @@
         <v>118.51</v>
       </c>
       <c r="DS28" t="n" s="11">
-        <v>108.47</v>
+        <v>108.23</v>
       </c>
       <c r="DT28" t="n" s="11">
-        <v>110.86</v>
+        <v>110.51</v>
       </c>
       <c r="DU28" t="n" s="11">
-        <v>111.17</v>
-      </c>
-      <c r="DV28" t="s" s="11">
-        <v>44</v>
+        <v>111.43</v>
+      </c>
+      <c r="DV28" t="n" s="11">
+        <v>121.73</v>
       </c>
     </row>
     <row r="29" ht="33.75" customHeight="true">
       <c r="A29" t="s" s="15">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="33.75" customHeight="true">
@@ -11504,21 +11501,21 @@
         <v>21537.0</v>
       </c>
       <c r="DS31" t="n" s="11">
-        <v>21835.0</v>
+        <v>21840.0</v>
       </c>
       <c r="DT31" t="n" s="11">
-        <v>21537.0</v>
+        <v>21545.0</v>
       </c>
       <c r="DU31" t="n" s="11">
-        <v>21467.0</v>
-      </c>
-      <c r="DV31" t="s" s="11">
-        <v>44</v>
+        <v>21530.0</v>
+      </c>
+      <c r="DV31" t="n" s="11">
+        <v>21971.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" t="s" s="14">
         <v>43</v>
@@ -11884,24 +11881,24 @@
         <v>61.28</v>
       </c>
       <c r="DS32" t="n" s="11">
-        <v>61.73</v>
+        <v>61.74</v>
       </c>
       <c r="DT32" t="n" s="11">
-        <v>60.83</v>
+        <v>60.98</v>
       </c>
       <c r="DU32" t="n" s="11">
-        <v>59.82</v>
-      </c>
-      <c r="DV32" t="s" s="11">
-        <v>44</v>
+        <v>60.23</v>
+      </c>
+      <c r="DV32" t="n" s="11">
+        <v>61.29</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s" s="14">
         <v>46</v>
-      </c>
-      <c r="B33" t="s" s="14">
-        <v>47</v>
       </c>
       <c r="C33" t="n" s="11">
         <v>57.4</v>
@@ -12264,24 +12261,24 @@
         <v>102.41</v>
       </c>
       <c r="DS33" t="n" s="11">
-        <v>101.56</v>
+        <v>101.65</v>
       </c>
       <c r="DT33" t="n" s="11">
-        <v>100.53</v>
+        <v>100.76</v>
       </c>
       <c r="DU33" t="n" s="11">
-        <v>98.54</v>
-      </c>
-      <c r="DV33" t="s" s="11">
-        <v>44</v>
+        <v>99.35</v>
+      </c>
+      <c r="DV33" t="n" s="11">
+        <v>101.13</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" t="n" s="11">
         <v>55.98</v>
@@ -12644,21 +12641,21 @@
         <v>107.53</v>
       </c>
       <c r="DS34" t="n" s="11">
-        <v>105.94</v>
+        <v>106.04</v>
       </c>
       <c r="DT34" t="n" s="11">
-        <v>104.78</v>
+        <v>105.24</v>
       </c>
       <c r="DU34" t="n" s="11">
-        <v>101.34</v>
-      </c>
-      <c r="DV34" t="s" s="11">
-        <v>44</v>
+        <v>102.55</v>
+      </c>
+      <c r="DV34" t="n" s="11">
+        <v>104.11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B35" t="s" s="14">
         <v>43</v>
@@ -13024,21 +13021,21 @@
         <v>14484.0</v>
       </c>
       <c r="DS35" t="n" s="11">
-        <v>14555.0</v>
+        <v>14565.0</v>
       </c>
       <c r="DT35" t="n" s="11">
-        <v>14283.0</v>
+        <v>14300.0</v>
       </c>
       <c r="DU35" t="n" s="11">
-        <v>14933.0</v>
-      </c>
-      <c r="DV35" t="s" s="11">
-        <v>44</v>
+        <v>15106.0</v>
+      </c>
+      <c r="DV35" t="n" s="11">
+        <v>15009.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B36" t="s" s="14">
         <v>43</v>
@@ -13404,21 +13401,21 @@
         <v>41.05</v>
       </c>
       <c r="DS36" t="n" s="11">
-        <v>41.72</v>
+        <v>41.74</v>
       </c>
       <c r="DT36" t="n" s="11">
-        <v>40.65</v>
+        <v>40.78</v>
       </c>
       <c r="DU36" t="n" s="11">
-        <v>41.89</v>
-      </c>
-      <c r="DV36" t="s" s="11">
-        <v>44</v>
+        <v>42.54</v>
+      </c>
+      <c r="DV36" t="n" s="11">
+        <v>41.74</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s" s="14">
         <v>43</v>
@@ -13784,21 +13781,21 @@
         <v>11884.0</v>
       </c>
       <c r="DS37" t="n" s="11">
-        <v>11944.0</v>
+        <v>11956.0</v>
       </c>
       <c r="DT37" t="n" s="11">
-        <v>11713.0</v>
+        <v>11727.0</v>
       </c>
       <c r="DU37" t="n" s="11">
-        <v>12289.0</v>
-      </c>
-      <c r="DV37" t="s" s="11">
-        <v>44</v>
+        <v>12433.0</v>
+      </c>
+      <c r="DV37" t="n" s="11">
+        <v>12323.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" t="s" s="14">
         <v>43</v>
@@ -14164,24 +14161,24 @@
         <v>33.69</v>
       </c>
       <c r="DS38" t="n" s="11">
-        <v>34.24</v>
+        <v>34.27</v>
       </c>
       <c r="DT38" t="n" s="11">
-        <v>33.34</v>
+        <v>33.44</v>
       </c>
       <c r="DU38" t="n" s="11">
-        <v>34.48</v>
-      </c>
-      <c r="DV38" t="s" s="11">
-        <v>44</v>
+        <v>35.02</v>
+      </c>
+      <c r="DV38" t="n" s="11">
+        <v>34.27</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C39" t="n" s="11">
         <v>81.74</v>
@@ -14544,24 +14541,24 @@
         <v>105.57</v>
       </c>
       <c r="DS39" t="n" s="11">
-        <v>106.98</v>
+        <v>106.97</v>
       </c>
       <c r="DT39" t="n" s="11">
-        <v>106.07</v>
+        <v>105.94</v>
       </c>
       <c r="DU39" t="n" s="11">
-        <v>113.13</v>
-      </c>
-      <c r="DV39" t="s" s="11">
-        <v>44</v>
+        <v>113.5</v>
+      </c>
+      <c r="DV39" t="n" s="11">
+        <v>110.8</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C40" t="n" s="11">
         <v>82.85</v>
@@ -14924,21 +14921,21 @@
         <v>103.54</v>
       </c>
       <c r="DS40" t="n" s="11">
-        <v>106.82</v>
+        <v>106.77</v>
       </c>
       <c r="DT40" t="n" s="11">
-        <v>105.24</v>
+        <v>105.09</v>
       </c>
       <c r="DU40" t="n" s="11">
-        <v>112.13</v>
-      </c>
-      <c r="DV40" t="s" s="11">
-        <v>44</v>
+        <v>112.52</v>
+      </c>
+      <c r="DV40" t="n" s="11">
+        <v>108.74</v>
       </c>
     </row>
     <row r="41" ht="33.75" customHeight="true">
       <c r="A41" t="s" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42">
@@ -15042,7 +15039,7 @@
         <v>13066.0</v>
       </c>
       <c r="AH42" t="n" s="11">
-        <v>12996.0</v>
+        <v>12997.0</v>
       </c>
       <c r="AI42" t="n" s="11">
         <v>13112.0</v>
@@ -15138,7 +15135,7 @@
         <v>15081.0</v>
       </c>
       <c r="BN42" t="n" s="11">
-        <v>15311.0</v>
+        <v>15310.0</v>
       </c>
       <c r="BO42" t="n" s="11">
         <v>15378.0</v>
@@ -15249,7 +15246,7 @@
         <v>17644.0</v>
       </c>
       <c r="CY42" t="n" s="11">
-        <v>17825.0</v>
+        <v>17826.0</v>
       </c>
       <c r="CZ42" t="n" s="11">
         <v>17900.0</v>
@@ -15261,69 +15258,69 @@
         <v>17999.0</v>
       </c>
       <c r="DC42" t="n" s="11">
-        <v>18212.0</v>
+        <v>18213.0</v>
       </c>
       <c r="DD42" t="n" s="11">
         <v>18396.0</v>
       </c>
       <c r="DE42" t="n" s="11">
-        <v>18576.0</v>
+        <v>18575.0</v>
       </c>
       <c r="DF42" t="n" s="11">
-        <v>18731.0</v>
+        <v>18732.0</v>
       </c>
       <c r="DG42" t="n" s="11">
-        <v>18655.0</v>
+        <v>18656.0</v>
       </c>
       <c r="DH42" t="n" s="11">
         <v>18796.0</v>
       </c>
       <c r="DI42" t="n" s="11">
-        <v>18767.0</v>
+        <v>18766.0</v>
       </c>
       <c r="DJ42" t="n" s="11">
         <v>18957.0</v>
       </c>
       <c r="DK42" t="n" s="11">
-        <v>19101.0</v>
+        <v>19103.0</v>
       </c>
       <c r="DL42" t="n" s="11">
         <v>19090.0</v>
       </c>
       <c r="DM42" t="n" s="11">
-        <v>19279.0</v>
+        <v>19276.0</v>
       </c>
       <c r="DN42" t="n" s="11">
-        <v>19388.0</v>
+        <v>19389.0</v>
       </c>
       <c r="DO42" t="n" s="11">
-        <v>19105.0</v>
+        <v>19107.0</v>
       </c>
       <c r="DP42" t="n" s="11">
-        <v>17545.0</v>
+        <v>17544.0</v>
       </c>
       <c r="DQ42" t="n" s="11">
-        <v>18990.0</v>
+        <v>18986.0</v>
       </c>
       <c r="DR42" t="n" s="11">
-        <v>19195.0</v>
+        <v>19198.0</v>
       </c>
       <c r="DS42" t="n" s="11">
-        <v>19163.0</v>
+        <v>19201.0</v>
       </c>
       <c r="DT42" t="n" s="11">
-        <v>19479.0</v>
+        <v>19540.0</v>
       </c>
       <c r="DU42" t="n" s="11">
-        <v>20220.0</v>
-      </c>
-      <c r="DV42" t="s" s="11">
-        <v>44</v>
+        <v>20241.0</v>
+      </c>
+      <c r="DV42" t="n" s="11">
+        <v>20310.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B43" t="s" s="14">
         <v>43</v>
@@ -15335,7 +15332,7 @@
         <v>26.02</v>
       </c>
       <c r="E43" t="n" s="11">
-        <v>26.38</v>
+        <v>26.37</v>
       </c>
       <c r="F43" t="n" s="11">
         <v>27.26</v>
@@ -15689,24 +15686,24 @@
         <v>57.82</v>
       </c>
       <c r="DS43" t="n" s="11">
-        <v>58.27</v>
+        <v>58.37</v>
       </c>
       <c r="DT43" t="n" s="11">
-        <v>58.27</v>
+        <v>58.54</v>
       </c>
       <c r="DU43" t="n" s="11">
-        <v>58.85</v>
-      </c>
-      <c r="DV43" t="s" s="11">
-        <v>44</v>
+        <v>59.07</v>
+      </c>
+      <c r="DV43" t="n" s="11">
+        <v>59.62</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s" s="14">
         <v>46</v>
-      </c>
-      <c r="B44" t="s" s="14">
-        <v>47</v>
       </c>
       <c r="C44" t="n" s="11">
         <v>81.07</v>
@@ -15898,7 +15895,7 @@
         <v>98.19</v>
       </c>
       <c r="BN44" t="n" s="11">
-        <v>99.32</v>
+        <v>99.31</v>
       </c>
       <c r="BO44" t="n" s="11">
         <v>98.9</v>
@@ -16000,7 +15997,7 @@
         <v>99.53</v>
       </c>
       <c r="CV44" t="n" s="11">
-        <v>99.85</v>
+        <v>99.86</v>
       </c>
       <c r="CW44" t="n" s="11">
         <v>100.04</v>
@@ -16027,7 +16024,7 @@
         <v>102.12</v>
       </c>
       <c r="DE44" t="n" s="11">
-        <v>102.66</v>
+        <v>102.65</v>
       </c>
       <c r="DF44" t="n" s="11">
         <v>103.15</v>
@@ -16045,48 +16042,48 @@
         <v>101.97</v>
       </c>
       <c r="DK44" t="n" s="11">
-        <v>102.71</v>
+        <v>102.72</v>
       </c>
       <c r="DL44" t="n" s="11">
         <v>101.97</v>
       </c>
       <c r="DM44" t="n" s="11">
-        <v>102.38</v>
+        <v>102.36</v>
       </c>
       <c r="DN44" t="n" s="11">
-        <v>102.18</v>
+        <v>102.19</v>
       </c>
       <c r="DO44" t="n" s="11">
-        <v>100.28</v>
+        <v>100.29</v>
       </c>
       <c r="DP44" t="n" s="11">
         <v>91.49</v>
       </c>
       <c r="DQ44" t="n" s="11">
-        <v>99.92</v>
+        <v>99.89</v>
       </c>
       <c r="DR44" t="n" s="11">
-        <v>100.58</v>
+        <v>100.59</v>
       </c>
       <c r="DS44" t="n" s="11">
-        <v>98.77</v>
+        <v>98.98</v>
       </c>
       <c r="DT44" t="n" s="11">
-        <v>100.56</v>
+        <v>100.87</v>
       </c>
       <c r="DU44" t="n" s="11">
-        <v>101.88</v>
-      </c>
-      <c r="DV44" t="s" s="11">
-        <v>44</v>
+        <v>102.11</v>
+      </c>
+      <c r="DV44" t="n" s="11">
+        <v>101.4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C45" t="n" s="11">
         <v>72.65</v>
@@ -16401,13 +16398,13 @@
         <v>101.69</v>
       </c>
       <c r="DC45" t="n" s="11">
-        <v>102.35</v>
+        <v>102.34</v>
       </c>
       <c r="DD45" t="n" s="11">
         <v>102.86</v>
       </c>
       <c r="DE45" t="n" s="11">
-        <v>103.23</v>
+        <v>103.24</v>
       </c>
       <c r="DF45" t="n" s="11">
         <v>104.22</v>
@@ -16419,7 +16416,7 @@
         <v>103.08</v>
       </c>
       <c r="DI45" t="n" s="11">
-        <v>102.87</v>
+        <v>102.88</v>
       </c>
       <c r="DJ45" t="n" s="11">
         <v>103.02</v>
@@ -16428,10 +16425,10 @@
         <v>103.44</v>
       </c>
       <c r="DL45" t="n" s="11">
-        <v>103.6</v>
+        <v>103.59</v>
       </c>
       <c r="DM45" t="n" s="11">
-        <v>103.42</v>
+        <v>103.43</v>
       </c>
       <c r="DN45" t="n" s="11">
         <v>103.84</v>
@@ -16443,72 +16440,72 @@
         <v>101.94</v>
       </c>
       <c r="DQ45" t="n" s="11">
-        <v>103.71</v>
+        <v>103.72</v>
       </c>
       <c r="DR45" t="n" s="11">
         <v>106.1</v>
       </c>
       <c r="DS45" t="n" s="11">
-        <v>105.2</v>
+        <v>105.38</v>
       </c>
       <c r="DT45" t="n" s="11">
-        <v>105.36</v>
+        <v>105.84</v>
       </c>
       <c r="DU45" t="n" s="11">
-        <v>103.84</v>
-      </c>
-      <c r="DV45" t="s" s="11">
-        <v>44</v>
+        <v>104.37</v>
+      </c>
+      <c r="DV45" t="n" s="11">
+        <v>104.24</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s" s="14">
         <v>43</v>
       </c>
       <c r="C46" t="n" s="11">
-        <v>5761.0</v>
+        <v>5762.0</v>
       </c>
       <c r="D46" t="n" s="11">
-        <v>6046.0</v>
+        <v>6044.0</v>
       </c>
       <c r="E46" t="n" s="11">
-        <v>6134.0</v>
+        <v>6133.0</v>
       </c>
       <c r="F46" t="n" s="11">
-        <v>6235.0</v>
+        <v>6236.0</v>
       </c>
       <c r="G46" t="n" s="11">
-        <v>6436.0</v>
+        <v>6437.0</v>
       </c>
       <c r="H46" t="n" s="11">
-        <v>6585.0</v>
+        <v>6584.0</v>
       </c>
       <c r="I46" t="n" s="11">
         <v>6826.0</v>
       </c>
       <c r="J46" t="n" s="11">
-        <v>6815.0</v>
+        <v>6816.0</v>
       </c>
       <c r="K46" t="n" s="11">
-        <v>6792.0</v>
+        <v>6793.0</v>
       </c>
       <c r="L46" t="n" s="11">
-        <v>6924.0</v>
+        <v>6923.0</v>
       </c>
       <c r="M46" t="n" s="11">
-        <v>6987.0</v>
+        <v>6986.0</v>
       </c>
       <c r="N46" t="n" s="11">
-        <v>7049.0</v>
+        <v>7050.0</v>
       </c>
       <c r="O46" t="n" s="11">
         <v>7105.0</v>
       </c>
       <c r="P46" t="n" s="11">
-        <v>7087.0</v>
+        <v>7086.0</v>
       </c>
       <c r="Q46" t="n" s="11">
         <v>7141.0</v>
@@ -16517,16 +16514,16 @@
         <v>7225.0</v>
       </c>
       <c r="S46" t="n" s="11">
-        <v>7285.0</v>
+        <v>7286.0</v>
       </c>
       <c r="T46" t="n" s="11">
-        <v>7362.0</v>
+        <v>7361.0</v>
       </c>
       <c r="U46" t="n" s="11">
         <v>7422.0</v>
       </c>
       <c r="V46" t="n" s="11">
-        <v>7467.0</v>
+        <v>7468.0</v>
       </c>
       <c r="W46" t="n" s="11">
         <v>7439.0</v>
@@ -16550,10 +16547,10 @@
         <v>7486.0</v>
       </c>
       <c r="AD46" t="n" s="11">
-        <v>7542.0</v>
+        <v>7543.0</v>
       </c>
       <c r="AE46" t="n" s="11">
-        <v>7547.0</v>
+        <v>7548.0</v>
       </c>
       <c r="AF46" t="n" s="11">
         <v>7577.0</v>
@@ -16562,7 +16559,7 @@
         <v>7580.0</v>
       </c>
       <c r="AH46" t="n" s="11">
-        <v>7612.0</v>
+        <v>7613.0</v>
       </c>
       <c r="AI46" t="n" s="11">
         <v>7595.0</v>
@@ -16595,13 +16592,13 @@
         <v>7917.0</v>
       </c>
       <c r="AS46" t="n" s="11">
-        <v>7943.0</v>
+        <v>7942.0</v>
       </c>
       <c r="AT46" t="n" s="11">
         <v>8013.0</v>
       </c>
       <c r="AU46" t="n" s="11">
-        <v>7970.0</v>
+        <v>7971.0</v>
       </c>
       <c r="AV46" t="n" s="11">
         <v>7991.0</v>
@@ -16619,7 +16616,7 @@
         <v>8157.0</v>
       </c>
       <c r="BA46" t="n" s="11">
-        <v>8222.0</v>
+        <v>8221.0</v>
       </c>
       <c r="BB46" t="n" s="11">
         <v>8214.0</v>
@@ -16634,7 +16631,7 @@
         <v>8205.0</v>
       </c>
       <c r="BF46" t="n" s="11">
-        <v>8214.0</v>
+        <v>8213.0</v>
       </c>
       <c r="BG46" t="n" s="11">
         <v>8248.0</v>
@@ -16643,16 +16640,16 @@
         <v>8243.0</v>
       </c>
       <c r="BI46" t="n" s="11">
-        <v>8229.0</v>
+        <v>8228.0</v>
       </c>
       <c r="BJ46" t="n" s="11">
         <v>8226.0</v>
       </c>
       <c r="BK46" t="n" s="11">
-        <v>8301.0</v>
+        <v>8300.0</v>
       </c>
       <c r="BL46" t="n" s="11">
-        <v>8302.0</v>
+        <v>8303.0</v>
       </c>
       <c r="BM46" t="n" s="11">
         <v>8354.0</v>
@@ -16676,7 +16673,7 @@
         <v>8527.0</v>
       </c>
       <c r="BT46" t="n" s="11">
-        <v>8585.0</v>
+        <v>8586.0</v>
       </c>
       <c r="BU46" t="n" s="11">
         <v>8617.0</v>
@@ -16685,13 +16682,13 @@
         <v>8667.0</v>
       </c>
       <c r="BW46" t="n" s="11">
-        <v>8589.0</v>
+        <v>8588.0</v>
       </c>
       <c r="BX46" t="n" s="11">
-        <v>8585.0</v>
+        <v>8586.0</v>
       </c>
       <c r="BY46" t="n" s="11">
-        <v>8656.0</v>
+        <v>8657.0</v>
       </c>
       <c r="BZ46" t="n" s="11">
         <v>8687.0</v>
@@ -16712,7 +16709,7 @@
         <v>9042.0</v>
       </c>
       <c r="CF46" t="n" s="11">
-        <v>9109.0</v>
+        <v>9110.0</v>
       </c>
       <c r="CG46" t="n" s="11">
         <v>9136.0</v>
@@ -16721,10 +16718,10 @@
         <v>9176.0</v>
       </c>
       <c r="CI46" t="n" s="11">
-        <v>9262.0</v>
+        <v>9261.0</v>
       </c>
       <c r="CJ46" t="n" s="11">
-        <v>9358.0</v>
+        <v>9359.0</v>
       </c>
       <c r="CK46" t="n" s="11">
         <v>9385.0</v>
@@ -16733,10 +16730,10 @@
         <v>9423.0</v>
       </c>
       <c r="CM46" t="n" s="11">
-        <v>9438.0</v>
+        <v>9437.0</v>
       </c>
       <c r="CN46" t="n" s="11">
-        <v>9513.0</v>
+        <v>9514.0</v>
       </c>
       <c r="CO46" t="n" s="11">
         <v>9573.0</v>
@@ -16760,10 +16757,10 @@
         <v>9969.0</v>
       </c>
       <c r="CV46" t="n" s="11">
-        <v>10072.0</v>
+        <v>10073.0</v>
       </c>
       <c r="CW46" t="n" s="11">
-        <v>10114.0</v>
+        <v>10115.0</v>
       </c>
       <c r="CX46" t="n" s="11">
         <v>10185.0</v>
@@ -16772,78 +16769,78 @@
         <v>10235.0</v>
       </c>
       <c r="CZ46" t="n" s="11">
-        <v>10270.0</v>
+        <v>10271.0</v>
       </c>
       <c r="DA46" t="n" s="11">
         <v>10337.0</v>
       </c>
       <c r="DB46" t="n" s="11">
-        <v>10425.0</v>
+        <v>10423.0</v>
       </c>
       <c r="DC46" t="n" s="11">
         <v>10484.0</v>
       </c>
       <c r="DD46" t="n" s="11">
-        <v>10547.0</v>
+        <v>10550.0</v>
       </c>
       <c r="DE46" t="n" s="11">
         <v>10604.0</v>
       </c>
       <c r="DF46" t="n" s="11">
-        <v>10714.0</v>
+        <v>10711.0</v>
       </c>
       <c r="DG46" t="n" s="11">
-        <v>10768.0</v>
+        <v>10767.0</v>
       </c>
       <c r="DH46" t="n" s="11">
-        <v>10838.0</v>
+        <v>10845.0</v>
       </c>
       <c r="DI46" t="n" s="11">
-        <v>10954.0</v>
+        <v>10955.0</v>
       </c>
       <c r="DJ46" t="n" s="11">
-        <v>11026.0</v>
+        <v>11020.0</v>
       </c>
       <c r="DK46" t="n" s="11">
-        <v>11137.0</v>
+        <v>11134.0</v>
       </c>
       <c r="DL46" t="n" s="11">
-        <v>11220.0</v>
+        <v>11231.0</v>
       </c>
       <c r="DM46" t="n" s="11">
         <v>11359.0</v>
       </c>
       <c r="DN46" t="n" s="11">
-        <v>11346.0</v>
+        <v>11337.0</v>
       </c>
       <c r="DO46" t="n" s="11">
-        <v>11362.0</v>
+        <v>11358.0</v>
       </c>
       <c r="DP46" t="n" s="11">
-        <v>10957.0</v>
+        <v>10975.0</v>
       </c>
       <c r="DQ46" t="n" s="11">
-        <v>11382.0</v>
+        <v>11381.0</v>
       </c>
       <c r="DR46" t="n" s="11">
-        <v>11521.0</v>
+        <v>11508.0</v>
       </c>
       <c r="DS46" t="n" s="11">
-        <v>11459.0</v>
+        <v>11461.0</v>
       </c>
       <c r="DT46" t="n" s="11">
-        <v>11507.0</v>
+        <v>11538.0</v>
       </c>
       <c r="DU46" t="n" s="11">
-        <v>11779.0</v>
-      </c>
-      <c r="DV46" t="s" s="11">
-        <v>44</v>
+        <v>11840.0</v>
+      </c>
+      <c r="DV46" t="n" s="11">
+        <v>11922.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s" s="14">
         <v>43</v>
@@ -16855,16 +16852,16 @@
         <v>16.31</v>
       </c>
       <c r="E47" t="n" s="11">
-        <v>16.56</v>
+        <v>16.55</v>
       </c>
       <c r="F47" t="n" s="11">
         <v>16.96</v>
       </c>
       <c r="G47" t="n" s="11">
-        <v>17.16</v>
+        <v>17.17</v>
       </c>
       <c r="H47" t="n" s="11">
-        <v>17.67</v>
+        <v>17.66</v>
       </c>
       <c r="I47" t="n" s="11">
         <v>18.35</v>
@@ -16876,7 +16873,7 @@
         <v>18.62</v>
       </c>
       <c r="L47" t="n" s="11">
-        <v>18.96</v>
+        <v>18.95</v>
       </c>
       <c r="M47" t="n" s="11">
         <v>19.13</v>
@@ -16900,7 +16897,7 @@
         <v>19.9</v>
       </c>
       <c r="T47" t="n" s="11">
-        <v>20.46</v>
+        <v>20.45</v>
       </c>
       <c r="U47" t="n" s="11">
         <v>20.54</v>
@@ -17047,7 +17044,7 @@
         <v>24.38</v>
       </c>
       <c r="BQ47" t="n" s="11">
-        <v>24.57</v>
+        <v>24.58</v>
       </c>
       <c r="BR47" t="n" s="11">
         <v>24.62</v>
@@ -17149,81 +17146,81 @@
         <v>30.34</v>
       </c>
       <c r="CY47" t="n" s="11">
-        <v>30.96</v>
+        <v>30.95</v>
       </c>
       <c r="CZ47" t="n" s="11">
-        <v>30.43</v>
+        <v>30.44</v>
       </c>
       <c r="DA47" t="n" s="11">
         <v>30.98</v>
       </c>
       <c r="DB47" t="n" s="11">
-        <v>31.39</v>
+        <v>31.38</v>
       </c>
       <c r="DC47" t="n" s="11">
-        <v>31.23</v>
+        <v>31.22</v>
       </c>
       <c r="DD47" t="n" s="11">
-        <v>31.74</v>
+        <v>31.75</v>
       </c>
       <c r="DE47" t="n" s="11">
         <v>31.89</v>
       </c>
       <c r="DF47" t="n" s="11">
-        <v>32.4</v>
+        <v>32.39</v>
       </c>
       <c r="DG47" t="n" s="11">
-        <v>32.54</v>
+        <v>32.53</v>
       </c>
       <c r="DH47" t="n" s="11">
-        <v>32.37</v>
+        <v>32.39</v>
       </c>
       <c r="DI47" t="n" s="11">
-        <v>33.05</v>
+        <v>33.06</v>
       </c>
       <c r="DJ47" t="n" s="11">
-        <v>33.17</v>
+        <v>33.15</v>
       </c>
       <c r="DK47" t="n" s="11">
-        <v>33.35</v>
+        <v>33.34</v>
       </c>
       <c r="DL47" t="n" s="11">
-        <v>33.95</v>
+        <v>33.98</v>
       </c>
       <c r="DM47" t="n" s="11">
-        <v>34.02</v>
+        <v>34.03</v>
       </c>
       <c r="DN47" t="n" s="11">
-        <v>34.36</v>
+        <v>34.33</v>
       </c>
       <c r="DO47" t="n" s="11">
-        <v>34.73</v>
+        <v>34.71</v>
       </c>
       <c r="DP47" t="n" s="11">
-        <v>35.82</v>
+        <v>35.88</v>
       </c>
       <c r="DQ47" t="n" s="11">
-        <v>34.79</v>
+        <v>34.8</v>
       </c>
       <c r="DR47" t="n" s="11">
-        <v>35.56</v>
+        <v>35.51</v>
       </c>
       <c r="DS47" t="n" s="11">
-        <v>36.05</v>
+        <v>36.04</v>
       </c>
       <c r="DT47" t="n" s="11">
-        <v>35.47</v>
+        <v>35.62</v>
       </c>
       <c r="DU47" t="n" s="11">
-        <v>35.45</v>
-      </c>
-      <c r="DV47" t="s" s="11">
-        <v>44</v>
+        <v>35.74</v>
+      </c>
+      <c r="DV47" t="n" s="11">
+        <v>35.88</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B48" t="s" s="14">
         <v>43</v>
@@ -17238,7 +17235,7 @@
         <v>5037.0</v>
       </c>
       <c r="F48" t="n" s="11">
-        <v>5121.0</v>
+        <v>5122.0</v>
       </c>
       <c r="G48" t="n" s="11">
         <v>5283.0</v>
@@ -17253,10 +17250,10 @@
         <v>5588.0</v>
       </c>
       <c r="K48" t="n" s="11">
-        <v>5593.0</v>
+        <v>5592.0</v>
       </c>
       <c r="L48" t="n" s="11">
-        <v>5705.0</v>
+        <v>5706.0</v>
       </c>
       <c r="M48" t="n" s="11">
         <v>5756.0</v>
@@ -17265,7 +17262,7 @@
         <v>5792.0</v>
       </c>
       <c r="O48" t="n" s="11">
-        <v>5796.0</v>
+        <v>5795.0</v>
       </c>
       <c r="P48" t="n" s="11">
         <v>5783.0</v>
@@ -17277,7 +17274,7 @@
         <v>5888.0</v>
       </c>
       <c r="S48" t="n" s="11">
-        <v>5921.0</v>
+        <v>5920.0</v>
       </c>
       <c r="T48" t="n" s="11">
         <v>5983.0</v>
@@ -17289,19 +17286,19 @@
         <v>6062.0</v>
       </c>
       <c r="W48" t="n" s="11">
-        <v>6054.0</v>
+        <v>6053.0</v>
       </c>
       <c r="X48" t="n" s="11">
         <v>6034.0</v>
       </c>
       <c r="Y48" t="n" s="11">
-        <v>6076.0</v>
+        <v>6077.0</v>
       </c>
       <c r="Z48" t="n" s="11">
         <v>6092.0</v>
       </c>
       <c r="AA48" t="n" s="11">
-        <v>6068.0</v>
+        <v>6067.0</v>
       </c>
       <c r="AB48" t="n" s="11">
         <v>6053.0</v>
@@ -17340,7 +17337,7 @@
         <v>6220.0</v>
       </c>
       <c r="AN48" t="n" s="11">
-        <v>6247.0</v>
+        <v>6246.0</v>
       </c>
       <c r="AO48" t="n" s="11">
         <v>6296.0</v>
@@ -17391,10 +17388,10 @@
         <v>6634.0</v>
       </c>
       <c r="BE48" t="n" s="11">
-        <v>6642.0</v>
+        <v>6641.0</v>
       </c>
       <c r="BF48" t="n" s="11">
-        <v>6651.0</v>
+        <v>6650.0</v>
       </c>
       <c r="BG48" t="n" s="11">
         <v>6679.0</v>
@@ -17412,7 +17409,7 @@
         <v>6699.0</v>
       </c>
       <c r="BL48" t="n" s="11">
-        <v>6718.0</v>
+        <v>6719.0</v>
       </c>
       <c r="BM48" t="n" s="11">
         <v>6755.0</v>
@@ -17424,13 +17421,13 @@
         <v>6786.0</v>
       </c>
       <c r="BP48" t="n" s="11">
-        <v>6821.0</v>
+        <v>6822.0</v>
       </c>
       <c r="BQ48" t="n" s="11">
         <v>6837.0</v>
       </c>
       <c r="BR48" t="n" s="11">
-        <v>6879.0</v>
+        <v>6878.0</v>
       </c>
       <c r="BS48" t="n" s="11">
         <v>6950.0</v>
@@ -17460,7 +17457,7 @@
         <v>7117.0</v>
       </c>
       <c r="CB48" t="n" s="11">
-        <v>7160.0</v>
+        <v>7161.0</v>
       </c>
       <c r="CC48" t="n" s="11">
         <v>7213.0</v>
@@ -17517,7 +17514,7 @@
         <v>8126.0</v>
       </c>
       <c r="CU48" t="n" s="11">
-        <v>8180.0</v>
+        <v>8179.0</v>
       </c>
       <c r="CV48" t="n" s="11">
         <v>8278.0</v>
@@ -17529,87 +17526,87 @@
         <v>8364.0</v>
       </c>
       <c r="CY48" t="n" s="11">
-        <v>8421.0</v>
+        <v>8420.0</v>
       </c>
       <c r="CZ48" t="n" s="11">
-        <v>8454.0</v>
+        <v>8456.0</v>
       </c>
       <c r="DA48" t="n" s="11">
         <v>8498.0</v>
       </c>
       <c r="DB48" t="n" s="11">
-        <v>8576.0</v>
+        <v>8575.0</v>
       </c>
       <c r="DC48" t="n" s="11">
-        <v>8626.0</v>
+        <v>8624.0</v>
       </c>
       <c r="DD48" t="n" s="11">
-        <v>8669.0</v>
+        <v>8673.0</v>
       </c>
       <c r="DE48" t="n" s="11">
         <v>8718.0</v>
       </c>
       <c r="DF48" t="n" s="11">
-        <v>8807.0</v>
+        <v>8804.0</v>
       </c>
       <c r="DG48" t="n" s="11">
-        <v>8881.0</v>
+        <v>8878.0</v>
       </c>
       <c r="DH48" t="n" s="11">
-        <v>8938.0</v>
+        <v>8945.0</v>
       </c>
       <c r="DI48" t="n" s="11">
         <v>9027.0</v>
       </c>
       <c r="DJ48" t="n" s="11">
-        <v>9082.0</v>
+        <v>9078.0</v>
       </c>
       <c r="DK48" t="n" s="11">
-        <v>9144.0</v>
+        <v>9141.0</v>
       </c>
       <c r="DL48" t="n" s="11">
-        <v>9216.0</v>
+        <v>9227.0</v>
       </c>
       <c r="DM48" t="n" s="11">
-        <v>9331.0</v>
+        <v>9330.0</v>
       </c>
       <c r="DN48" t="n" s="11">
+        <v>9296.0</v>
+      </c>
+      <c r="DO48" t="n" s="11">
+        <v>9325.0</v>
+      </c>
+      <c r="DP48" t="n" s="11">
+        <v>8913.0</v>
+      </c>
+      <c r="DQ48" t="n" s="11">
         <v>9303.0</v>
       </c>
-      <c r="DO48" t="n" s="11">
-        <v>9329.0</v>
-      </c>
-      <c r="DP48" t="n" s="11">
-        <v>8897.0</v>
-      </c>
-      <c r="DQ48" t="n" s="11">
-        <v>9305.0</v>
-      </c>
       <c r="DR48" t="n" s="11">
-        <v>9418.0</v>
+        <v>9408.0</v>
       </c>
       <c r="DS48" t="n" s="11">
-        <v>9338.0</v>
+        <v>9342.0</v>
       </c>
       <c r="DT48" t="n" s="11">
-        <v>9394.0</v>
+        <v>9424.0</v>
       </c>
       <c r="DU48" t="n" s="11">
-        <v>9650.0</v>
-      </c>
-      <c r="DV48" t="s" s="11">
-        <v>44</v>
+        <v>9705.0</v>
+      </c>
+      <c r="DV48" t="n" s="11">
+        <v>9768.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s" s="14">
         <v>43</v>
       </c>
       <c r="C49" t="n" s="11">
-        <v>12.84</v>
+        <v>12.83</v>
       </c>
       <c r="D49" t="n" s="11">
         <v>13.37</v>
@@ -17624,7 +17621,7 @@
         <v>14.09</v>
       </c>
       <c r="H49" t="n" s="11">
-        <v>14.54</v>
+        <v>14.55</v>
       </c>
       <c r="I49" t="n" s="11">
         <v>15.08</v>
@@ -17681,7 +17678,7 @@
         <v>17.15</v>
       </c>
       <c r="AA49" t="n" s="11">
-        <v>17.4</v>
+        <v>17.39</v>
       </c>
       <c r="AB49" t="n" s="11">
         <v>16.85</v>
@@ -17813,7 +17810,7 @@
         <v>20.03</v>
       </c>
       <c r="BS49" t="n" s="11">
-        <v>20.27</v>
+        <v>20.26</v>
       </c>
       <c r="BT49" t="n" s="11">
         <v>20.08</v>
@@ -17855,7 +17852,7 @@
         <v>22.0</v>
       </c>
       <c r="CG49" t="n" s="11">
-        <v>22.04</v>
+        <v>22.05</v>
       </c>
       <c r="CH49" t="n" s="11">
         <v>22.22</v>
@@ -17879,7 +17876,7 @@
         <v>23.44</v>
       </c>
       <c r="CO49" t="n" s="11">
-        <v>23.48</v>
+        <v>23.49</v>
       </c>
       <c r="CP49" t="n" s="11">
         <v>23.8</v>
@@ -17909,10 +17906,10 @@
         <v>24.91</v>
       </c>
       <c r="CY49" t="n" s="11">
-        <v>25.47</v>
+        <v>25.46</v>
       </c>
       <c r="CZ49" t="n" s="11">
-        <v>25.05</v>
+        <v>25.06</v>
       </c>
       <c r="DA49" t="n" s="11">
         <v>25.47</v>
@@ -17924,87 +17921,87 @@
         <v>25.69</v>
       </c>
       <c r="DD49" t="n" s="11">
-        <v>26.09</v>
+        <v>26.1</v>
       </c>
       <c r="DE49" t="n" s="11">
         <v>26.22</v>
       </c>
       <c r="DF49" t="n" s="11">
-        <v>26.64</v>
+        <v>26.63</v>
       </c>
       <c r="DG49" t="n" s="11">
-        <v>26.84</v>
+        <v>26.83</v>
       </c>
       <c r="DH49" t="n" s="11">
-        <v>26.69</v>
+        <v>26.71</v>
       </c>
       <c r="DI49" t="n" s="11">
         <v>27.24</v>
       </c>
       <c r="DJ49" t="n" s="11">
-        <v>27.32</v>
+        <v>27.31</v>
       </c>
       <c r="DK49" t="n" s="11">
-        <v>27.38</v>
+        <v>27.37</v>
       </c>
       <c r="DL49" t="n" s="11">
-        <v>27.88</v>
+        <v>27.92</v>
       </c>
       <c r="DM49" t="n" s="11">
         <v>27.95</v>
       </c>
       <c r="DN49" t="n" s="11">
-        <v>28.17</v>
+        <v>28.15</v>
       </c>
       <c r="DO49" t="n" s="11">
-        <v>28.51</v>
+        <v>28.5</v>
       </c>
       <c r="DP49" t="n" s="11">
-        <v>29.08</v>
+        <v>29.14</v>
       </c>
       <c r="DQ49" t="n" s="11">
         <v>28.45</v>
       </c>
       <c r="DR49" t="n" s="11">
-        <v>29.06</v>
+        <v>29.03</v>
       </c>
       <c r="DS49" t="n" s="11">
         <v>29.37</v>
       </c>
       <c r="DT49" t="n" s="11">
-        <v>28.96</v>
+        <v>29.09</v>
       </c>
       <c r="DU49" t="n" s="11">
-        <v>29.04</v>
-      </c>
-      <c r="DV49" t="s" s="11">
-        <v>44</v>
+        <v>29.3</v>
+      </c>
+      <c r="DV49" t="n" s="11">
+        <v>29.4</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B50" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C50" t="n" s="11">
-        <v>70.46</v>
+        <v>70.47</v>
       </c>
       <c r="D50" t="n" s="11">
-        <v>73.96</v>
+        <v>73.95</v>
       </c>
       <c r="E50" t="n" s="11">
-        <v>74.57</v>
+        <v>74.56</v>
       </c>
       <c r="F50" t="n" s="11">
-        <v>74.74</v>
+        <v>74.75</v>
       </c>
       <c r="G50" t="n" s="11">
         <v>75.88</v>
       </c>
       <c r="H50" t="n" s="11">
-        <v>78.02</v>
+        <v>78.0</v>
       </c>
       <c r="I50" t="n" s="11">
         <v>80.68</v>
@@ -18013,19 +18010,19 @@
         <v>80.45</v>
       </c>
       <c r="K50" t="n" s="11">
-        <v>80.6</v>
+        <v>80.61</v>
       </c>
       <c r="L50" t="n" s="11">
-        <v>81.83</v>
+        <v>81.82</v>
       </c>
       <c r="M50" t="n" s="11">
         <v>81.87</v>
       </c>
       <c r="N50" t="n" s="11">
-        <v>82.56</v>
+        <v>82.58</v>
       </c>
       <c r="O50" t="n" s="11">
-        <v>82.29</v>
+        <v>82.3</v>
       </c>
       <c r="P50" t="n" s="11">
         <v>81.84</v>
@@ -18040,7 +18037,7 @@
         <v>83.25</v>
       </c>
       <c r="T50" t="n" s="11">
-        <v>83.59</v>
+        <v>83.58</v>
       </c>
       <c r="U50" t="n" s="11">
         <v>84.12</v>
@@ -18049,7 +18046,7 @@
         <v>84.75</v>
       </c>
       <c r="W50" t="n" s="11">
-        <v>85.02</v>
+        <v>85.04</v>
       </c>
       <c r="X50" t="n" s="11">
         <v>83.72</v>
@@ -18067,7 +18064,7 @@
         <v>82.87</v>
       </c>
       <c r="AC50" t="n" s="11">
-        <v>82.67</v>
+        <v>82.68</v>
       </c>
       <c r="AD50" t="n" s="11">
         <v>82.7</v>
@@ -18076,7 +18073,7 @@
         <v>82.17</v>
       </c>
       <c r="AF50" t="n" s="11">
-        <v>83.32</v>
+        <v>83.31</v>
       </c>
       <c r="AG50" t="n" s="11">
         <v>83.46</v>
@@ -18088,10 +18085,10 @@
         <v>83.54</v>
       </c>
       <c r="AJ50" t="n" s="11">
-        <v>84.77</v>
+        <v>84.76</v>
       </c>
       <c r="AK50" t="n" s="11">
-        <v>84.26</v>
+        <v>84.27</v>
       </c>
       <c r="AL50" t="n" s="11">
         <v>84.27</v>
@@ -18106,7 +18103,7 @@
         <v>84.97</v>
       </c>
       <c r="AP50" t="n" s="11">
-        <v>85.66</v>
+        <v>85.68</v>
       </c>
       <c r="AQ50" t="n" s="11">
         <v>84.18</v>
@@ -18118,7 +18115,7 @@
         <v>84.58</v>
       </c>
       <c r="AT50" t="n" s="11">
-        <v>85.48</v>
+        <v>85.49</v>
       </c>
       <c r="AU50" t="n" s="11">
         <v>85.49</v>
@@ -18136,7 +18133,7 @@
         <v>86.81</v>
       </c>
       <c r="AZ50" t="n" s="11">
-        <v>86.59</v>
+        <v>86.6</v>
       </c>
       <c r="BA50" t="n" s="11">
         <v>86.67</v>
@@ -18154,7 +18151,7 @@
         <v>86.51</v>
       </c>
       <c r="BF50" t="n" s="11">
-        <v>86.63</v>
+        <v>86.62</v>
       </c>
       <c r="BG50" t="n" s="11">
         <v>86.78</v>
@@ -18166,28 +18163,28 @@
         <v>85.56</v>
       </c>
       <c r="BJ50" t="n" s="11">
-        <v>85.37</v>
+        <v>85.36</v>
       </c>
       <c r="BK50" t="n" s="11">
         <v>84.95</v>
       </c>
       <c r="BL50" t="n" s="11">
-        <v>84.05</v>
+        <v>84.06</v>
       </c>
       <c r="BM50" t="n" s="11">
-        <v>84.35</v>
+        <v>84.37</v>
       </c>
       <c r="BN50" t="n" s="11">
-        <v>83.27</v>
+        <v>83.26</v>
       </c>
       <c r="BO50" t="n" s="11">
         <v>83.88</v>
       </c>
       <c r="BP50" t="n" s="11">
-        <v>83.72</v>
+        <v>83.73</v>
       </c>
       <c r="BQ50" t="n" s="11">
-        <v>83.89</v>
+        <v>83.88</v>
       </c>
       <c r="BR50" t="n" s="11">
         <v>83.98</v>
@@ -18199,7 +18196,7 @@
         <v>85.54</v>
       </c>
       <c r="BU50" t="n" s="11">
-        <v>86.65</v>
+        <v>86.64</v>
       </c>
       <c r="BV50" t="n" s="11">
         <v>88.79</v>
@@ -18220,13 +18217,13 @@
         <v>91.91</v>
       </c>
       <c r="CB50" t="n" s="11">
-        <v>90.59</v>
+        <v>90.6</v>
       </c>
       <c r="CC50" t="n" s="11">
         <v>90.79</v>
       </c>
       <c r="CD50" t="n" s="11">
-        <v>90.88</v>
+        <v>90.87</v>
       </c>
       <c r="CE50" t="n" s="11">
         <v>90.46</v>
@@ -18256,7 +18253,7 @@
         <v>96.07</v>
       </c>
       <c r="CN50" t="n" s="11">
-        <v>95.88</v>
+        <v>95.89</v>
       </c>
       <c r="CO50" t="n" s="11">
         <v>96.17</v>
@@ -18280,111 +18277,111 @@
         <v>99.31</v>
       </c>
       <c r="CV50" t="n" s="11">
-        <v>100.01</v>
+        <v>100.0</v>
       </c>
       <c r="CW50" t="n" s="11">
         <v>100.24</v>
       </c>
       <c r="CX50" t="n" s="11">
-        <v>100.81</v>
+        <v>100.8</v>
       </c>
       <c r="CY50" t="n" s="11">
-        <v>100.76</v>
+        <v>100.75</v>
       </c>
       <c r="CZ50" t="n" s="11">
-        <v>101.04</v>
+        <v>101.05</v>
       </c>
       <c r="DA50" t="n" s="11">
         <v>101.65</v>
       </c>
       <c r="DB50" t="n" s="11">
-        <v>102.57</v>
+        <v>102.56</v>
       </c>
       <c r="DC50" t="n" s="11">
-        <v>102.21</v>
+        <v>102.22</v>
       </c>
       <c r="DD50" t="n" s="11">
-        <v>102.39</v>
+        <v>102.42</v>
       </c>
       <c r="DE50" t="n" s="11">
-        <v>102.42</v>
+        <v>102.43</v>
       </c>
       <c r="DF50" t="n" s="11">
-        <v>102.99</v>
+        <v>102.96</v>
       </c>
       <c r="DG50" t="n" s="11">
-        <v>104.4</v>
+        <v>104.38</v>
       </c>
       <c r="DH50" t="n" s="11">
-        <v>104.85</v>
+        <v>104.92</v>
       </c>
       <c r="DI50" t="n" s="11">
         <v>106.68</v>
       </c>
       <c r="DJ50" t="n" s="11">
-        <v>107.2</v>
+        <v>107.16</v>
       </c>
       <c r="DK50" t="n" s="11">
-        <v>107.52</v>
+        <v>107.48</v>
       </c>
       <c r="DL50" t="n" s="11">
-        <v>109.1</v>
+        <v>109.22</v>
       </c>
       <c r="DM50" t="n" s="11">
-        <v>110.0</v>
+        <v>110.03</v>
       </c>
       <c r="DN50" t="n" s="11">
-        <v>110.1</v>
+        <v>110.01</v>
       </c>
       <c r="DO50" t="n" s="11">
-        <v>112.35</v>
+        <v>112.28</v>
       </c>
       <c r="DP50" t="n" s="11">
-        <v>118.75</v>
+        <v>118.94</v>
       </c>
       <c r="DQ50" t="n" s="11">
-        <v>112.93</v>
+        <v>112.96</v>
       </c>
       <c r="DR50" t="n" s="11">
-        <v>113.58</v>
+        <v>113.44</v>
       </c>
       <c r="DS50" t="n" s="11">
-        <v>115.02</v>
+        <v>114.79</v>
       </c>
       <c r="DT50" t="n" s="11">
-        <v>113.47</v>
+        <v>113.41</v>
       </c>
       <c r="DU50" t="n" s="11">
-        <v>114.63</v>
-      </c>
-      <c r="DV50" t="s" s="11">
-        <v>44</v>
+        <v>114.97</v>
+      </c>
+      <c r="DV50" t="n" s="11">
+        <v>116.58</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B51" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C51" t="n" s="11">
         <v>71.01</v>
       </c>
       <c r="D51" t="n" s="11">
-        <v>74.11</v>
+        <v>74.09</v>
       </c>
       <c r="E51" t="n" s="11">
-        <v>74.7</v>
+        <v>74.69</v>
       </c>
       <c r="F51" t="n" s="11">
-        <v>75.59</v>
+        <v>75.6</v>
       </c>
       <c r="G51" t="n" s="11">
         <v>75.79</v>
       </c>
       <c r="H51" t="n" s="11">
-        <v>78.47</v>
+        <v>78.45</v>
       </c>
       <c r="I51" t="n" s="11">
         <v>80.68</v>
@@ -18393,19 +18390,19 @@
         <v>80.56</v>
       </c>
       <c r="K51" t="n" s="11">
-        <v>81.14</v>
+        <v>81.15</v>
       </c>
       <c r="L51" t="n" s="11">
-        <v>82.26</v>
+        <v>82.24</v>
       </c>
       <c r="M51" t="n" s="11">
         <v>82.25</v>
       </c>
       <c r="N51" t="n" s="11">
-        <v>83.04</v>
+        <v>83.05</v>
       </c>
       <c r="O51" t="n" s="11">
-        <v>82.69</v>
+        <v>82.7</v>
       </c>
       <c r="P51" t="n" s="11">
         <v>82.51</v>
@@ -18420,7 +18417,7 @@
         <v>83.4</v>
       </c>
       <c r="T51" t="n" s="11">
-        <v>84.68</v>
+        <v>84.67</v>
       </c>
       <c r="U51" t="n" s="11">
         <v>85.31</v>
@@ -18429,7 +18426,7 @@
         <v>85.82</v>
       </c>
       <c r="W51" t="n" s="11">
-        <v>85.66</v>
+        <v>85.68</v>
       </c>
       <c r="X51" t="n" s="11">
         <v>84.88</v>
@@ -18486,7 +18483,7 @@
         <v>86.66</v>
       </c>
       <c r="AP51" t="n" s="11">
-        <v>87.12</v>
+        <v>87.14</v>
       </c>
       <c r="AQ51" t="n" s="11">
         <v>85.03</v>
@@ -18555,7 +18552,7 @@
         <v>85.03</v>
       </c>
       <c r="BM51" t="n" s="11">
-        <v>85.44</v>
+        <v>85.45</v>
       </c>
       <c r="BN51" t="n" s="11">
         <v>84.07</v>
@@ -18570,7 +18567,7 @@
         <v>84.91</v>
       </c>
       <c r="BR51" t="n" s="11">
-        <v>84.73</v>
+        <v>84.72</v>
       </c>
       <c r="BS51" t="n" s="11">
         <v>85.55</v>
@@ -18600,13 +18597,13 @@
         <v>92.91</v>
       </c>
       <c r="CB51" t="n" s="11">
-        <v>91.22</v>
+        <v>91.23</v>
       </c>
       <c r="CC51" t="n" s="11">
         <v>91.25</v>
       </c>
       <c r="CD51" t="n" s="11">
-        <v>90.83</v>
+        <v>90.82</v>
       </c>
       <c r="CE51" t="n" s="11">
         <v>90.82</v>
@@ -18627,7 +18624,7 @@
         <v>94.84</v>
       </c>
       <c r="CK51" t="n" s="11">
-        <v>95.18</v>
+        <v>95.19</v>
       </c>
       <c r="CL51" t="n" s="11">
         <v>95.99</v>
@@ -18666,84 +18663,84 @@
         <v>100.02</v>
       </c>
       <c r="CX51" t="n" s="11">
-        <v>100.14</v>
+        <v>100.13</v>
       </c>
       <c r="CY51" t="n" s="11">
-        <v>101.19</v>
+        <v>101.18</v>
       </c>
       <c r="CZ51" t="n" s="11">
-        <v>99.78</v>
+        <v>99.79</v>
       </c>
       <c r="DA51" t="n" s="11">
         <v>101.3</v>
       </c>
       <c r="DB51" t="n" s="11">
+        <v>102.26</v>
+      </c>
+      <c r="DC51" t="n" s="11">
+        <v>101.09</v>
+      </c>
+      <c r="DD51" t="n" s="11">
         <v>102.27</v>
-      </c>
-      <c r="DC51" t="n" s="11">
-        <v>101.08</v>
-      </c>
-      <c r="DD51" t="n" s="11">
-        <v>102.24</v>
       </c>
       <c r="DE51" t="n" s="11">
         <v>102.35</v>
       </c>
       <c r="DF51" t="n" s="11">
-        <v>103.02</v>
+        <v>103.0</v>
       </c>
       <c r="DG51" t="n" s="11">
-        <v>103.83</v>
+        <v>103.8</v>
       </c>
       <c r="DH51" t="n" s="11">
-        <v>104.04</v>
+        <v>104.09</v>
       </c>
       <c r="DI51" t="n" s="11">
         <v>106.46</v>
       </c>
       <c r="DJ51" t="n" s="11">
-        <v>106.67</v>
+        <v>106.61</v>
       </c>
       <c r="DK51" t="n" s="11">
-        <v>106.83</v>
+        <v>106.79</v>
       </c>
       <c r="DL51" t="n" s="11">
-        <v>108.57</v>
+        <v>108.71</v>
       </c>
       <c r="DM51" t="n" s="11">
-        <v>108.99</v>
+        <v>109.0</v>
       </c>
       <c r="DN51" t="n" s="11">
-        <v>109.63</v>
+        <v>109.53</v>
       </c>
       <c r="DO51" t="n" s="11">
-        <v>110.57</v>
+        <v>110.51</v>
       </c>
       <c r="DP51" t="n" s="11">
-        <v>116.42</v>
+        <v>116.62</v>
       </c>
       <c r="DQ51" t="n" s="11">
         <v>111.17</v>
       </c>
       <c r="DR51" t="n" s="11">
-        <v>111.04</v>
+        <v>110.89</v>
       </c>
       <c r="DS51" t="n" s="11">
-        <v>113.53</v>
+        <v>113.31</v>
       </c>
       <c r="DT51" t="n" s="11">
-        <v>111.56</v>
+        <v>111.51</v>
       </c>
       <c r="DU51" t="n" s="11">
-        <v>113.12</v>
-      </c>
-      <c r="DV51" t="s" s="11">
-        <v>44</v>
+        <v>113.46</v>
+      </c>
+      <c r="DV51" t="n" s="11">
+        <v>114.05</v>
       </c>
     </row>
     <row r="52" ht="33.75" customHeight="true">
       <c r="A52" t="s" s="15">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="53" ht="33.75" customHeight="true">
@@ -18759,139 +18756,139 @@
         <v>43</v>
       </c>
       <c r="C54" t="n" s="11">
-        <v>9601.0</v>
+        <v>9595.0</v>
       </c>
       <c r="D54" t="n" s="11">
-        <v>9720.0</v>
+        <v>9721.0</v>
       </c>
       <c r="E54" t="n" s="11">
         <v>9977.0</v>
       </c>
       <c r="F54" t="n" s="11">
-        <v>10216.0</v>
+        <v>10212.0</v>
       </c>
       <c r="G54" t="n" s="11">
-        <v>10549.0</v>
+        <v>10550.0</v>
       </c>
       <c r="H54" t="n" s="11">
-        <v>10692.0</v>
+        <v>10689.0</v>
       </c>
       <c r="I54" t="n" s="11">
         <v>10700.0</v>
       </c>
       <c r="J54" t="n" s="11">
-        <v>10686.0</v>
+        <v>10687.0</v>
       </c>
       <c r="K54" t="n" s="11">
-        <v>10567.0</v>
+        <v>10565.0</v>
       </c>
       <c r="L54" t="n" s="11">
-        <v>10627.0</v>
+        <v>10629.0</v>
       </c>
       <c r="M54" t="n" s="11">
-        <v>10796.0</v>
+        <v>10797.0</v>
       </c>
       <c r="N54" t="n" s="11">
-        <v>10820.0</v>
+        <v>10825.0</v>
       </c>
       <c r="O54" t="n" s="11">
-        <v>11182.0</v>
+        <v>11183.0</v>
       </c>
       <c r="P54" t="n" s="11">
-        <v>11394.0</v>
+        <v>11396.0</v>
       </c>
       <c r="Q54" t="n" s="11">
-        <v>11592.0</v>
+        <v>11594.0</v>
       </c>
       <c r="R54" t="n" s="11">
-        <v>12002.0</v>
+        <v>12000.0</v>
       </c>
       <c r="S54" t="n" s="11">
-        <v>11982.0</v>
+        <v>11985.0</v>
       </c>
       <c r="T54" t="n" s="11">
-        <v>12171.0</v>
+        <v>12169.0</v>
       </c>
       <c r="U54" t="n" s="11">
-        <v>12210.0</v>
+        <v>12207.0</v>
       </c>
       <c r="V54" t="n" s="11">
-        <v>12142.0</v>
+        <v>12140.0</v>
       </c>
       <c r="W54" t="n" s="11">
-        <v>12157.0</v>
+        <v>12158.0</v>
       </c>
       <c r="X54" t="n" s="11">
-        <v>12256.0</v>
+        <v>12253.0</v>
       </c>
       <c r="Y54" t="n" s="11">
         <v>12379.0</v>
       </c>
       <c r="Z54" t="n" s="11">
-        <v>12512.0</v>
+        <v>12510.0</v>
       </c>
       <c r="AA54" t="n" s="11">
-        <v>12714.0</v>
+        <v>12706.0</v>
       </c>
       <c r="AB54" t="n" s="11">
-        <v>12814.0</v>
+        <v>12818.0</v>
       </c>
       <c r="AC54" t="n" s="11">
         <v>12978.0</v>
       </c>
       <c r="AD54" t="n" s="11">
-        <v>13259.0</v>
+        <v>13256.0</v>
       </c>
       <c r="AE54" t="n" s="11">
-        <v>13332.0</v>
+        <v>13334.0</v>
       </c>
       <c r="AF54" t="n" s="11">
-        <v>13301.0</v>
+        <v>13297.0</v>
       </c>
       <c r="AG54" t="n" s="11">
-        <v>13201.0</v>
+        <v>13202.0</v>
       </c>
       <c r="AH54" t="n" s="11">
-        <v>13019.0</v>
+        <v>13022.0</v>
       </c>
       <c r="AI54" t="n" s="11">
-        <v>13060.0</v>
+        <v>13059.0</v>
       </c>
       <c r="AJ54" t="n" s="11">
-        <v>13060.0</v>
+        <v>13064.0</v>
       </c>
       <c r="AK54" t="n" s="11">
-        <v>13244.0</v>
+        <v>13247.0</v>
       </c>
       <c r="AL54" t="n" s="11">
-        <v>13376.0</v>
+        <v>13383.0</v>
       </c>
       <c r="AM54" t="n" s="11">
-        <v>13470.0</v>
+        <v>13475.0</v>
       </c>
       <c r="AN54" t="n" s="11">
-        <v>13825.0</v>
+        <v>13824.0</v>
       </c>
       <c r="AO54" t="n" s="11">
-        <v>13962.0</v>
+        <v>13960.0</v>
       </c>
       <c r="AP54" t="n" s="11">
-        <v>14135.0</v>
+        <v>14131.0</v>
       </c>
       <c r="AQ54" t="n" s="11">
         <v>14312.0</v>
       </c>
       <c r="AR54" t="n" s="11">
-        <v>14158.0</v>
+        <v>14156.0</v>
       </c>
       <c r="AS54" t="n" s="11">
-        <v>14061.0</v>
+        <v>14058.0</v>
       </c>
       <c r="AT54" t="n" s="11">
-        <v>14017.0</v>
+        <v>14014.0</v>
       </c>
       <c r="AU54" t="n" s="11">
-        <v>13945.0</v>
+        <v>13939.0</v>
       </c>
       <c r="AV54" t="n" s="11">
         <v>14127.0</v>
@@ -18900,22 +18897,22 @@
         <v>14386.0</v>
       </c>
       <c r="AX54" t="n" s="11">
-        <v>14441.0</v>
+        <v>14439.0</v>
       </c>
       <c r="AY54" t="n" s="11">
-        <v>14668.0</v>
+        <v>14666.0</v>
       </c>
       <c r="AZ54" t="n" s="11">
-        <v>14599.0</v>
+        <v>14596.0</v>
       </c>
       <c r="BA54" t="n" s="11">
         <v>14667.0</v>
       </c>
       <c r="BB54" t="n" s="11">
-        <v>15028.0</v>
+        <v>15024.0</v>
       </c>
       <c r="BC54" t="n" s="11">
-        <v>14999.0</v>
+        <v>15006.0</v>
       </c>
       <c r="BD54" t="n" s="11">
         <v>15301.0</v>
@@ -18924,216 +18921,216 @@
         <v>15370.0</v>
       </c>
       <c r="BF54" t="n" s="11">
-        <v>15287.0</v>
+        <v>15292.0</v>
       </c>
       <c r="BG54" t="n" s="11">
-        <v>15519.0</v>
+        <v>15526.0</v>
       </c>
       <c r="BH54" t="n" s="11">
-        <v>15588.0</v>
+        <v>15593.0</v>
       </c>
       <c r="BI54" t="n" s="11">
-        <v>15869.0</v>
+        <v>15866.0</v>
       </c>
       <c r="BJ54" t="n" s="11">
-        <v>16183.0</v>
+        <v>16177.0</v>
       </c>
       <c r="BK54" t="n" s="11">
-        <v>16668.0</v>
+        <v>16698.0</v>
       </c>
       <c r="BL54" t="n" s="11">
-        <v>17115.0</v>
+        <v>17101.0</v>
       </c>
       <c r="BM54" t="n" s="11">
-        <v>17386.0</v>
+        <v>17377.0</v>
       </c>
       <c r="BN54" t="n" s="11">
-        <v>17657.0</v>
+        <v>17649.0</v>
       </c>
       <c r="BO54" t="n" s="11">
-        <v>17872.0</v>
+        <v>17886.0</v>
       </c>
       <c r="BP54" t="n" s="11">
-        <v>17878.0</v>
+        <v>17869.0</v>
       </c>
       <c r="BQ54" t="n" s="11">
-        <v>17998.0</v>
+        <v>17991.0</v>
       </c>
       <c r="BR54" t="n" s="11">
-        <v>18160.0</v>
+        <v>18156.0</v>
       </c>
       <c r="BS54" t="n" s="11">
         <v>17713.0</v>
       </c>
       <c r="BT54" t="n" s="11">
-        <v>17517.0</v>
+        <v>17524.0</v>
       </c>
       <c r="BU54" t="n" s="11">
-        <v>17131.0</v>
+        <v>17129.0</v>
       </c>
       <c r="BV54" t="n" s="11">
-        <v>16098.0</v>
+        <v>16091.0</v>
       </c>
       <c r="BW54" t="n" s="11">
-        <v>14271.0</v>
+        <v>14276.0</v>
       </c>
       <c r="BX54" t="n" s="11">
-        <v>14431.0</v>
+        <v>14427.0</v>
       </c>
       <c r="BY54" t="n" s="11">
-        <v>15078.0</v>
+        <v>15077.0</v>
       </c>
       <c r="BZ54" t="n" s="11">
-        <v>15723.0</v>
+        <v>15725.0</v>
       </c>
       <c r="CA54" t="n" s="11">
-        <v>16831.0</v>
+        <v>16833.0</v>
       </c>
       <c r="CB54" t="n" s="11">
-        <v>17460.0</v>
+        <v>17463.0</v>
       </c>
       <c r="CC54" t="n" s="11">
-        <v>17743.0</v>
+        <v>17746.0</v>
       </c>
       <c r="CD54" t="n" s="11">
-        <v>18258.0</v>
+        <v>18265.0</v>
       </c>
       <c r="CE54" t="n" s="11">
-        <v>18381.0</v>
+        <v>18384.0</v>
       </c>
       <c r="CF54" t="n" s="11">
-        <v>18585.0</v>
+        <v>18589.0</v>
       </c>
       <c r="CG54" t="n" s="11">
-        <v>18793.0</v>
+        <v>18796.0</v>
       </c>
       <c r="CH54" t="n" s="11">
         <v>18736.0</v>
       </c>
       <c r="CI54" t="n" s="11">
-        <v>18772.0</v>
+        <v>18779.0</v>
       </c>
       <c r="CJ54" t="n" s="11">
-        <v>18697.0</v>
+        <v>18694.0</v>
       </c>
       <c r="CK54" t="n" s="11">
-        <v>18698.0</v>
+        <v>18695.0</v>
       </c>
       <c r="CL54" t="n" s="11">
-        <v>18644.0</v>
+        <v>18641.0</v>
       </c>
       <c r="CM54" t="n" s="11">
-        <v>18588.0</v>
+        <v>18582.0</v>
       </c>
       <c r="CN54" t="n" s="11">
-        <v>18850.0</v>
+        <v>18851.0</v>
       </c>
       <c r="CO54" t="n" s="11">
-        <v>18970.0</v>
+        <v>18969.0</v>
       </c>
       <c r="CP54" t="n" s="11">
-        <v>19262.0</v>
+        <v>19260.0</v>
       </c>
       <c r="CQ54" t="n" s="11">
-        <v>19677.0</v>
+        <v>19676.0</v>
       </c>
       <c r="CR54" t="n" s="11">
-        <v>19659.0</v>
+        <v>19656.0</v>
       </c>
       <c r="CS54" t="n" s="11">
-        <v>19940.0</v>
+        <v>19938.0</v>
       </c>
       <c r="CT54" t="n" s="11">
-        <v>20221.0</v>
+        <v>20218.0</v>
       </c>
       <c r="CU54" t="n" s="11">
         <v>20140.0</v>
       </c>
       <c r="CV54" t="n" s="11">
-        <v>20460.0</v>
+        <v>20456.0</v>
       </c>
       <c r="CW54" t="n" s="11">
-        <v>20647.0</v>
+        <v>20648.0</v>
       </c>
       <c r="CX54" t="n" s="11">
-        <v>20748.0</v>
+        <v>20753.0</v>
       </c>
       <c r="CY54" t="n" s="11">
-        <v>21304.0</v>
+        <v>21300.0</v>
       </c>
       <c r="CZ54" t="n" s="11">
-        <v>21446.0</v>
+        <v>21454.0</v>
       </c>
       <c r="DA54" t="n" s="11">
-        <v>21430.0</v>
+        <v>21432.0</v>
       </c>
       <c r="DB54" t="n" s="11">
-        <v>21478.0</v>
+        <v>21480.0</v>
       </c>
       <c r="DC54" t="n" s="11">
-        <v>21590.0</v>
+        <v>21597.0</v>
       </c>
       <c r="DD54" t="n" s="11">
-        <v>21752.0</v>
+        <v>21746.0</v>
       </c>
       <c r="DE54" t="n" s="11">
-        <v>22206.0</v>
+        <v>22204.0</v>
       </c>
       <c r="DF54" t="n" s="11">
-        <v>22412.0</v>
+        <v>22407.0</v>
       </c>
       <c r="DG54" t="n" s="11">
-        <v>22101.0</v>
+        <v>22096.0</v>
       </c>
       <c r="DH54" t="n" s="11">
         <v>22218.0</v>
       </c>
       <c r="DI54" t="n" s="11">
-        <v>21770.0</v>
+        <v>21766.0</v>
       </c>
       <c r="DJ54" t="n" s="11">
-        <v>21657.0</v>
+        <v>21658.0</v>
       </c>
       <c r="DK54" t="n" s="11">
-        <v>21853.0</v>
+        <v>21852.0</v>
       </c>
       <c r="DL54" t="n" s="11">
-        <v>21829.0</v>
+        <v>21814.0</v>
       </c>
       <c r="DM54" t="n" s="11">
         <v>22011.0</v>
       </c>
       <c r="DN54" t="n" s="11">
-        <v>21549.0</v>
+        <v>21566.0</v>
       </c>
       <c r="DO54" t="n" s="11">
-        <v>21074.0</v>
+        <v>21099.0</v>
       </c>
       <c r="DP54" t="n" s="11">
-        <v>17635.0</v>
+        <v>17605.0</v>
       </c>
       <c r="DQ54" t="n" s="11">
-        <v>20641.0</v>
+        <v>20601.0</v>
       </c>
       <c r="DR54" t="n" s="11">
-        <v>21197.0</v>
+        <v>21271.0</v>
       </c>
       <c r="DS54" t="n" s="11">
-        <v>21570.0</v>
+        <v>21596.0</v>
       </c>
       <c r="DT54" t="n" s="11">
-        <v>21890.0</v>
+        <v>21884.0</v>
       </c>
       <c r="DU54" t="n" s="11">
-        <v>22050.0</v>
-      </c>
-      <c r="DV54" t="s" s="11">
-        <v>44</v>
+        <v>21982.0</v>
+      </c>
+      <c r="DV54" t="n" s="11">
+        <v>21561.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" t="s" s="14">
         <v>43</v>
@@ -19460,13 +19457,13 @@
         <v>60.69</v>
       </c>
       <c r="DF55" t="n" s="11">
-        <v>61.35</v>
+        <v>61.36</v>
       </c>
       <c r="DG55" t="n" s="11">
         <v>60.81</v>
       </c>
       <c r="DH55" t="n" s="11">
-        <v>60.58</v>
+        <v>60.57</v>
       </c>
       <c r="DI55" t="n" s="11">
         <v>59.75</v>
@@ -19478,425 +19475,425 @@
         <v>59.84</v>
       </c>
       <c r="DL55" t="n" s="11">
-        <v>60.11</v>
+        <v>60.09</v>
       </c>
       <c r="DM55" t="n" s="11">
-        <v>60.37</v>
+        <v>60.36</v>
       </c>
       <c r="DN55" t="n" s="11">
-        <v>59.93</v>
+        <v>59.95</v>
       </c>
       <c r="DO55" t="n" s="11">
-        <v>58.98</v>
+        <v>59.02</v>
       </c>
       <c r="DP55" t="n" s="11">
-        <v>53.45</v>
+        <v>53.43</v>
       </c>
       <c r="DQ55" t="n" s="11">
-        <v>59.17</v>
+        <v>59.11</v>
       </c>
       <c r="DR55" t="n" s="11">
-        <v>60.33</v>
+        <v>60.42</v>
       </c>
       <c r="DS55" t="n" s="11">
-        <v>61.47</v>
+        <v>61.43</v>
       </c>
       <c r="DT55" t="n" s="11">
-        <v>61.31</v>
+        <v>61.41</v>
       </c>
       <c r="DU55" t="n" s="11">
-        <v>61.08</v>
-      </c>
-      <c r="DV55" t="s" s="11">
-        <v>44</v>
+        <v>61.17</v>
+      </c>
+      <c r="DV55" t="n" s="11">
+        <v>60.42</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B56" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="B56" t="s" s="14">
-        <v>47</v>
-      </c>
       <c r="C56" t="n" s="11">
-        <v>57.09</v>
+        <v>57.01</v>
       </c>
       <c r="D56" t="n" s="11">
-        <v>57.76</v>
+        <v>57.77</v>
       </c>
       <c r="E56" t="n" s="11">
-        <v>58.59</v>
+        <v>58.58</v>
       </c>
       <c r="F56" t="n" s="11">
-        <v>60.02</v>
+        <v>59.96</v>
       </c>
       <c r="G56" t="n" s="11">
-        <v>60.76</v>
+        <v>60.79</v>
       </c>
       <c r="H56" t="n" s="11">
-        <v>60.92</v>
+        <v>60.88</v>
       </c>
       <c r="I56" t="n" s="11">
         <v>60.65</v>
       </c>
       <c r="J56" t="n" s="11">
-        <v>59.93</v>
+        <v>59.95</v>
       </c>
       <c r="K56" t="n" s="11">
-        <v>59.25</v>
+        <v>59.22</v>
       </c>
       <c r="L56" t="n" s="11">
-        <v>59.47</v>
+        <v>59.49</v>
       </c>
       <c r="M56" t="n" s="11">
-        <v>60.49</v>
+        <v>60.51</v>
       </c>
       <c r="N56" t="n" s="11">
-        <v>60.86</v>
+        <v>60.94</v>
       </c>
       <c r="O56" t="n" s="11">
-        <v>63.36</v>
+        <v>63.38</v>
       </c>
       <c r="P56" t="n" s="11">
-        <v>64.69</v>
+        <v>64.73</v>
       </c>
       <c r="Q56" t="n" s="11">
-        <v>65.6</v>
+        <v>65.63</v>
       </c>
       <c r="R56" t="n" s="11">
-        <v>67.28</v>
+        <v>67.26</v>
       </c>
       <c r="S56" t="n" s="11">
-        <v>66.76</v>
+        <v>66.81</v>
       </c>
       <c r="T56" t="n" s="11">
-        <v>66.98</v>
+        <v>66.95</v>
       </c>
       <c r="U56" t="n" s="11">
-        <v>66.77</v>
+        <v>66.72</v>
       </c>
       <c r="V56" t="n" s="11">
-        <v>66.4</v>
+        <v>66.38</v>
       </c>
       <c r="W56" t="n" s="11">
-        <v>65.86</v>
+        <v>65.88</v>
       </c>
       <c r="X56" t="n" s="11">
-        <v>66.34</v>
+        <v>66.28</v>
       </c>
       <c r="Y56" t="n" s="11">
         <v>66.94</v>
       </c>
       <c r="Z56" t="n" s="11">
-        <v>67.48</v>
+        <v>67.44</v>
       </c>
       <c r="AA56" t="n" s="11">
-        <v>69.28</v>
+        <v>69.16</v>
       </c>
       <c r="AB56" t="n" s="11">
-        <v>70.18</v>
+        <v>70.23</v>
       </c>
       <c r="AC56" t="n" s="11">
-        <v>70.9</v>
+        <v>70.89</v>
       </c>
       <c r="AD56" t="n" s="11">
-        <v>72.31</v>
+        <v>72.25</v>
       </c>
       <c r="AE56" t="n" s="11">
-        <v>71.42</v>
+        <v>71.43</v>
       </c>
       <c r="AF56" t="n" s="11">
-        <v>70.74</v>
+        <v>70.7</v>
       </c>
       <c r="AG56" t="n" s="11">
-        <v>70.29</v>
+        <v>70.3</v>
       </c>
       <c r="AH56" t="n" s="11">
-        <v>69.39</v>
+        <v>69.43</v>
       </c>
       <c r="AI56" t="n" s="11">
-        <v>70.0</v>
+        <v>69.98</v>
       </c>
       <c r="AJ56" t="n" s="11">
-        <v>70.27</v>
+        <v>70.31</v>
       </c>
       <c r="AK56" t="n" s="11">
-        <v>71.36</v>
+        <v>71.4</v>
       </c>
       <c r="AL56" t="n" s="11">
-        <v>72.15</v>
+        <v>72.26</v>
       </c>
       <c r="AM56" t="n" s="11">
-        <v>73.69</v>
+        <v>73.77</v>
       </c>
       <c r="AN56" t="n" s="11">
-        <v>75.7</v>
+        <v>75.69</v>
       </c>
       <c r="AO56" t="n" s="11">
-        <v>76.32</v>
+        <v>76.29</v>
       </c>
       <c r="AP56" t="n" s="11">
-        <v>77.18</v>
+        <v>77.12</v>
       </c>
       <c r="AQ56" t="n" s="11">
-        <v>77.85</v>
+        <v>77.86</v>
       </c>
       <c r="AR56" t="n" s="11">
-        <v>76.83</v>
+        <v>76.79</v>
       </c>
       <c r="AS56" t="n" s="11">
-        <v>76.44</v>
+        <v>76.39</v>
       </c>
       <c r="AT56" t="n" s="11">
-        <v>76.15</v>
+        <v>76.11</v>
       </c>
       <c r="AU56" t="n" s="11">
-        <v>75.42</v>
+        <v>75.34</v>
       </c>
       <c r="AV56" t="n" s="11">
-        <v>76.38</v>
+        <v>76.39</v>
       </c>
       <c r="AW56" t="n" s="11">
-        <v>77.26</v>
+        <v>77.25</v>
       </c>
       <c r="AX56" t="n" s="11">
-        <v>77.63</v>
+        <v>77.6</v>
       </c>
       <c r="AY56" t="n" s="11">
-        <v>78.63</v>
+        <v>78.61</v>
       </c>
       <c r="AZ56" t="n" s="11">
-        <v>78.65</v>
+        <v>78.6</v>
       </c>
       <c r="BA56" t="n" s="11">
         <v>79.56</v>
       </c>
       <c r="BB56" t="n" s="11">
-        <v>81.68</v>
+        <v>81.63</v>
       </c>
       <c r="BC56" t="n" s="11">
-        <v>81.65</v>
+        <v>81.73</v>
       </c>
       <c r="BD56" t="n" s="11">
         <v>83.13</v>
       </c>
       <c r="BE56" t="n" s="11">
-        <v>83.39</v>
+        <v>83.41</v>
       </c>
       <c r="BF56" t="n" s="11">
-        <v>82.57</v>
+        <v>82.68</v>
       </c>
       <c r="BG56" t="n" s="11">
-        <v>84.1</v>
+        <v>84.11</v>
       </c>
       <c r="BH56" t="n" s="11">
-        <v>84.7</v>
+        <v>84.81</v>
       </c>
       <c r="BI56" t="n" s="11">
-        <v>86.36</v>
+        <v>86.38</v>
       </c>
       <c r="BJ56" t="n" s="11">
-        <v>88.38</v>
+        <v>88.35</v>
       </c>
       <c r="BK56" t="n" s="11">
-        <v>91.53</v>
+        <v>91.75</v>
       </c>
       <c r="BL56" t="n" s="11">
-        <v>94.16</v>
+        <v>94.05</v>
       </c>
       <c r="BM56" t="n" s="11">
-        <v>95.79</v>
+        <v>95.72</v>
       </c>
       <c r="BN56" t="n" s="11">
-        <v>97.45</v>
+        <v>97.39</v>
       </c>
       <c r="BO56" t="n" s="11">
-        <v>97.36</v>
+        <v>97.44</v>
       </c>
       <c r="BP56" t="n" s="11">
-        <v>96.95</v>
+        <v>96.86</v>
       </c>
       <c r="BQ56" t="n" s="11">
-        <v>97.54</v>
+        <v>97.46</v>
       </c>
       <c r="BR56" t="n" s="11">
-        <v>98.52</v>
+        <v>98.47</v>
       </c>
       <c r="BS56" t="n" s="11">
-        <v>96.37</v>
+        <v>96.35</v>
       </c>
       <c r="BT56" t="n" s="11">
-        <v>94.91</v>
+        <v>95.02</v>
       </c>
       <c r="BU56" t="n" s="11">
-        <v>92.4</v>
+        <v>92.38</v>
       </c>
       <c r="BV56" t="n" s="11">
-        <v>88.02</v>
+        <v>87.93</v>
       </c>
       <c r="BW56" t="n" s="11">
-        <v>73.83</v>
+        <v>73.91</v>
       </c>
       <c r="BX56" t="n" s="11">
-        <v>74.76</v>
+        <v>74.7</v>
       </c>
       <c r="BY56" t="n" s="11">
         <v>77.84</v>
       </c>
       <c r="BZ56" t="n" s="11">
-        <v>81.1</v>
+        <v>81.12</v>
       </c>
       <c r="CA56" t="n" s="11">
-        <v>87.79</v>
+        <v>87.83</v>
       </c>
       <c r="CB56" t="n" s="11">
-        <v>92.03</v>
+        <v>92.07</v>
       </c>
       <c r="CC56" t="n" s="11">
-        <v>93.72</v>
+        <v>93.75</v>
       </c>
       <c r="CD56" t="n" s="11">
-        <v>96.57</v>
+        <v>96.66</v>
       </c>
       <c r="CE56" t="n" s="11">
-        <v>97.86</v>
+        <v>97.91</v>
       </c>
       <c r="CF56" t="n" s="11">
-        <v>98.42</v>
+        <v>98.47</v>
       </c>
       <c r="CG56" t="n" s="11">
-        <v>99.02</v>
+        <v>99.06</v>
       </c>
       <c r="CH56" t="n" s="11">
         <v>98.3</v>
       </c>
       <c r="CI56" t="n" s="11">
-        <v>96.57</v>
+        <v>96.65</v>
       </c>
       <c r="CJ56" t="n" s="11">
-        <v>95.94</v>
+        <v>95.91</v>
       </c>
       <c r="CK56" t="n" s="11">
-        <v>95.48</v>
+        <v>95.43</v>
       </c>
       <c r="CL56" t="n" s="11">
-        <v>94.57</v>
+        <v>94.53</v>
       </c>
       <c r="CM56" t="n" s="11">
-        <v>94.14</v>
+        <v>94.05</v>
       </c>
       <c r="CN56" t="n" s="11">
-        <v>95.19</v>
+        <v>95.22</v>
       </c>
       <c r="CO56" t="n" s="11">
-        <v>95.63</v>
+        <v>95.62</v>
       </c>
       <c r="CP56" t="n" s="11">
-        <v>97.16</v>
+        <v>97.12</v>
       </c>
       <c r="CQ56" t="n" s="11">
-        <v>99.46</v>
+        <v>99.45</v>
       </c>
       <c r="CR56" t="n" s="11">
+        <v>98.91</v>
+      </c>
+      <c r="CS56" t="n" s="11">
+        <v>99.74</v>
+      </c>
+      <c r="CT56" t="n" s="11">
+        <v>100.51</v>
+      </c>
+      <c r="CU56" t="n" s="11">
         <v>98.95</v>
       </c>
-      <c r="CS56" t="n" s="11">
-        <v>99.76</v>
-      </c>
-      <c r="CT56" t="n" s="11">
-        <v>100.57</v>
-      </c>
-      <c r="CU56" t="n" s="11">
-        <v>98.94</v>
-      </c>
       <c r="CV56" t="n" s="11">
-        <v>99.9</v>
+        <v>99.84</v>
       </c>
       <c r="CW56" t="n" s="11">
-        <v>100.46</v>
+        <v>100.47</v>
       </c>
       <c r="CX56" t="n" s="11">
-        <v>100.68</v>
+        <v>100.75</v>
       </c>
       <c r="CY56" t="n" s="11">
-        <v>102.65</v>
+        <v>102.6</v>
       </c>
       <c r="CZ56" t="n" s="11">
-        <v>103.49</v>
+        <v>103.61</v>
       </c>
       <c r="DA56" t="n" s="11">
-        <v>103.37</v>
+        <v>103.4</v>
       </c>
       <c r="DB56" t="n" s="11">
-        <v>103.41</v>
+        <v>103.45</v>
       </c>
       <c r="DC56" t="n" s="11">
-        <v>104.86</v>
+        <v>104.95</v>
       </c>
       <c r="DD56" t="n" s="11">
-        <v>105.45</v>
+        <v>105.37</v>
       </c>
       <c r="DE56" t="n" s="11">
-        <v>107.73</v>
+        <v>107.69</v>
       </c>
       <c r="DF56" t="n" s="11">
-        <v>109.0</v>
+        <v>108.92</v>
       </c>
       <c r="DG56" t="n" s="11">
-        <v>107.43</v>
+        <v>107.37</v>
       </c>
       <c r="DH56" t="n" s="11">
         <v>107.7</v>
       </c>
       <c r="DI56" t="n" s="11">
-        <v>105.57</v>
+        <v>105.52</v>
       </c>
       <c r="DJ56" t="n" s="11">
-        <v>104.69</v>
+        <v>104.74</v>
       </c>
       <c r="DK56" t="n" s="11">
-        <v>105.12</v>
+        <v>105.08</v>
       </c>
       <c r="DL56" t="n" s="11">
-        <v>104.26</v>
+        <v>104.05</v>
       </c>
       <c r="DM56" t="n" s="11">
-        <v>104.46</v>
+        <v>104.27</v>
       </c>
       <c r="DN56" t="n" s="11">
+        <v>102.16</v>
+      </c>
+      <c r="DO56" t="n" s="11">
+        <v>99.36</v>
+      </c>
+      <c r="DP56" t="n" s="11">
+        <v>82.39</v>
+      </c>
+      <c r="DQ56" t="n" s="11">
+        <v>96.98</v>
+      </c>
+      <c r="DR56" t="n" s="11">
+        <v>102.25</v>
+      </c>
+      <c r="DS56" t="n" s="11">
+        <v>100.59</v>
+      </c>
+      <c r="DT56" t="n" s="11">
         <v>101.42</v>
       </c>
-      <c r="DO56" t="n" s="11">
-        <v>99.5</v>
-      </c>
-      <c r="DP56" t="n" s="11">
-        <v>82.92</v>
-      </c>
-      <c r="DQ56" t="n" s="11">
-        <v>97.54</v>
-      </c>
-      <c r="DR56" t="n" s="11">
-        <v>100.58</v>
-      </c>
-      <c r="DS56" t="n" s="11">
-        <v>100.97</v>
-      </c>
-      <c r="DT56" t="n" s="11">
-        <v>101.79</v>
-      </c>
       <c r="DU56" t="n" s="11">
-        <v>101.36</v>
-      </c>
-      <c r="DV56" t="s" s="11">
-        <v>44</v>
+        <v>101.19</v>
+      </c>
+      <c r="DV56" t="n" s="11">
+        <v>100.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C57" t="n" s="11">
         <v>54.45</v>
@@ -20226,54 +20223,54 @@
         <v>109.05</v>
       </c>
       <c r="DH57" t="n" s="11">
-        <v>108.35</v>
+        <v>108.34</v>
       </c>
       <c r="DI57" t="n" s="11">
         <v>106.89</v>
       </c>
       <c r="DJ57" t="n" s="11">
-        <v>105.77</v>
+        <v>105.85</v>
       </c>
       <c r="DK57" t="n" s="11">
-        <v>106.19</v>
+        <v>106.2</v>
       </c>
       <c r="DL57" t="n" s="11">
-        <v>105.92</v>
+        <v>105.72</v>
       </c>
       <c r="DM57" t="n" s="11">
-        <v>105.73</v>
+        <v>105.45</v>
       </c>
       <c r="DN57" t="n" s="11">
-        <v>104.05</v>
+        <v>105.02</v>
       </c>
       <c r="DO57" t="n" s="11">
-        <v>102.78</v>
+        <v>102.49</v>
       </c>
       <c r="DP57" t="n" s="11">
-        <v>92.7</v>
+        <v>92.09</v>
       </c>
       <c r="DQ57" t="n" s="11">
-        <v>103.2</v>
+        <v>102.58</v>
       </c>
       <c r="DR57" t="n" s="11">
-        <v>105.69</v>
+        <v>107.66</v>
       </c>
       <c r="DS57" t="n" s="11">
-        <v>106.17</v>
+        <v>105.39</v>
       </c>
       <c r="DT57" t="n" s="11">
-        <v>105.23</v>
+        <v>104.8</v>
       </c>
       <c r="DU57" t="n" s="11">
-        <v>103.64</v>
-      </c>
-      <c r="DV57" t="s" s="11">
-        <v>44</v>
+        <v>103.81</v>
+      </c>
+      <c r="DV57" t="n" s="11">
+        <v>104.23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s" s="14">
         <v>43</v>
@@ -20606,7 +20603,7 @@
         <v>14110.0</v>
       </c>
       <c r="DH58" t="n" s="11">
-        <v>14274.0</v>
+        <v>14275.0</v>
       </c>
       <c r="DI58" t="n" s="11">
         <v>14201.0</v>
@@ -20615,45 +20612,45 @@
         <v>14357.0</v>
       </c>
       <c r="DK58" t="n" s="11">
-        <v>14456.0</v>
+        <v>14455.0</v>
       </c>
       <c r="DL58" t="n" s="11">
-        <v>14614.0</v>
+        <v>14617.0</v>
       </c>
       <c r="DM58" t="n" s="11">
-        <v>14712.0</v>
+        <v>14707.0</v>
       </c>
       <c r="DN58" t="n" s="11">
         <v>14513.0</v>
       </c>
       <c r="DO58" t="n" s="11">
-        <v>14466.0</v>
+        <v>14469.0</v>
       </c>
       <c r="DP58" t="n" s="11">
-        <v>13722.0</v>
+        <v>13743.0</v>
       </c>
       <c r="DQ58" t="n" s="11">
-        <v>14298.0</v>
+        <v>14270.0</v>
       </c>
       <c r="DR58" t="n" s="11">
-        <v>14448.0</v>
+        <v>14442.0</v>
       </c>
       <c r="DS58" t="n" s="11">
-        <v>14483.0</v>
+        <v>14490.0</v>
       </c>
       <c r="DT58" t="n" s="11">
-        <v>14582.0</v>
+        <v>14633.0</v>
       </c>
       <c r="DU58" t="n" s="11">
-        <v>14792.0</v>
-      </c>
-      <c r="DV58" t="s" s="11">
-        <v>44</v>
+        <v>14909.0</v>
+      </c>
+      <c r="DV58" t="n" s="11">
+        <v>14960.0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s" s="14">
         <v>43</v>
@@ -20992,48 +20989,48 @@
         <v>39.73</v>
       </c>
       <c r="DJ59" t="n" s="11">
-        <v>39.9</v>
+        <v>39.89</v>
       </c>
       <c r="DK59" t="n" s="11">
         <v>40.32</v>
       </c>
       <c r="DL59" t="n" s="11">
-        <v>41.03</v>
+        <v>41.06</v>
       </c>
       <c r="DM59" t="n" s="11">
-        <v>40.81</v>
+        <v>40.8</v>
       </c>
       <c r="DN59" t="n" s="11">
-        <v>41.07</v>
+        <v>41.05</v>
       </c>
       <c r="DO59" t="n" s="11">
         <v>40.78</v>
       </c>
       <c r="DP59" t="n" s="11">
-        <v>42.24</v>
+        <v>42.36</v>
       </c>
       <c r="DQ59" t="n" s="11">
-        <v>41.37</v>
+        <v>41.28</v>
       </c>
       <c r="DR59" t="n" s="11">
         <v>41.16</v>
       </c>
       <c r="DS59" t="n" s="11">
-        <v>41.85</v>
+        <v>41.79</v>
       </c>
       <c r="DT59" t="n" s="11">
-        <v>41.23</v>
+        <v>41.45</v>
       </c>
       <c r="DU59" t="n" s="11">
-        <v>41.37</v>
-      </c>
-      <c r="DV59" t="s" s="11">
-        <v>44</v>
+        <v>41.82</v>
+      </c>
+      <c r="DV59" t="n" s="11">
+        <v>41.86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s" s="14">
         <v>43</v>
@@ -21351,69 +21348,69 @@
         <v>11468.0</v>
       </c>
       <c r="DC60" t="n" s="11">
-        <v>11527.0</v>
+        <v>11524.0</v>
       </c>
       <c r="DD60" t="n" s="11">
         <v>11532.0</v>
       </c>
       <c r="DE60" t="n" s="11">
-        <v>11614.0</v>
+        <v>11619.0</v>
       </c>
       <c r="DF60" t="n" s="11">
-        <v>11696.0</v>
+        <v>11706.0</v>
       </c>
       <c r="DG60" t="n" s="11">
-        <v>11775.0</v>
+        <v>11743.0</v>
       </c>
       <c r="DH60" t="n" s="11">
-        <v>11915.0</v>
+        <v>11926.0</v>
       </c>
       <c r="DI60" t="n" s="11">
-        <v>11842.0</v>
+        <v>11857.0</v>
       </c>
       <c r="DJ60" t="n" s="11">
-        <v>11967.0</v>
+        <v>11985.0</v>
       </c>
       <c r="DK60" t="n" s="11">
-        <v>11975.0</v>
+        <v>11916.0</v>
       </c>
       <c r="DL60" t="n" s="11">
-        <v>12107.0</v>
+        <v>12136.0</v>
       </c>
       <c r="DM60" t="n" s="11">
-        <v>12185.0</v>
+        <v>12194.0</v>
       </c>
       <c r="DN60" t="n" s="11">
-        <v>11976.0</v>
+        <v>11984.0</v>
       </c>
       <c r="DO60" t="n" s="11">
-        <v>11931.0</v>
+        <v>11899.0</v>
       </c>
       <c r="DP60" t="n" s="11">
-        <v>11129.0</v>
+        <v>11167.0</v>
       </c>
       <c r="DQ60" t="n" s="11">
-        <v>11714.0</v>
+        <v>11691.0</v>
       </c>
       <c r="DR60" t="n" s="11">
-        <v>11850.0</v>
+        <v>11846.0</v>
       </c>
       <c r="DS60" t="n" s="11">
-        <v>11879.0</v>
+        <v>11874.0</v>
       </c>
       <c r="DT60" t="n" s="11">
-        <v>11978.0</v>
+        <v>12032.0</v>
       </c>
       <c r="DU60" t="n" s="11">
-        <v>12172.0</v>
-      </c>
-      <c r="DV60" t="s" s="11">
-        <v>44</v>
+        <v>12261.0</v>
+      </c>
+      <c r="DV60" t="n" s="11">
+        <v>12283.0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B61" t="s" s="14">
         <v>43</v>
@@ -21731,452 +21728,452 @@
         <v>31.74</v>
       </c>
       <c r="DC61" t="n" s="11">
-        <v>31.42</v>
+        <v>31.41</v>
       </c>
       <c r="DD61" t="n" s="11">
         <v>32.31</v>
       </c>
       <c r="DE61" t="n" s="11">
-        <v>32.33</v>
+        <v>32.35</v>
       </c>
       <c r="DF61" t="n" s="11">
-        <v>32.78</v>
+        <v>32.81</v>
       </c>
       <c r="DG61" t="n" s="11">
-        <v>33.08</v>
+        <v>33.0</v>
       </c>
       <c r="DH61" t="n" s="11">
-        <v>32.9</v>
+        <v>32.93</v>
       </c>
       <c r="DI61" t="n" s="11">
-        <v>33.13</v>
+        <v>33.17</v>
       </c>
       <c r="DJ61" t="n" s="11">
-        <v>33.25</v>
+        <v>33.3</v>
       </c>
       <c r="DK61" t="n" s="11">
-        <v>33.4</v>
+        <v>33.24</v>
       </c>
       <c r="DL61" t="n" s="11">
-        <v>34.0</v>
+        <v>34.09</v>
       </c>
       <c r="DM61" t="n" s="11">
-        <v>33.8</v>
+        <v>33.83</v>
       </c>
       <c r="DN61" t="n" s="11">
-        <v>33.89</v>
+        <v>33.9</v>
       </c>
       <c r="DO61" t="n" s="11">
-        <v>33.63</v>
+        <v>33.54</v>
       </c>
       <c r="DP61" t="n" s="11">
-        <v>34.26</v>
+        <v>34.42</v>
       </c>
       <c r="DQ61" t="n" s="11">
-        <v>33.89</v>
+        <v>33.82</v>
       </c>
       <c r="DR61" t="n" s="11">
-        <v>33.75</v>
+        <v>33.76</v>
       </c>
       <c r="DS61" t="n" s="11">
-        <v>34.32</v>
+        <v>34.25</v>
       </c>
       <c r="DT61" t="n" s="11">
-        <v>33.87</v>
+        <v>34.08</v>
       </c>
       <c r="DU61" t="n" s="11">
-        <v>34.04</v>
-      </c>
-      <c r="DV61" t="s" s="11">
-        <v>44</v>
+        <v>34.4</v>
+      </c>
+      <c r="DV61" t="n" s="11">
+        <v>34.37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B62" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C62" t="n" s="11">
-        <v>83.01</v>
+        <v>83.13</v>
       </c>
       <c r="D62" t="n" s="11">
-        <v>85.96</v>
+        <v>85.94</v>
       </c>
       <c r="E62" t="n" s="11">
-        <v>86.77</v>
+        <v>86.79</v>
       </c>
       <c r="F62" t="n" s="11">
-        <v>87.67</v>
+        <v>87.76</v>
       </c>
       <c r="G62" t="n" s="11">
-        <v>89.66</v>
+        <v>89.62</v>
       </c>
       <c r="H62" t="n" s="11">
-        <v>92.19</v>
+        <v>92.25</v>
       </c>
       <c r="I62" t="n" s="11">
         <v>95.07</v>
       </c>
       <c r="J62" t="n" s="11">
-        <v>98.05</v>
+        <v>98.02</v>
       </c>
       <c r="K62" t="n" s="11">
-        <v>96.17</v>
+        <v>96.22</v>
       </c>
       <c r="L62" t="n" s="11">
-        <v>98.5</v>
+        <v>98.47</v>
       </c>
       <c r="M62" t="n" s="11">
-        <v>98.33</v>
+        <v>98.3</v>
       </c>
       <c r="N62" t="n" s="11">
-        <v>99.38</v>
+        <v>99.25</v>
       </c>
       <c r="O62" t="n" s="11">
-        <v>96.51</v>
+        <v>96.48</v>
       </c>
       <c r="P62" t="n" s="11">
-        <v>95.46</v>
+        <v>95.4</v>
       </c>
       <c r="Q62" t="n" s="11">
-        <v>95.26</v>
+        <v>95.22</v>
       </c>
       <c r="R62" t="n" s="11">
-        <v>94.04</v>
+        <v>94.07</v>
       </c>
       <c r="S62" t="n" s="11">
-        <v>96.2</v>
+        <v>96.12</v>
       </c>
       <c r="T62" t="n" s="11">
-        <v>97.51</v>
+        <v>97.55</v>
       </c>
       <c r="U62" t="n" s="11">
-        <v>98.25</v>
+        <v>98.32</v>
       </c>
       <c r="V62" t="n" s="11">
-        <v>99.92</v>
+        <v>99.95</v>
       </c>
       <c r="W62" t="n" s="11">
-        <v>100.93</v>
+        <v>100.9</v>
       </c>
       <c r="X62" t="n" s="11">
-        <v>100.32</v>
+        <v>100.41</v>
       </c>
       <c r="Y62" t="n" s="11">
         <v>100.31</v>
       </c>
       <c r="Z62" t="n" s="11">
-        <v>99.69</v>
+        <v>99.75</v>
       </c>
       <c r="AA62" t="n" s="11">
-        <v>97.88</v>
+        <v>98.05</v>
       </c>
       <c r="AB62" t="n" s="11">
-        <v>96.79</v>
+        <v>96.73</v>
       </c>
       <c r="AC62" t="n" s="11">
+        <v>96.13</v>
+      </c>
+      <c r="AD62" t="n" s="11">
+        <v>94.67</v>
+      </c>
+      <c r="AE62" t="n" s="11">
         <v>96.12</v>
       </c>
-      <c r="AD62" t="n" s="11">
-        <v>94.59</v>
-      </c>
-      <c r="AE62" t="n" s="11">
-        <v>96.14</v>
-      </c>
       <c r="AF62" t="n" s="11">
-        <v>97.7</v>
+        <v>97.75</v>
       </c>
       <c r="AG62" t="n" s="11">
-        <v>98.98</v>
+        <v>98.96</v>
       </c>
       <c r="AH62" t="n" s="11">
-        <v>101.54</v>
+        <v>101.48</v>
       </c>
       <c r="AI62" t="n" s="11">
-        <v>101.17</v>
+        <v>101.2</v>
       </c>
       <c r="AJ62" t="n" s="11">
-        <v>101.52</v>
+        <v>101.46</v>
       </c>
       <c r="AK62" t="n" s="11">
-        <v>100.63</v>
+        <v>100.57</v>
       </c>
       <c r="AL62" t="n" s="11">
-        <v>100.08</v>
+        <v>99.93</v>
       </c>
       <c r="AM62" t="n" s="11">
-        <v>99.13</v>
+        <v>99.02</v>
       </c>
       <c r="AN62" t="n" s="11">
-        <v>97.36</v>
+        <v>97.37</v>
       </c>
       <c r="AO62" t="n" s="11">
-        <v>97.0</v>
+        <v>97.04</v>
       </c>
       <c r="AP62" t="n" s="11">
-        <v>96.48</v>
+        <v>96.55</v>
       </c>
       <c r="AQ62" t="n" s="11">
-        <v>96.22</v>
+        <v>96.21</v>
       </c>
       <c r="AR62" t="n" s="11">
-        <v>97.46</v>
+        <v>97.51</v>
       </c>
       <c r="AS62" t="n" s="11">
-        <v>97.88</v>
+        <v>97.94</v>
       </c>
       <c r="AT62" t="n" s="11">
-        <v>98.8</v>
+        <v>98.86</v>
       </c>
       <c r="AU62" t="n" s="11">
-        <v>99.48</v>
+        <v>99.59</v>
       </c>
       <c r="AV62" t="n" s="11">
-        <v>99.0</v>
+        <v>98.99</v>
       </c>
       <c r="AW62" t="n" s="11">
-        <v>98.8</v>
+        <v>98.81</v>
       </c>
       <c r="AX62" t="n" s="11">
-        <v>98.66</v>
+        <v>98.7</v>
       </c>
       <c r="AY62" t="n" s="11">
-        <v>98.13</v>
+        <v>98.16</v>
       </c>
       <c r="AZ62" t="n" s="11">
-        <v>98.84</v>
+        <v>98.91</v>
       </c>
       <c r="BA62" t="n" s="11">
         <v>98.39</v>
       </c>
       <c r="BB62" t="n" s="11">
-        <v>96.2</v>
+        <v>96.26</v>
       </c>
       <c r="BC62" t="n" s="11">
-        <v>96.94</v>
+        <v>96.84</v>
       </c>
       <c r="BD62" t="n" s="11">
         <v>95.07</v>
       </c>
       <c r="BE62" t="n" s="11">
-        <v>94.94</v>
+        <v>94.92</v>
       </c>
       <c r="BF62" t="n" s="11">
-        <v>96.48</v>
+        <v>96.35</v>
       </c>
       <c r="BG62" t="n" s="11">
-        <v>94.8</v>
+        <v>94.79</v>
       </c>
       <c r="BH62" t="n" s="11">
-        <v>94.38</v>
+        <v>94.26</v>
       </c>
       <c r="BI62" t="n" s="11">
-        <v>92.94</v>
+        <v>92.92</v>
       </c>
       <c r="BJ62" t="n" s="11">
-        <v>91.65</v>
+        <v>91.68</v>
       </c>
       <c r="BK62" t="n" s="11">
-        <v>90.19</v>
+        <v>89.97</v>
       </c>
       <c r="BL62" t="n" s="11">
-        <v>87.71</v>
+        <v>87.81</v>
       </c>
       <c r="BM62" t="n" s="11">
-        <v>87.27</v>
+        <v>87.34</v>
       </c>
       <c r="BN62" t="n" s="11">
-        <v>85.64</v>
+        <v>85.7</v>
       </c>
       <c r="BO62" t="n" s="11">
-        <v>86.2</v>
+        <v>86.12</v>
       </c>
       <c r="BP62" t="n" s="11">
-        <v>87.3</v>
+        <v>87.38</v>
       </c>
       <c r="BQ62" t="n" s="11">
-        <v>86.59</v>
+        <v>86.66</v>
       </c>
       <c r="BR62" t="n" s="11">
-        <v>86.96</v>
+        <v>87.0</v>
       </c>
       <c r="BS62" t="n" s="11">
-        <v>88.69</v>
+        <v>88.71</v>
       </c>
       <c r="BT62" t="n" s="11">
-        <v>90.57</v>
+        <v>90.47</v>
       </c>
       <c r="BU62" t="n" s="11">
-        <v>92.49</v>
+        <v>92.51</v>
       </c>
       <c r="BV62" t="n" s="11">
-        <v>98.47</v>
+        <v>98.57</v>
       </c>
       <c r="BW62" t="n" s="11">
-        <v>112.77</v>
+        <v>112.65</v>
       </c>
       <c r="BX62" t="n" s="11">
-        <v>110.07</v>
+        <v>110.16</v>
       </c>
       <c r="BY62" t="n" s="11">
         <v>107.13</v>
       </c>
       <c r="BZ62" t="n" s="11">
-        <v>103.85</v>
+        <v>103.82</v>
       </c>
       <c r="CA62" t="n" s="11">
-        <v>97.98</v>
+        <v>97.94</v>
       </c>
       <c r="CB62" t="n" s="11">
-        <v>94.41</v>
+        <v>94.37</v>
       </c>
       <c r="CC62" t="n" s="11">
-        <v>93.81</v>
+        <v>93.78</v>
       </c>
       <c r="CD62" t="n" s="11">
-        <v>92.43</v>
+        <v>92.34</v>
       </c>
       <c r="CE62" t="n" s="11">
-        <v>91.79</v>
+        <v>91.75</v>
       </c>
       <c r="CF62" t="n" s="11">
-        <v>91.51</v>
+        <v>91.46</v>
       </c>
       <c r="CG62" t="n" s="11">
-        <v>91.12</v>
+        <v>91.09</v>
       </c>
       <c r="CH62" t="n" s="11">
         <v>92.1</v>
       </c>
       <c r="CI62" t="n" s="11">
-        <v>93.86</v>
+        <v>93.78</v>
       </c>
       <c r="CJ62" t="n" s="11">
-        <v>95.45</v>
+        <v>95.47</v>
       </c>
       <c r="CK62" t="n" s="11">
-        <v>95.94</v>
+        <v>95.99</v>
       </c>
       <c r="CL62" t="n" s="11">
-        <v>97.73</v>
+        <v>97.77</v>
       </c>
       <c r="CM62" t="n" s="11">
-        <v>99.22</v>
+        <v>99.32</v>
       </c>
       <c r="CN62" t="n" s="11">
-        <v>98.92</v>
+        <v>98.89</v>
       </c>
       <c r="CO62" t="n" s="11">
-        <v>99.65</v>
+        <v>99.67</v>
       </c>
       <c r="CP62" t="n" s="11">
-        <v>98.63</v>
+        <v>98.67</v>
       </c>
       <c r="CQ62" t="n" s="11">
-        <v>97.15</v>
+        <v>97.16</v>
       </c>
       <c r="CR62" t="n" s="11">
-        <v>98.12</v>
+        <v>98.16</v>
       </c>
       <c r="CS62" t="n" s="11">
-        <v>97.89</v>
+        <v>97.91</v>
       </c>
       <c r="CT62" t="n" s="11">
-        <v>97.94</v>
+        <v>98.0</v>
       </c>
       <c r="CU62" t="n" s="11">
-        <v>100.08</v>
+        <v>100.07</v>
       </c>
       <c r="CV62" t="n" s="11">
-        <v>100.21</v>
+        <v>100.27</v>
       </c>
       <c r="CW62" t="n" s="11">
-        <v>99.77</v>
+        <v>99.76</v>
       </c>
       <c r="CX62" t="n" s="11">
-        <v>99.96</v>
+        <v>99.89</v>
       </c>
       <c r="CY62" t="n" s="11">
-        <v>98.72</v>
+        <v>98.77</v>
       </c>
       <c r="CZ62" t="n" s="11">
-        <v>98.24</v>
+        <v>98.13</v>
       </c>
       <c r="DA62" t="n" s="11">
-        <v>99.29</v>
+        <v>99.26</v>
       </c>
       <c r="DB62" t="n" s="11">
-        <v>99.7</v>
+        <v>99.66</v>
       </c>
       <c r="DC62" t="n" s="11">
-        <v>98.79</v>
+        <v>98.7</v>
       </c>
       <c r="DD62" t="n" s="11">
-        <v>98.31</v>
+        <v>98.39</v>
       </c>
       <c r="DE62" t="n" s="11">
-        <v>96.83</v>
+        <v>96.87</v>
       </c>
       <c r="DF62" t="n" s="11">
-        <v>96.39</v>
+        <v>96.47</v>
       </c>
       <c r="DG62" t="n" s="11">
-        <v>98.04</v>
+        <v>98.09</v>
       </c>
       <c r="DH62" t="n" s="11">
         <v>98.94</v>
       </c>
       <c r="DI62" t="n" s="11">
-        <v>100.42</v>
+        <v>100.46</v>
       </c>
       <c r="DJ62" t="n" s="11">
-        <v>102.37</v>
+        <v>102.31</v>
       </c>
       <c r="DK62" t="n" s="11">
-        <v>102.66</v>
+        <v>102.69</v>
       </c>
       <c r="DL62" t="n" s="11">
-        <v>104.62</v>
+        <v>104.86</v>
       </c>
       <c r="DM62" t="n" s="11">
-        <v>105.15</v>
+        <v>105.3</v>
       </c>
       <c r="DN62" t="n" s="11">
-        <v>106.82</v>
+        <v>106.04</v>
       </c>
       <c r="DO62" t="n" s="11">
-        <v>108.53</v>
+        <v>108.71</v>
       </c>
       <c r="DP62" t="n" s="11">
-        <v>123.54</v>
+        <v>124.51</v>
       </c>
       <c r="DQ62" t="n" s="11">
-        <v>109.43</v>
+        <v>109.85</v>
       </c>
       <c r="DR62" t="n" s="11">
-        <v>107.22</v>
+        <v>105.43</v>
       </c>
       <c r="DS62" t="n" s="11">
-        <v>107.09</v>
+        <v>107.53</v>
       </c>
       <c r="DT62" t="n" s="11">
-        <v>106.94</v>
+        <v>107.7</v>
       </c>
       <c r="DU62" t="n" s="11">
-        <v>108.94</v>
-      </c>
-      <c r="DV62" t="s" s="11">
-        <v>44</v>
+        <v>109.98</v>
+      </c>
+      <c r="DV62" t="n" s="11">
+        <v>111.42</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B63" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C63" t="n" s="11">
         <v>84.5</v>
@@ -22506,54 +22503,54 @@
         <v>98.61</v>
       </c>
       <c r="DH63" t="n" s="11">
-        <v>98.67</v>
+        <v>98.68</v>
       </c>
       <c r="DI63" t="n" s="11">
         <v>100.81</v>
       </c>
       <c r="DJ63" t="n" s="11">
-        <v>102.31</v>
+        <v>102.22</v>
       </c>
       <c r="DK63" t="n" s="11">
-        <v>102.99</v>
+        <v>102.97</v>
       </c>
       <c r="DL63" t="n" s="11">
-        <v>105.07</v>
+        <v>105.33</v>
       </c>
       <c r="DM63" t="n" s="11">
-        <v>104.7</v>
+        <v>104.95</v>
       </c>
       <c r="DN63" t="n" s="11">
-        <v>107.05</v>
+        <v>106.02</v>
       </c>
       <c r="DO63" t="n" s="11">
-        <v>107.6</v>
+        <v>107.91</v>
       </c>
       <c r="DP63" t="n" s="11">
-        <v>123.59</v>
+        <v>124.75</v>
       </c>
       <c r="DQ63" t="n" s="11">
-        <v>108.73</v>
+        <v>109.15</v>
       </c>
       <c r="DR63" t="n" s="11">
-        <v>105.61</v>
+        <v>103.7</v>
       </c>
       <c r="DS63" t="n" s="11">
-        <v>106.9</v>
+        <v>107.55</v>
       </c>
       <c r="DT63" t="n" s="11">
-        <v>106.27</v>
+        <v>107.27</v>
       </c>
       <c r="DU63" t="n" s="11">
-        <v>108.27</v>
-      </c>
-      <c r="DV63" t="s" s="11">
-        <v>44</v>
+        <v>109.27</v>
+      </c>
+      <c r="DV63" t="n" s="11">
+        <v>108.91</v>
       </c>
     </row>
     <row r="64" ht="33.75" customHeight="true">
       <c r="A64" t="s" s="15">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="65">
@@ -22564,7 +22561,7 @@
         <v>43</v>
       </c>
       <c r="C65" t="n" s="11">
-        <v>9926.0</v>
+        <v>9924.0</v>
       </c>
       <c r="D65" t="n" s="11">
         <v>10125.0</v>
@@ -22573,13 +22570,13 @@
         <v>10309.0</v>
       </c>
       <c r="F65" t="n" s="11">
-        <v>10602.0</v>
+        <v>10601.0</v>
       </c>
       <c r="G65" t="n" s="11">
         <v>10867.0</v>
       </c>
       <c r="H65" t="n" s="11">
-        <v>11012.0</v>
+        <v>11011.0</v>
       </c>
       <c r="I65" t="n" s="11">
         <v>11169.0</v>
@@ -22588,16 +22585,16 @@
         <v>11295.0</v>
       </c>
       <c r="K65" t="n" s="11">
-        <v>11327.0</v>
+        <v>11326.0</v>
       </c>
       <c r="L65" t="n" s="11">
-        <v>11510.0</v>
+        <v>11511.0</v>
       </c>
       <c r="M65" t="n" s="11">
         <v>11629.0</v>
       </c>
       <c r="N65" t="n" s="11">
-        <v>11675.0</v>
+        <v>11676.0</v>
       </c>
       <c r="O65" t="n" s="11">
         <v>11918.0</v>
@@ -22606,7 +22603,7 @@
         <v>11971.0</v>
       </c>
       <c r="Q65" t="n" s="11">
-        <v>12091.0</v>
+        <v>12092.0</v>
       </c>
       <c r="R65" t="n" s="11">
         <v>12262.0</v>
@@ -22618,88 +22615,88 @@
         <v>12461.0</v>
       </c>
       <c r="U65" t="n" s="11">
-        <v>12523.0</v>
+        <v>12522.0</v>
       </c>
       <c r="V65" t="n" s="11">
-        <v>12526.0</v>
+        <v>12525.0</v>
       </c>
       <c r="W65" t="n" s="11">
         <v>12536.0</v>
       </c>
       <c r="X65" t="n" s="11">
-        <v>12594.0</v>
+        <v>12593.0</v>
       </c>
       <c r="Y65" t="n" s="11">
         <v>12660.0</v>
       </c>
       <c r="Z65" t="n" s="11">
-        <v>12754.0</v>
+        <v>12753.0</v>
       </c>
       <c r="AA65" t="n" s="11">
-        <v>12802.0</v>
+        <v>12800.0</v>
       </c>
       <c r="AB65" t="n" s="11">
-        <v>12874.0</v>
+        <v>12875.0</v>
       </c>
       <c r="AC65" t="n" s="11">
         <v>12962.0</v>
       </c>
       <c r="AD65" t="n" s="11">
-        <v>13065.0</v>
+        <v>13064.0</v>
       </c>
       <c r="AE65" t="n" s="11">
-        <v>13120.0</v>
+        <v>13121.0</v>
       </c>
       <c r="AF65" t="n" s="11">
-        <v>13090.0</v>
+        <v>13089.0</v>
       </c>
       <c r="AG65" t="n" s="11">
-        <v>13075.0</v>
+        <v>13076.0</v>
       </c>
       <c r="AH65" t="n" s="11">
-        <v>13046.0</v>
+        <v>13047.0</v>
       </c>
       <c r="AI65" t="n" s="11">
         <v>13094.0</v>
       </c>
       <c r="AJ65" t="n" s="11">
-        <v>13111.0</v>
+        <v>13112.0</v>
       </c>
       <c r="AK65" t="n" s="11">
-        <v>13141.0</v>
+        <v>13142.0</v>
       </c>
       <c r="AL65" t="n" s="11">
-        <v>13163.0</v>
+        <v>13164.0</v>
       </c>
       <c r="AM65" t="n" s="11">
-        <v>13112.0</v>
+        <v>13113.0</v>
       </c>
       <c r="AN65" t="n" s="11">
         <v>13197.0</v>
       </c>
       <c r="AO65" t="n" s="11">
-        <v>13226.0</v>
+        <v>13225.0</v>
       </c>
       <c r="AP65" t="n" s="11">
-        <v>13267.0</v>
+        <v>13266.0</v>
       </c>
       <c r="AQ65" t="n" s="11">
-        <v>13528.0</v>
+        <v>13529.0</v>
       </c>
       <c r="AR65" t="n" s="11">
         <v>13594.0</v>
       </c>
       <c r="AS65" t="n" s="11">
-        <v>13659.0</v>
+        <v>13658.0</v>
       </c>
       <c r="AT65" t="n" s="11">
-        <v>13779.0</v>
+        <v>13778.0</v>
       </c>
       <c r="AU65" t="n" s="11">
-        <v>13753.0</v>
+        <v>13751.0</v>
       </c>
       <c r="AV65" t="n" s="11">
-        <v>13805.0</v>
+        <v>13806.0</v>
       </c>
       <c r="AW65" t="n" s="11">
         <v>13948.0</v>
@@ -22711,67 +22708,67 @@
         <v>14009.0</v>
       </c>
       <c r="AZ65" t="n" s="11">
-        <v>14082.0</v>
+        <v>14081.0</v>
       </c>
       <c r="BA65" t="n" s="11">
         <v>14162.0</v>
       </c>
       <c r="BB65" t="n" s="11">
-        <v>14258.0</v>
+        <v>14257.0</v>
       </c>
       <c r="BC65" t="n" s="11">
-        <v>14302.0</v>
+        <v>14303.0</v>
       </c>
       <c r="BD65" t="n" s="11">
         <v>14351.0</v>
       </c>
       <c r="BE65" t="n" s="11">
-        <v>14329.0</v>
+        <v>14330.0</v>
       </c>
       <c r="BF65" t="n" s="11">
-        <v>14326.0</v>
+        <v>14328.0</v>
       </c>
       <c r="BG65" t="n" s="11">
-        <v>14421.0</v>
+        <v>14420.0</v>
       </c>
       <c r="BH65" t="n" s="11">
-        <v>14459.0</v>
+        <v>14461.0</v>
       </c>
       <c r="BI65" t="n" s="11">
-        <v>14585.0</v>
+        <v>14586.0</v>
       </c>
       <c r="BJ65" t="n" s="11">
         <v>14661.0</v>
       </c>
       <c r="BK65" t="n" s="11">
-        <v>14814.0</v>
+        <v>14815.0</v>
       </c>
       <c r="BL65" t="n" s="11">
-        <v>15013.0</v>
+        <v>15012.0</v>
       </c>
       <c r="BM65" t="n" s="11">
-        <v>15112.0</v>
+        <v>15111.0</v>
       </c>
       <c r="BN65" t="n" s="11">
-        <v>15324.0</v>
+        <v>15323.0</v>
       </c>
       <c r="BO65" t="n" s="11">
         <v>15411.0</v>
       </c>
       <c r="BP65" t="n" s="11">
-        <v>15484.0</v>
+        <v>15483.0</v>
       </c>
       <c r="BQ65" t="n" s="11">
-        <v>15584.0</v>
+        <v>15583.0</v>
       </c>
       <c r="BR65" t="n" s="11">
-        <v>15649.0</v>
+        <v>15648.0</v>
       </c>
       <c r="BS65" t="n" s="11">
-        <v>15790.0</v>
+        <v>15789.0</v>
       </c>
       <c r="BT65" t="n" s="11">
-        <v>15701.0</v>
+        <v>15703.0</v>
       </c>
       <c r="BU65" t="n" s="11">
         <v>15523.0</v>
@@ -22783,7 +22780,7 @@
         <v>14858.0</v>
       </c>
       <c r="BX65" t="n" s="11">
-        <v>14865.0</v>
+        <v>14864.0</v>
       </c>
       <c r="BY65" t="n" s="11">
         <v>14961.0</v>
@@ -22795,19 +22792,19 @@
         <v>15373.0</v>
       </c>
       <c r="CB65" t="n" s="11">
-        <v>15521.0</v>
+        <v>15522.0</v>
       </c>
       <c r="CC65" t="n" s="11">
-        <v>15677.0</v>
+        <v>15678.0</v>
       </c>
       <c r="CD65" t="n" s="11">
-        <v>15817.0</v>
+        <v>15819.0</v>
       </c>
       <c r="CE65" t="n" s="11">
         <v>16072.0</v>
       </c>
       <c r="CF65" t="n" s="11">
-        <v>16148.0</v>
+        <v>16149.0</v>
       </c>
       <c r="CG65" t="n" s="11">
         <v>16231.0</v>
@@ -22816,19 +22813,19 @@
         <v>16292.0</v>
       </c>
       <c r="CI65" t="n" s="11">
-        <v>16294.0</v>
+        <v>16295.0</v>
       </c>
       <c r="CJ65" t="n" s="11">
-        <v>16301.0</v>
+        <v>16300.0</v>
       </c>
       <c r="CK65" t="n" s="11">
         <v>16356.0</v>
       </c>
       <c r="CL65" t="n" s="11">
-        <v>16415.0</v>
+        <v>16414.0</v>
       </c>
       <c r="CM65" t="n" s="11">
-        <v>16424.0</v>
+        <v>16423.0</v>
       </c>
       <c r="CN65" t="n" s="11">
         <v>16593.0</v>
@@ -22837,19 +22834,19 @@
         <v>16698.0</v>
       </c>
       <c r="CP65" t="n" s="11">
-        <v>16772.0</v>
+        <v>16771.0</v>
       </c>
       <c r="CQ65" t="n" s="11">
         <v>17007.0</v>
       </c>
       <c r="CR65" t="n" s="11">
-        <v>17066.0</v>
+        <v>17065.0</v>
       </c>
       <c r="CS65" t="n" s="11">
         <v>17187.0</v>
       </c>
       <c r="CT65" t="n" s="11">
-        <v>17354.0</v>
+        <v>17353.0</v>
       </c>
       <c r="CU65" t="n" s="11">
         <v>17373.0</v>
@@ -22861,40 +22858,40 @@
         <v>17611.0</v>
       </c>
       <c r="CX65" t="n" s="11">
-        <v>17694.0</v>
+        <v>17695.0</v>
       </c>
       <c r="CY65" t="n" s="11">
-        <v>17812.0</v>
+        <v>17811.0</v>
       </c>
       <c r="CZ65" t="n" s="11">
-        <v>17922.0</v>
+        <v>17923.0</v>
       </c>
       <c r="DA65" t="n" s="11">
-        <v>17950.0</v>
+        <v>17951.0</v>
       </c>
       <c r="DB65" t="n" s="11">
-        <v>18016.0</v>
+        <v>18017.0</v>
       </c>
       <c r="DC65" t="n" s="11">
-        <v>18233.0</v>
+        <v>18235.0</v>
       </c>
       <c r="DD65" t="n" s="11">
-        <v>18363.0</v>
+        <v>18362.0</v>
       </c>
       <c r="DE65" t="n" s="11">
         <v>18579.0</v>
       </c>
       <c r="DF65" t="n" s="11">
-        <v>18708.0</v>
+        <v>18707.0</v>
       </c>
       <c r="DG65" t="n" s="11">
-        <v>18671.0</v>
+        <v>18670.0</v>
       </c>
       <c r="DH65" t="n" s="11">
         <v>18809.0</v>
       </c>
       <c r="DI65" t="n" s="11">
-        <v>18771.0</v>
+        <v>18770.0</v>
       </c>
       <c r="DJ65" t="n" s="11">
         <v>18884.0</v>
@@ -22903,42 +22900,42 @@
         <v>19088.0</v>
       </c>
       <c r="DL65" t="n" s="11">
-        <v>19155.0</v>
+        <v>19146.0</v>
       </c>
       <c r="DM65" t="n" s="11">
-        <v>19289.0</v>
+        <v>19288.0</v>
       </c>
       <c r="DN65" t="n" s="11">
-        <v>19241.0</v>
+        <v>19253.0</v>
       </c>
       <c r="DO65" t="n" s="11">
-        <v>19137.0</v>
+        <v>19147.0</v>
       </c>
       <c r="DP65" t="n" s="11">
-        <v>17697.0</v>
+        <v>17668.0</v>
       </c>
       <c r="DQ65" t="n" s="11">
-        <v>18979.0</v>
+        <v>18952.0</v>
       </c>
       <c r="DR65" t="n" s="11">
-        <v>19093.0</v>
+        <v>19138.0</v>
       </c>
       <c r="DS65" t="n" s="11">
-        <v>19225.0</v>
+        <v>19279.0</v>
       </c>
       <c r="DT65" t="n" s="11">
-        <v>19628.0</v>
+        <v>19652.0</v>
       </c>
       <c r="DU65" t="n" s="11">
-        <v>20178.0</v>
-      </c>
-      <c r="DV65" t="s" s="11">
-        <v>44</v>
+        <v>20174.0</v>
+      </c>
+      <c r="DV65" t="n" s="11">
+        <v>20265.0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="10">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B66" t="s" s="14">
         <v>43</v>
@@ -23097,7 +23094,7 @@
         <v>39.17</v>
       </c>
       <c r="BB66" t="n" s="11">
-        <v>39.51</v>
+        <v>39.5</v>
       </c>
       <c r="BC66" t="n" s="11">
         <v>39.57</v>
@@ -23112,7 +23109,7 @@
         <v>39.98</v>
       </c>
       <c r="BG66" t="n" s="11">
-        <v>40.62</v>
+        <v>40.63</v>
       </c>
       <c r="BH66" t="n" s="11">
         <v>40.4</v>
@@ -23121,10 +23118,10 @@
         <v>40.69</v>
       </c>
       <c r="BJ66" t="n" s="11">
-        <v>40.8</v>
+        <v>40.79</v>
       </c>
       <c r="BK66" t="n" s="11">
-        <v>40.83</v>
+        <v>40.84</v>
       </c>
       <c r="BL66" t="n" s="11">
         <v>41.38</v>
@@ -23136,7 +23133,7 @@
         <v>41.97</v>
       </c>
       <c r="BO66" t="n" s="11">
-        <v>42.25</v>
+        <v>42.26</v>
       </c>
       <c r="BP66" t="n" s="11">
         <v>42.52</v>
@@ -23247,348 +23244,348 @@
         <v>51.13</v>
       </c>
       <c r="CZ66" t="n" s="11">
-        <v>51.27</v>
+        <v>51.26</v>
       </c>
       <c r="DA66" t="n" s="11">
         <v>51.48</v>
       </c>
       <c r="DB66" t="n" s="11">
-        <v>51.84</v>
+        <v>51.85</v>
       </c>
       <c r="DC66" t="n" s="11">
-        <v>52.24</v>
+        <v>52.26</v>
       </c>
       <c r="DD66" t="n" s="11">
-        <v>52.93</v>
+        <v>52.86</v>
       </c>
       <c r="DE66" t="n" s="11">
-        <v>53.44</v>
+        <v>53.46</v>
       </c>
       <c r="DF66" t="n" s="11">
-        <v>53.9</v>
+        <v>53.94</v>
       </c>
       <c r="DG66" t="n" s="11">
-        <v>54.04</v>
+        <v>54.1</v>
       </c>
       <c r="DH66" t="n" s="11">
-        <v>54.05</v>
+        <v>53.88</v>
       </c>
       <c r="DI66" t="n" s="11">
-        <v>54.26</v>
+        <v>54.33</v>
       </c>
       <c r="DJ66" t="n" s="11">
-        <v>54.5</v>
+        <v>54.55</v>
       </c>
       <c r="DK66" t="n" s="11">
-        <v>54.88</v>
+        <v>54.95</v>
       </c>
       <c r="DL66" t="n" s="11">
-        <v>55.41</v>
+        <v>55.17</v>
       </c>
       <c r="DM66" t="n" s="11">
-        <v>55.75</v>
+        <v>55.87</v>
       </c>
       <c r="DN66" t="n" s="11">
-        <v>56.05</v>
+        <v>56.1</v>
       </c>
       <c r="DO66" t="n" s="11">
-        <v>56.68</v>
+        <v>56.79</v>
       </c>
       <c r="DP66" t="n" s="11">
-        <v>55.8</v>
+        <v>55.46</v>
       </c>
       <c r="DQ66" t="n" s="11">
-        <v>56.42</v>
+        <v>56.59</v>
       </c>
       <c r="DR66" t="n" s="11">
-        <v>57.57</v>
+        <v>57.61</v>
       </c>
       <c r="DS66" t="n" s="11">
-        <v>58.43</v>
+        <v>58.64</v>
       </c>
       <c r="DT66" t="n" s="11">
-        <v>58.4</v>
+        <v>58.26</v>
       </c>
       <c r="DU66" t="n" s="11">
-        <v>58.9</v>
-      </c>
-      <c r="DV66" t="s" s="11">
-        <v>44</v>
+        <v>59.28</v>
+      </c>
+      <c r="DV66" t="n" s="11">
+        <v>59.42</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="B67" t="s" s="14">
         <v>46</v>
       </c>
-      <c r="B67" t="s" s="14">
-        <v>47</v>
-      </c>
       <c r="C67" t="n" s="11">
-        <v>80.87</v>
+        <v>80.82</v>
       </c>
       <c r="D67" t="n" s="11">
-        <v>81.17</v>
+        <v>81.18</v>
       </c>
       <c r="E67" t="n" s="11">
         <v>81.72</v>
       </c>
       <c r="F67" t="n" s="11">
-        <v>82.73</v>
+        <v>82.69</v>
       </c>
       <c r="G67" t="n" s="11">
-        <v>83.72</v>
+        <v>83.73</v>
       </c>
       <c r="H67" t="n" s="11">
-        <v>83.91</v>
+        <v>83.89</v>
       </c>
       <c r="I67" t="n" s="11">
         <v>84.01</v>
       </c>
       <c r="J67" t="n" s="11">
-        <v>84.13</v>
+        <v>84.14</v>
       </c>
       <c r="K67" t="n" s="11">
-        <v>83.56</v>
+        <v>83.55</v>
       </c>
       <c r="L67" t="n" s="11">
-        <v>84.01</v>
+        <v>84.02</v>
       </c>
       <c r="M67" t="n" s="11">
-        <v>84.5</v>
+        <v>84.51</v>
       </c>
       <c r="N67" t="n" s="11">
-        <v>84.3</v>
+        <v>84.35</v>
       </c>
       <c r="O67" t="n" s="11">
-        <v>85.62</v>
+        <v>85.63</v>
       </c>
       <c r="P67" t="n" s="11">
-        <v>85.84</v>
+        <v>85.86</v>
       </c>
       <c r="Q67" t="n" s="11">
-        <v>86.17</v>
+        <v>86.2</v>
       </c>
       <c r="R67" t="n" s="11">
-        <v>87.03</v>
+        <v>87.02</v>
       </c>
       <c r="S67" t="n" s="11">
-        <v>86.92</v>
+        <v>86.94</v>
       </c>
       <c r="T67" t="n" s="11">
-        <v>87.35</v>
+        <v>87.33</v>
       </c>
       <c r="U67" t="n" s="11">
-        <v>87.45</v>
+        <v>87.43</v>
       </c>
       <c r="V67" t="n" s="11">
         <v>87.28</v>
       </c>
       <c r="W67" t="n" s="11">
-        <v>87.32</v>
+        <v>87.33</v>
       </c>
       <c r="X67" t="n" s="11">
-        <v>87.73</v>
+        <v>87.71</v>
       </c>
       <c r="Y67" t="n" s="11">
         <v>88.19</v>
       </c>
       <c r="Z67" t="n" s="11">
-        <v>88.73</v>
+        <v>88.71</v>
       </c>
       <c r="AA67" t="n" s="11">
-        <v>88.99</v>
+        <v>88.95</v>
       </c>
       <c r="AB67" t="n" s="11">
-        <v>89.56</v>
+        <v>89.6</v>
       </c>
       <c r="AC67" t="n" s="11">
-        <v>89.89</v>
+        <v>89.88</v>
       </c>
       <c r="AD67" t="n" s="11">
-        <v>90.62</v>
+        <v>90.59</v>
       </c>
       <c r="AE67" t="n" s="11">
-        <v>90.82</v>
+        <v>90.84</v>
       </c>
       <c r="AF67" t="n" s="11">
-        <v>90.31</v>
+        <v>90.28</v>
       </c>
       <c r="AG67" t="n" s="11">
-        <v>90.13</v>
+        <v>90.14</v>
       </c>
       <c r="AH67" t="n" s="11">
-        <v>89.63</v>
+        <v>89.65</v>
       </c>
       <c r="AI67" t="n" s="11">
-        <v>89.93</v>
+        <v>89.92</v>
       </c>
       <c r="AJ67" t="n" s="11">
-        <v>89.95</v>
+        <v>89.97</v>
       </c>
       <c r="AK67" t="n" s="11">
-        <v>90.31</v>
+        <v>90.33</v>
       </c>
       <c r="AL67" t="n" s="11">
-        <v>90.59</v>
+        <v>90.64</v>
       </c>
       <c r="AM67" t="n" s="11">
-        <v>90.52</v>
+        <v>90.57</v>
       </c>
       <c r="AN67" t="n" s="11">
         <v>91.21</v>
       </c>
       <c r="AO67" t="n" s="11">
-        <v>91.29</v>
+        <v>91.28</v>
       </c>
       <c r="AP67" t="n" s="11">
-        <v>91.6</v>
+        <v>91.57</v>
       </c>
       <c r="AQ67" t="n" s="11">
         <v>92.86</v>
       </c>
       <c r="AR67" t="n" s="11">
-        <v>92.96</v>
+        <v>92.94</v>
       </c>
       <c r="AS67" t="n" s="11">
-        <v>93.04</v>
+        <v>93.02</v>
       </c>
       <c r="AT67" t="n" s="11">
-        <v>93.14</v>
+        <v>93.12</v>
       </c>
       <c r="AU67" t="n" s="11">
-        <v>92.84</v>
+        <v>92.81</v>
       </c>
       <c r="AV67" t="n" s="11">
-        <v>93.08</v>
+        <v>93.09</v>
       </c>
       <c r="AW67" t="n" s="11">
-        <v>93.58</v>
+        <v>93.57</v>
       </c>
       <c r="AX67" t="n" s="11">
-        <v>93.68</v>
+        <v>93.65</v>
       </c>
       <c r="AY67" t="n" s="11">
-        <v>93.35</v>
+        <v>93.33</v>
       </c>
       <c r="AZ67" t="n" s="11">
-        <v>93.6</v>
+        <v>93.57</v>
       </c>
       <c r="BA67" t="n" s="11">
-        <v>93.84</v>
+        <v>93.83</v>
       </c>
       <c r="BB67" t="n" s="11">
-        <v>94.29</v>
+        <v>94.27</v>
       </c>
       <c r="BC67" t="n" s="11">
-        <v>94.22</v>
+        <v>94.24</v>
       </c>
       <c r="BD67" t="n" s="11">
         <v>94.14</v>
       </c>
       <c r="BE67" t="n" s="11">
-        <v>93.93</v>
+        <v>93.94</v>
       </c>
       <c r="BF67" t="n" s="11">
-        <v>93.78</v>
+        <v>93.84</v>
       </c>
       <c r="BG67" t="n" s="11">
-        <v>94.37</v>
+        <v>94.35</v>
       </c>
       <c r="BH67" t="n" s="11">
-        <v>94.57</v>
+        <v>94.63</v>
       </c>
       <c r="BI67" t="n" s="11">
-        <v>95.29</v>
+        <v>95.31</v>
       </c>
       <c r="BJ67" t="n" s="11">
-        <v>95.66</v>
+        <v>95.68</v>
       </c>
       <c r="BK67" t="n" s="11">
-        <v>96.79</v>
+        <v>96.83</v>
       </c>
       <c r="BL67" t="n" s="11">
-        <v>97.87</v>
+        <v>97.85</v>
       </c>
       <c r="BM67" t="n" s="11">
-        <v>98.35</v>
+        <v>98.34</v>
       </c>
       <c r="BN67" t="n" s="11">
         <v>99.42</v>
       </c>
       <c r="BO67" t="n" s="11">
-        <v>99.12</v>
+        <v>99.15</v>
       </c>
       <c r="BP67" t="n" s="11">
-        <v>99.34</v>
+        <v>99.27</v>
       </c>
       <c r="BQ67" t="n" s="11">
-        <v>99.55</v>
+        <v>99.42</v>
       </c>
       <c r="BR67" t="n" s="11">
-        <v>99.89</v>
+        <v>99.95</v>
       </c>
       <c r="BS67" t="n" s="11">
-        <v>100.25</v>
+        <v>100.5</v>
       </c>
       <c r="BT67" t="n" s="11">
-        <v>99.66</v>
+        <v>99.51</v>
       </c>
       <c r="BU67" t="n" s="11">
-        <v>98.39</v>
+        <v>98.12</v>
       </c>
       <c r="BV67" t="n" s="11">
-        <v>96.95</v>
+        <v>97.02</v>
       </c>
       <c r="BW67" t="n" s="11">
-        <v>92.46</v>
+        <v>92.94</v>
       </c>
       <c r="BX67" t="n" s="11">
+        <v>92.5</v>
+      </c>
+      <c r="BY67" t="n" s="11">
         <v>92.82</v>
       </c>
-      <c r="BY67" t="n" s="11">
-        <v>93.02</v>
-      </c>
       <c r="BZ67" t="n" s="11">
-        <v>94.01</v>
+        <v>94.1</v>
       </c>
       <c r="CA67" t="n" s="11">
-        <v>94.83</v>
+        <v>95.1</v>
       </c>
       <c r="CB67" t="n" s="11">
-        <v>96.37</v>
+        <v>96.26</v>
       </c>
       <c r="CC67" t="n" s="11">
-        <v>96.91</v>
+        <v>96.87</v>
       </c>
       <c r="CD67" t="n" s="11">
-        <v>97.55</v>
+        <v>97.6</v>
       </c>
       <c r="CE67" t="n" s="11">
-        <v>98.89</v>
+        <v>98.95</v>
       </c>
       <c r="CF67" t="n" s="11">
-        <v>98.86</v>
+        <v>98.88</v>
       </c>
       <c r="CG67" t="n" s="11">
-        <v>99.21</v>
+        <v>99.22</v>
       </c>
       <c r="CH67" t="n" s="11">
         <v>99.12</v>
       </c>
       <c r="CI67" t="n" s="11">
-        <v>98.81</v>
+        <v>98.85</v>
       </c>
       <c r="CJ67" t="n" s="11">
-        <v>98.65</v>
+        <v>98.64</v>
       </c>
       <c r="CK67" t="n" s="11">
-        <v>98.44</v>
+        <v>98.41</v>
       </c>
       <c r="CL67" t="n" s="11">
-        <v>98.23</v>
+        <v>98.21</v>
       </c>
       <c r="CM67" t="n" s="11">
-        <v>97.79</v>
+        <v>97.75</v>
       </c>
       <c r="CN67" t="n" s="11">
         <v>98.31</v>
@@ -23597,111 +23594,111 @@
         <v>98.54</v>
       </c>
       <c r="CP67" t="n" s="11">
-        <v>98.65</v>
+        <v>98.63</v>
       </c>
       <c r="CQ67" t="n" s="11">
         <v>99.44</v>
       </c>
       <c r="CR67" t="n" s="11">
-        <v>99.3</v>
+        <v>99.28</v>
       </c>
       <c r="CS67" t="n" s="11">
-        <v>99.61</v>
+        <v>99.6</v>
       </c>
       <c r="CT67" t="n" s="11">
-        <v>100.2</v>
+        <v>100.18</v>
       </c>
       <c r="CU67" t="n" s="11">
-        <v>99.65</v>
+        <v>99.66</v>
       </c>
       <c r="CV67" t="n" s="11">
-        <v>99.92</v>
+        <v>99.9</v>
       </c>
       <c r="CW67" t="n" s="11">
-        <v>100.15</v>
+        <v>100.16</v>
       </c>
       <c r="CX67" t="n" s="11">
-        <v>100.26</v>
+        <v>100.29</v>
       </c>
       <c r="CY67" t="n" s="11">
-        <v>100.76</v>
+        <v>100.74</v>
       </c>
       <c r="CZ67" t="n" s="11">
-        <v>100.85</v>
+        <v>100.89</v>
       </c>
       <c r="DA67" t="n" s="11">
-        <v>100.87</v>
+        <v>100.88</v>
       </c>
       <c r="DB67" t="n" s="11">
-        <v>100.83</v>
+        <v>100.84</v>
       </c>
       <c r="DC67" t="n" s="11">
-        <v>101.66</v>
+        <v>101.69</v>
       </c>
       <c r="DD67" t="n" s="11">
-        <v>102.09</v>
+        <v>102.06</v>
       </c>
       <c r="DE67" t="n" s="11">
-        <v>102.75</v>
+        <v>102.74</v>
       </c>
       <c r="DF67" t="n" s="11">
-        <v>103.24</v>
+        <v>103.21</v>
       </c>
       <c r="DG67" t="n" s="11">
-        <v>102.38</v>
+        <v>102.36</v>
       </c>
       <c r="DH67" t="n" s="11">
         <v>102.52</v>
       </c>
       <c r="DI67" t="n" s="11">
-        <v>101.89</v>
+        <v>101.87</v>
       </c>
       <c r="DJ67" t="n" s="11">
-        <v>101.84</v>
+        <v>101.83</v>
       </c>
       <c r="DK67" t="n" s="11">
-        <v>102.78</v>
+        <v>102.76</v>
       </c>
       <c r="DL67" t="n" s="11">
-        <v>102.15</v>
+        <v>102.12</v>
       </c>
       <c r="DM67" t="n" s="11">
-        <v>102.37</v>
+        <v>102.36</v>
       </c>
       <c r="DN67" t="n" s="11">
-        <v>101.67</v>
+        <v>101.69</v>
       </c>
       <c r="DO67" t="n" s="11">
-        <v>100.78</v>
+        <v>100.83</v>
       </c>
       <c r="DP67" t="n" s="11">
-        <v>91.78</v>
+        <v>91.68</v>
       </c>
       <c r="DQ67" t="n" s="11">
-        <v>99.85</v>
+        <v>99.69</v>
       </c>
       <c r="DR67" t="n" s="11">
-        <v>100.01</v>
+        <v>100.23</v>
       </c>
       <c r="DS67" t="n" s="11">
-        <v>99.74</v>
+        <v>100.0</v>
       </c>
       <c r="DT67" t="n" s="11">
-        <v>100.66</v>
+        <v>100.85</v>
       </c>
       <c r="DU67" t="n" s="11">
-        <v>101.69</v>
-      </c>
-      <c r="DV67" t="s" s="11">
-        <v>44</v>
+        <v>101.76</v>
+      </c>
+      <c r="DV67" t="n" s="11">
+        <v>100.86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="10">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B68" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C68" t="n" s="11">
         <v>72.12</v>
@@ -23746,7 +23743,7 @@
         <v>78.39</v>
       </c>
       <c r="Q68" t="n" s="11">
-        <v>78.83</v>
+        <v>78.82</v>
       </c>
       <c r="R68" t="n" s="11">
         <v>79.25</v>
@@ -23845,7 +23842,7 @@
         <v>90.32</v>
       </c>
       <c r="AX68" t="n" s="11">
-        <v>90.6</v>
+        <v>90.59</v>
       </c>
       <c r="AY68" t="n" s="11">
         <v>90.4</v>
@@ -23857,7 +23854,7 @@
         <v>90.91</v>
       </c>
       <c r="BB68" t="n" s="11">
-        <v>91.48</v>
+        <v>91.47</v>
       </c>
       <c r="BC68" t="n" s="11">
         <v>91.34</v>
@@ -23869,85 +23866,85 @@
         <v>91.79</v>
       </c>
       <c r="BF68" t="n" s="11">
-        <v>91.75</v>
+        <v>91.74</v>
       </c>
       <c r="BG68" t="n" s="11">
-        <v>93.07</v>
+        <v>93.08</v>
       </c>
       <c r="BH68" t="n" s="11">
         <v>92.64</v>
       </c>
       <c r="BI68" t="n" s="11">
-        <v>93.16</v>
+        <v>93.15</v>
       </c>
       <c r="BJ68" t="n" s="11">
-        <v>93.25</v>
+        <v>93.24</v>
       </c>
       <c r="BK68" t="n" s="11">
-        <v>93.49</v>
+        <v>93.51</v>
       </c>
       <c r="BL68" t="n" s="11">
         <v>94.45</v>
       </c>
       <c r="BM68" t="n" s="11">
-        <v>94.67</v>
+        <v>94.66</v>
       </c>
       <c r="BN68" t="n" s="11">
         <v>95.35</v>
       </c>
       <c r="BO68" t="n" s="11">
+        <v>95.23</v>
+      </c>
+      <c r="BP68" t="n" s="11">
+        <v>95.49</v>
+      </c>
+      <c r="BQ68" t="n" s="11">
+        <v>95.77</v>
+      </c>
+      <c r="BR68" t="n" s="11">
+        <v>96.13</v>
+      </c>
+      <c r="BS68" t="n" s="11">
+        <v>96.73</v>
+      </c>
+      <c r="BT68" t="n" s="11">
+        <v>96.11</v>
+      </c>
+      <c r="BU68" t="n" s="11">
+        <v>95.25</v>
+      </c>
+      <c r="BV68" t="n" s="11">
+        <v>94.58</v>
+      </c>
+      <c r="BW68" t="n" s="11">
+        <v>92.12</v>
+      </c>
+      <c r="BX68" t="n" s="11">
+        <v>92.73</v>
+      </c>
+      <c r="BY68" t="n" s="11">
+        <v>92.78</v>
+      </c>
+      <c r="BZ68" t="n" s="11">
+        <v>93.89</v>
+      </c>
+      <c r="CA68" t="n" s="11">
+        <v>94.47</v>
+      </c>
+      <c r="CB68" t="n" s="11">
+        <v>95.01</v>
+      </c>
+      <c r="CC68" t="n" s="11">
         <v>95.21</v>
       </c>
-      <c r="BP68" t="n" s="11">
-        <v>95.5</v>
-      </c>
-      <c r="BQ68" t="n" s="11">
-        <v>95.81</v>
-      </c>
-      <c r="BR68" t="n" s="11">
-        <v>96.09</v>
-      </c>
-      <c r="BS68" t="n" s="11">
-        <v>96.62</v>
-      </c>
-      <c r="BT68" t="n" s="11">
-        <v>96.18</v>
-      </c>
-      <c r="BU68" t="n" s="11">
-        <v>95.36</v>
-      </c>
-      <c r="BV68" t="n" s="11">
-        <v>94.53</v>
-      </c>
-      <c r="BW68" t="n" s="11">
-        <v>91.94</v>
-      </c>
-      <c r="BX68" t="n" s="11">
-        <v>92.84</v>
-      </c>
-      <c r="BY68" t="n" s="11">
-        <v>92.86</v>
-      </c>
-      <c r="BZ68" t="n" s="11">
-        <v>93.86</v>
-      </c>
-      <c r="CA68" t="n" s="11">
-        <v>94.36</v>
-      </c>
-      <c r="CB68" t="n" s="11">
-        <v>95.06</v>
-      </c>
-      <c r="CC68" t="n" s="11">
-        <v>95.23</v>
-      </c>
       <c r="CD68" t="n" s="11">
-        <v>95.44</v>
+        <v>95.45</v>
       </c>
       <c r="CE68" t="n" s="11">
-        <v>96.9</v>
+        <v>96.91</v>
       </c>
       <c r="CF68" t="n" s="11">
-        <v>97.15</v>
+        <v>97.14</v>
       </c>
       <c r="CG68" t="n" s="11">
         <v>97.62</v>
@@ -24007,78 +24004,78 @@
         <v>101.24</v>
       </c>
       <c r="CZ68" t="n" s="11">
-        <v>101.19</v>
+        <v>101.18</v>
       </c>
       <c r="DA68" t="n" s="11">
         <v>101.37</v>
       </c>
       <c r="DB68" t="n" s="11">
-        <v>101.66</v>
+        <v>101.68</v>
       </c>
       <c r="DC68" t="n" s="11">
-        <v>102.15</v>
+        <v>102.19</v>
       </c>
       <c r="DD68" t="n" s="11">
-        <v>102.97</v>
+        <v>102.83</v>
       </c>
       <c r="DE68" t="n" s="11">
-        <v>103.46</v>
+        <v>103.5</v>
       </c>
       <c r="DF68" t="n" s="11">
-        <v>104.06</v>
+        <v>104.14</v>
       </c>
       <c r="DG68" t="n" s="11">
-        <v>103.71</v>
+        <v>103.81</v>
       </c>
       <c r="DH68" t="n" s="11">
-        <v>103.2</v>
+        <v>102.89</v>
       </c>
       <c r="DI68" t="n" s="11">
-        <v>103.09</v>
+        <v>103.22</v>
       </c>
       <c r="DJ68" t="n" s="11">
-        <v>102.92</v>
+        <v>103.01</v>
       </c>
       <c r="DK68" t="n" s="11">
-        <v>103.44</v>
+        <v>103.55</v>
       </c>
       <c r="DL68" t="n" s="11">
-        <v>103.4</v>
+        <v>103.0</v>
       </c>
       <c r="DM68" t="n" s="11">
-        <v>103.64</v>
+        <v>103.87</v>
       </c>
       <c r="DN68" t="n" s="11">
-        <v>103.66</v>
+        <v>103.72</v>
       </c>
       <c r="DO68" t="n" s="11">
-        <v>104.62</v>
+        <v>104.8</v>
       </c>
       <c r="DP68" t="n" s="11">
-        <v>101.29</v>
+        <v>100.74</v>
       </c>
       <c r="DQ68" t="n" s="11">
-        <v>103.99</v>
+        <v>104.29</v>
       </c>
       <c r="DR68" t="n" s="11">
-        <v>105.75</v>
+        <v>105.76</v>
       </c>
       <c r="DS68" t="n" s="11">
-        <v>106.13</v>
+        <v>106.49</v>
       </c>
       <c r="DT68" t="n" s="11">
-        <v>104.93</v>
+        <v>104.73</v>
       </c>
       <c r="DU68" t="n" s="11">
-        <v>104.0</v>
-      </c>
-      <c r="DV68" t="s" s="11">
-        <v>44</v>
+        <v>104.78</v>
+      </c>
+      <c r="DV68" t="n" s="11">
+        <v>103.75</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="10">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B69" t="s" s="14">
         <v>43</v>
@@ -24087,94 +24084,94 @@
         <v>5817.0</v>
       </c>
       <c r="D69" t="n" s="11">
-        <v>6031.0</v>
+        <v>6033.0</v>
       </c>
       <c r="E69" t="n" s="11">
-        <v>6081.0</v>
+        <v>6084.0</v>
       </c>
       <c r="F69" t="n" s="11">
-        <v>6243.0</v>
+        <v>6238.0</v>
       </c>
       <c r="G69" t="n" s="11">
-        <v>6457.0</v>
+        <v>6456.0</v>
       </c>
       <c r="H69" t="n" s="11">
-        <v>6575.0</v>
+        <v>6578.0</v>
       </c>
       <c r="I69" t="n" s="11">
-        <v>6774.0</v>
+        <v>6778.0</v>
       </c>
       <c r="J69" t="n" s="11">
-        <v>6843.0</v>
+        <v>6837.0</v>
       </c>
       <c r="K69" t="n" s="11">
-        <v>6797.0</v>
+        <v>6795.0</v>
       </c>
       <c r="L69" t="n" s="11">
-        <v>6931.0</v>
+        <v>6935.0</v>
       </c>
       <c r="M69" t="n" s="11">
-        <v>6964.0</v>
+        <v>6968.0</v>
       </c>
       <c r="N69" t="n" s="11">
-        <v>7051.0</v>
+        <v>7042.0</v>
       </c>
       <c r="O69" t="n" s="11">
         <v>7093.0</v>
       </c>
       <c r="P69" t="n" s="11">
-        <v>7096.0</v>
+        <v>7100.0</v>
       </c>
       <c r="Q69" t="n" s="11">
-        <v>7139.0</v>
+        <v>7144.0</v>
       </c>
       <c r="R69" t="n" s="11">
-        <v>7222.0</v>
+        <v>7210.0</v>
       </c>
       <c r="S69" t="n" s="11">
-        <v>7273.0</v>
+        <v>7277.0</v>
       </c>
       <c r="T69" t="n" s="11">
-        <v>7371.0</v>
+        <v>7376.0</v>
       </c>
       <c r="U69" t="n" s="11">
-        <v>7414.0</v>
+        <v>7419.0</v>
       </c>
       <c r="V69" t="n" s="11">
-        <v>7467.0</v>
+        <v>7453.0</v>
       </c>
       <c r="W69" t="n" s="11">
+        <v>7439.0</v>
+      </c>
+      <c r="X69" t="n" s="11">
         <v>7435.0</v>
       </c>
-      <c r="X69" t="n" s="11">
-        <v>7432.0</v>
-      </c>
       <c r="Y69" t="n" s="11">
-        <v>7477.0</v>
+        <v>7480.0</v>
       </c>
       <c r="Z69" t="n" s="11">
-        <v>7502.0</v>
+        <v>7494.0</v>
       </c>
       <c r="AA69" t="n" s="11">
-        <v>7507.0</v>
+        <v>7510.0</v>
       </c>
       <c r="AB69" t="n" s="11">
-        <v>7503.0</v>
+        <v>7505.0</v>
       </c>
       <c r="AC69" t="n" s="11">
-        <v>7496.0</v>
+        <v>7497.0</v>
       </c>
       <c r="AD69" t="n" s="11">
-        <v>7527.0</v>
+        <v>7524.0</v>
       </c>
       <c r="AE69" t="n" s="11">
-        <v>7554.0</v>
+        <v>7555.0</v>
       </c>
       <c r="AF69" t="n" s="11">
-        <v>7564.0</v>
+        <v>7565.0</v>
       </c>
       <c r="AG69" t="n" s="11">
-        <v>7588.0</v>
+        <v>7587.0</v>
       </c>
       <c r="AH69" t="n" s="11">
         <v>7608.0</v>
@@ -24402,63 +24399,63 @@
         <v>10550.0</v>
       </c>
       <c r="DE69" t="n" s="11">
-        <v>10607.0</v>
+        <v>10608.0</v>
       </c>
       <c r="DF69" t="n" s="11">
-        <v>10697.0</v>
+        <v>10698.0</v>
       </c>
       <c r="DG69" t="n" s="11">
-        <v>10763.0</v>
+        <v>10759.0</v>
       </c>
       <c r="DH69" t="n" s="11">
-        <v>10850.0</v>
+        <v>10854.0</v>
       </c>
       <c r="DI69" t="n" s="11">
-        <v>10936.0</v>
+        <v>10938.0</v>
       </c>
       <c r="DJ69" t="n" s="11">
-        <v>11016.0</v>
+        <v>11015.0</v>
       </c>
       <c r="DK69" t="n" s="11">
-        <v>11122.0</v>
+        <v>11106.0</v>
       </c>
       <c r="DL69" t="n" s="11">
-        <v>11267.0</v>
+        <v>11295.0</v>
       </c>
       <c r="DM69" t="n" s="11">
-        <v>11320.0</v>
+        <v>11313.0</v>
       </c>
       <c r="DN69" t="n" s="11">
-        <v>11328.0</v>
+        <v>11314.0</v>
       </c>
       <c r="DO69" t="n" s="11">
-        <v>11343.0</v>
+        <v>11317.0</v>
       </c>
       <c r="DP69" t="n" s="11">
-        <v>11052.0</v>
+        <v>11127.0</v>
       </c>
       <c r="DQ69" t="n" s="11">
-        <v>11341.0</v>
+        <v>11311.0</v>
       </c>
       <c r="DR69" t="n" s="11">
-        <v>11479.0</v>
+        <v>11453.0</v>
       </c>
       <c r="DS69" t="n" s="11">
-        <v>11449.0</v>
+        <v>11424.0</v>
       </c>
       <c r="DT69" t="n" s="11">
-        <v>11605.0</v>
+        <v>11704.0</v>
       </c>
       <c r="DU69" t="n" s="11">
-        <v>11734.0</v>
-      </c>
-      <c r="DV69" t="s" s="11">
-        <v>44</v>
+        <v>11750.0</v>
+      </c>
+      <c r="DV69" t="n" s="11">
+        <v>11886.0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="10">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B70" t="s" s="14">
         <v>43</v>
@@ -24467,85 +24464,85 @@
         <v>15.7</v>
       </c>
       <c r="D70" t="n" s="11">
-        <v>16.32</v>
+        <v>16.33</v>
       </c>
       <c r="E70" t="n" s="11">
-        <v>16.45</v>
+        <v>16.46</v>
       </c>
       <c r="F70" t="n" s="11">
-        <v>16.93</v>
+        <v>16.92</v>
       </c>
       <c r="G70" t="n" s="11">
         <v>17.18</v>
       </c>
       <c r="H70" t="n" s="11">
-        <v>17.68</v>
+        <v>17.69</v>
       </c>
       <c r="I70" t="n" s="11">
-        <v>18.25</v>
+        <v>18.26</v>
       </c>
       <c r="J70" t="n" s="11">
-        <v>18.48</v>
+        <v>18.47</v>
       </c>
       <c r="K70" t="n" s="11">
-        <v>18.6</v>
+        <v>18.59</v>
       </c>
       <c r="L70" t="n" s="11">
-        <v>18.97</v>
+        <v>18.98</v>
       </c>
       <c r="M70" t="n" s="11">
-        <v>19.1</v>
+        <v>19.11</v>
       </c>
       <c r="N70" t="n" s="11">
-        <v>19.34</v>
+        <v>19.31</v>
       </c>
       <c r="O70" t="n" s="11">
         <v>19.46</v>
       </c>
       <c r="P70" t="n" s="11">
-        <v>19.51</v>
+        <v>19.53</v>
       </c>
       <c r="Q70" t="n" s="11">
-        <v>19.68</v>
+        <v>19.69</v>
       </c>
       <c r="R70" t="n" s="11">
-        <v>19.9</v>
+        <v>19.87</v>
       </c>
       <c r="S70" t="n" s="11">
-        <v>19.92</v>
+        <v>19.94</v>
       </c>
       <c r="T70" t="n" s="11">
-        <v>20.43</v>
+        <v>20.44</v>
       </c>
       <c r="U70" t="n" s="11">
-        <v>20.61</v>
+        <v>20.62</v>
       </c>
       <c r="V70" t="n" s="11">
-        <v>20.77</v>
+        <v>20.73</v>
       </c>
       <c r="W70" t="n" s="11">
-        <v>20.69</v>
+        <v>20.71</v>
       </c>
       <c r="X70" t="n" s="11">
-        <v>20.82</v>
+        <v>20.83</v>
       </c>
       <c r="Y70" t="n" s="11">
         <v>20.92</v>
       </c>
       <c r="Z70" t="n" s="11">
-        <v>21.08</v>
+        <v>21.06</v>
       </c>
       <c r="AA70" t="n" s="11">
-        <v>21.33</v>
+        <v>21.34</v>
       </c>
       <c r="AB70" t="n" s="11">
-        <v>20.99</v>
+        <v>21.0</v>
       </c>
       <c r="AC70" t="n" s="11">
         <v>21.1</v>
       </c>
       <c r="AD70" t="n" s="11">
-        <v>21.25</v>
+        <v>21.24</v>
       </c>
       <c r="AE70" t="n" s="11">
         <v>21.22</v>
@@ -24641,13 +24638,13 @@
         <v>24.29</v>
       </c>
       <c r="BJ70" t="n" s="11">
-        <v>24.31</v>
+        <v>24.3</v>
       </c>
       <c r="BK70" t="n" s="11">
         <v>24.04</v>
       </c>
       <c r="BL70" t="n" s="11">
-        <v>24.3</v>
+        <v>24.29</v>
       </c>
       <c r="BM70" t="n" s="11">
         <v>24.3</v>
@@ -24776,87 +24773,87 @@
         <v>31.26</v>
       </c>
       <c r="DC70" t="n" s="11">
-        <v>31.2</v>
+        <v>31.21</v>
       </c>
       <c r="DD70" t="n" s="11">
-        <v>31.86</v>
+        <v>31.81</v>
       </c>
       <c r="DE70" t="n" s="11">
-        <v>31.88</v>
+        <v>31.9</v>
       </c>
       <c r="DF70" t="n" s="11">
-        <v>32.25</v>
+        <v>32.28</v>
       </c>
       <c r="DG70" t="n" s="11">
-        <v>32.56</v>
+        <v>32.59</v>
       </c>
       <c r="DH70" t="n" s="11">
-        <v>32.46</v>
+        <v>32.36</v>
       </c>
       <c r="DI70" t="n" s="11">
-        <v>33.0</v>
+        <v>33.04</v>
       </c>
       <c r="DJ70" t="n" s="11">
-        <v>33.1</v>
+        <v>33.14</v>
       </c>
       <c r="DK70" t="n" s="11">
         <v>33.33</v>
       </c>
       <c r="DL70" t="n" s="11">
-        <v>34.0</v>
+        <v>33.93</v>
       </c>
       <c r="DM70" t="n" s="11">
-        <v>33.99</v>
+        <v>34.03</v>
       </c>
       <c r="DN70" t="n" s="11">
-        <v>34.35</v>
+        <v>34.34</v>
       </c>
       <c r="DO70" t="n" s="11">
-        <v>34.68</v>
+        <v>34.67</v>
       </c>
       <c r="DP70" t="n" s="11">
-        <v>35.82</v>
+        <v>35.88</v>
       </c>
       <c r="DQ70" t="n" s="11">
-        <v>34.81</v>
+        <v>34.84</v>
       </c>
       <c r="DR70" t="n" s="11">
-        <v>35.56</v>
+        <v>35.47</v>
       </c>
       <c r="DS70" t="n" s="11">
-        <v>36.0</v>
+        <v>35.97</v>
       </c>
       <c r="DT70" t="n" s="11">
-        <v>35.63</v>
+        <v>35.78</v>
       </c>
       <c r="DU70" t="n" s="11">
-        <v>35.42</v>
-      </c>
-      <c r="DV70" t="s" s="11">
-        <v>44</v>
+        <v>35.69</v>
+      </c>
+      <c r="DV70" t="n" s="11">
+        <v>35.84</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="10">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B71" t="s" s="14">
         <v>43</v>
       </c>
       <c r="C71" t="n" s="11">
-        <v>4800.0</v>
+        <v>4799.0</v>
       </c>
       <c r="D71" t="n" s="11">
         <v>4944.0</v>
       </c>
       <c r="E71" t="n" s="11">
-        <v>4991.0</v>
+        <v>4990.0</v>
       </c>
       <c r="F71" t="n" s="11">
-        <v>5122.0</v>
+        <v>5124.0</v>
       </c>
       <c r="G71" t="n" s="11">
-        <v>5314.0</v>
+        <v>5313.0</v>
       </c>
       <c r="H71" t="n" s="11">
         <v>5407.0</v>
@@ -24865,82 +24862,82 @@
         <v>5562.0</v>
       </c>
       <c r="J71" t="n" s="11">
-        <v>5604.0</v>
+        <v>5605.0</v>
       </c>
       <c r="K71" t="n" s="11">
         <v>5618.0</v>
       </c>
       <c r="L71" t="n" s="11">
-        <v>5703.0</v>
+        <v>5704.0</v>
       </c>
       <c r="M71" t="n" s="11">
-        <v>5730.0</v>
+        <v>5731.0</v>
       </c>
       <c r="N71" t="n" s="11">
-        <v>5789.0</v>
+        <v>5784.0</v>
       </c>
       <c r="O71" t="n" s="11">
-        <v>5804.0</v>
+        <v>5806.0</v>
       </c>
       <c r="P71" t="n" s="11">
-        <v>5785.0</v>
+        <v>5788.0</v>
       </c>
       <c r="Q71" t="n" s="11">
-        <v>5817.0</v>
+        <v>5822.0</v>
       </c>
       <c r="R71" t="n" s="11">
-        <v>5886.0</v>
+        <v>5872.0</v>
       </c>
       <c r="S71" t="n" s="11">
-        <v>5915.0</v>
+        <v>5920.0</v>
       </c>
       <c r="T71" t="n" s="11">
-        <v>5985.0</v>
+        <v>5990.0</v>
       </c>
       <c r="U71" t="n" s="11">
-        <v>6009.0</v>
+        <v>6015.0</v>
       </c>
       <c r="V71" t="n" s="11">
+        <v>6051.0</v>
+      </c>
+      <c r="W71" t="n" s="11">
+        <v>6054.0</v>
+      </c>
+      <c r="X71" t="n" s="11">
+        <v>6048.0</v>
+      </c>
+      <c r="Y71" t="n" s="11">
+        <v>6077.0</v>
+      </c>
+      <c r="Z71" t="n" s="11">
+        <v>6080.0</v>
+      </c>
+      <c r="AA71" t="n" s="11">
         <v>6069.0</v>
       </c>
-      <c r="W71" t="n" s="11">
-        <v>6048.0</v>
-      </c>
-      <c r="X71" t="n" s="11">
-        <v>6043.0</v>
-      </c>
-      <c r="Y71" t="n" s="11">
-        <v>6072.0</v>
-      </c>
-      <c r="Z71" t="n" s="11">
-        <v>6094.0</v>
-      </c>
-      <c r="AA71" t="n" s="11">
-        <v>6065.0</v>
-      </c>
       <c r="AB71" t="n" s="11">
-        <v>6059.0</v>
+        <v>6062.0</v>
       </c>
       <c r="AC71" t="n" s="11">
-        <v>6052.0</v>
+        <v>6055.0</v>
       </c>
       <c r="AD71" t="n" s="11">
-        <v>6087.0</v>
+        <v>6080.0</v>
       </c>
       <c r="AE71" t="n" s="11">
-        <v>6100.0</v>
+        <v>6103.0</v>
       </c>
       <c r="AF71" t="n" s="11">
-        <v>6106.0</v>
+        <v>6107.0</v>
       </c>
       <c r="AG71" t="n" s="11">
         <v>6126.0</v>
       </c>
       <c r="AH71" t="n" s="11">
-        <v>6139.0</v>
+        <v>6136.0</v>
       </c>
       <c r="AI71" t="n" s="11">
-        <v>6154.0</v>
+        <v>6155.0</v>
       </c>
       <c r="AJ71" t="n" s="11">
         <v>6210.0</v>
@@ -25156,69 +25153,69 @@
         <v>8564.0</v>
       </c>
       <c r="DC71" t="n" s="11">
-        <v>8613.0</v>
+        <v>8612.0</v>
       </c>
       <c r="DD71" t="n" s="11">
         <v>8671.0</v>
       </c>
       <c r="DE71" t="n" s="11">
-        <v>8723.0</v>
+        <v>8724.0</v>
       </c>
       <c r="DF71" t="n" s="11">
-        <v>8795.0</v>
+        <v>8797.0</v>
       </c>
       <c r="DG71" t="n" s="11">
-        <v>8872.0</v>
+        <v>8866.0</v>
       </c>
       <c r="DH71" t="n" s="11">
-        <v>8946.0</v>
+        <v>8948.0</v>
       </c>
       <c r="DI71" t="n" s="11">
-        <v>9011.0</v>
+        <v>9014.0</v>
       </c>
       <c r="DJ71" t="n" s="11">
-        <v>9077.0</v>
+        <v>9080.0</v>
       </c>
       <c r="DK71" t="n" s="11">
-        <v>9132.0</v>
+        <v>9120.0</v>
       </c>
       <c r="DL71" t="n" s="11">
-        <v>9255.0</v>
+        <v>9262.0</v>
       </c>
       <c r="DM71" t="n" s="11">
-        <v>9297.0</v>
+        <v>9298.0</v>
       </c>
       <c r="DN71" t="n" s="11">
-        <v>9289.0</v>
+        <v>9290.0</v>
       </c>
       <c r="DO71" t="n" s="11">
-        <v>9312.0</v>
+        <v>9306.0</v>
       </c>
       <c r="DP71" t="n" s="11">
-        <v>8980.0</v>
+        <v>8995.0</v>
       </c>
       <c r="DQ71" t="n" s="11">
-        <v>9269.0</v>
+        <v>9258.0</v>
       </c>
       <c r="DR71" t="n" s="11">
-        <v>9383.0</v>
+        <v>9378.0</v>
       </c>
       <c r="DS71" t="n" s="11">
-        <v>9334.0</v>
+        <v>9335.0</v>
       </c>
       <c r="DT71" t="n" s="11">
-        <v>9479.0</v>
+        <v>9502.0</v>
       </c>
       <c r="DU71" t="n" s="11">
-        <v>9607.0</v>
-      </c>
-      <c r="DV71" t="s" s="11">
-        <v>44</v>
+        <v>9643.0</v>
+      </c>
+      <c r="DV71" t="n" s="11">
+        <v>9758.0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="10">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B72" t="s" s="14">
         <v>43</v>
@@ -25233,7 +25230,7 @@
         <v>13.5</v>
       </c>
       <c r="F72" t="n" s="11">
-        <v>13.89</v>
+        <v>13.9</v>
       </c>
       <c r="G72" t="n" s="11">
         <v>14.14</v>
@@ -25257,58 +25254,58 @@
         <v>15.72</v>
       </c>
       <c r="N72" t="n" s="11">
-        <v>15.87</v>
+        <v>15.86</v>
       </c>
       <c r="O72" t="n" s="11">
         <v>15.93</v>
       </c>
       <c r="P72" t="n" s="11">
-        <v>15.91</v>
+        <v>15.92</v>
       </c>
       <c r="Q72" t="n" s="11">
-        <v>16.03</v>
+        <v>16.05</v>
       </c>
       <c r="R72" t="n" s="11">
+        <v>16.18</v>
+      </c>
+      <c r="S72" t="n" s="11">
         <v>16.22</v>
       </c>
-      <c r="S72" t="n" s="11">
-        <v>16.2</v>
-      </c>
       <c r="T72" t="n" s="11">
-        <v>16.59</v>
+        <v>16.6</v>
       </c>
       <c r="U72" t="n" s="11">
-        <v>16.71</v>
+        <v>16.72</v>
       </c>
       <c r="V72" t="n" s="11">
-        <v>16.88</v>
+        <v>16.83</v>
       </c>
       <c r="W72" t="n" s="11">
-        <v>16.83</v>
+        <v>16.85</v>
       </c>
       <c r="X72" t="n" s="11">
-        <v>16.93</v>
+        <v>16.94</v>
       </c>
       <c r="Y72" t="n" s="11">
-        <v>16.98</v>
+        <v>17.0</v>
       </c>
       <c r="Z72" t="n" s="11">
-        <v>17.12</v>
+        <v>17.08</v>
       </c>
       <c r="AA72" t="n" s="11">
-        <v>17.23</v>
+        <v>17.24</v>
       </c>
       <c r="AB72" t="n" s="11">
-        <v>16.95</v>
+        <v>16.96</v>
       </c>
       <c r="AC72" t="n" s="11">
-        <v>17.03</v>
+        <v>17.04</v>
       </c>
       <c r="AD72" t="n" s="11">
-        <v>17.19</v>
+        <v>17.16</v>
       </c>
       <c r="AE72" t="n" s="11">
-        <v>17.13</v>
+        <v>17.14</v>
       </c>
       <c r="AF72" t="n" s="11">
         <v>17.37</v>
@@ -25329,7 +25326,7 @@
         <v>17.74</v>
       </c>
       <c r="AL72" t="n" s="11">
-        <v>17.74</v>
+        <v>17.73</v>
       </c>
       <c r="AM72" t="n" s="11">
         <v>17.87</v>
@@ -25374,7 +25371,7 @@
         <v>19.45</v>
       </c>
       <c r="BA72" t="n" s="11">
-        <v>19.46</v>
+        <v>19.47</v>
       </c>
       <c r="BB72" t="n" s="11">
         <v>19.57</v>
@@ -25389,7 +25386,7 @@
         <v>19.65</v>
       </c>
       <c r="BF72" t="n" s="11">
-        <v>19.57</v>
+        <v>19.56</v>
       </c>
       <c r="BG72" t="n" s="11">
         <v>20.07</v>
@@ -25404,7 +25401,7 @@
         <v>19.7</v>
       </c>
       <c r="BK72" t="n" s="11">
-        <v>19.42</v>
+        <v>19.43</v>
       </c>
       <c r="BL72" t="n" s="11">
         <v>19.65</v>
@@ -25533,342 +25530,342 @@
         <v>25.48</v>
       </c>
       <c r="DB72" t="n" s="11">
-        <v>25.72</v>
+        <v>25.73</v>
       </c>
       <c r="DC72" t="n" s="11">
-        <v>25.65</v>
+        <v>25.66</v>
       </c>
       <c r="DD72" t="n" s="11">
-        <v>26.18</v>
+        <v>26.14</v>
       </c>
       <c r="DE72" t="n" s="11">
-        <v>26.22</v>
+        <v>26.23</v>
       </c>
       <c r="DF72" t="n" s="11">
-        <v>26.52</v>
+        <v>26.55</v>
       </c>
       <c r="DG72" t="n" s="11">
-        <v>26.84</v>
+        <v>26.86</v>
       </c>
       <c r="DH72" t="n" s="11">
-        <v>26.77</v>
+        <v>26.68</v>
       </c>
       <c r="DI72" t="n" s="11">
-        <v>27.19</v>
+        <v>27.23</v>
       </c>
       <c r="DJ72" t="n" s="11">
-        <v>27.27</v>
+        <v>27.32</v>
       </c>
       <c r="DK72" t="n" s="11">
         <v>27.37</v>
       </c>
       <c r="DL72" t="n" s="11">
-        <v>27.93</v>
+        <v>27.82</v>
       </c>
       <c r="DM72" t="n" s="11">
-        <v>27.91</v>
+        <v>27.97</v>
       </c>
       <c r="DN72" t="n" s="11">
-        <v>28.17</v>
+        <v>28.2</v>
       </c>
       <c r="DO72" t="n" s="11">
-        <v>28.48</v>
+        <v>28.51</v>
       </c>
       <c r="DP72" t="n" s="11">
-        <v>29.11</v>
+        <v>29.0</v>
       </c>
       <c r="DQ72" t="n" s="11">
-        <v>28.45</v>
+        <v>28.52</v>
       </c>
       <c r="DR72" t="n" s="11">
-        <v>29.06</v>
+        <v>29.04</v>
       </c>
       <c r="DS72" t="n" s="11">
-        <v>29.35</v>
+        <v>29.39</v>
       </c>
       <c r="DT72" t="n" s="11">
-        <v>29.1</v>
+        <v>29.04</v>
       </c>
       <c r="DU72" t="n" s="11">
-        <v>29.0</v>
-      </c>
-      <c r="DV72" t="s" s="11">
-        <v>44</v>
+        <v>29.29</v>
+      </c>
+      <c r="DV72" t="n" s="11">
+        <v>29.43</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="10">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B73" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C73" t="n" s="11">
-        <v>71.31</v>
+        <v>71.36</v>
       </c>
       <c r="D73" t="n" s="11">
-        <v>73.65</v>
+        <v>73.68</v>
       </c>
       <c r="E73" t="n" s="11">
-        <v>73.78</v>
+        <v>73.8</v>
       </c>
       <c r="F73" t="n" s="11">
-        <v>74.82</v>
+        <v>74.8</v>
       </c>
       <c r="G73" t="n" s="11">
-        <v>76.47</v>
+        <v>76.44</v>
       </c>
       <c r="H73" t="n" s="11">
-        <v>77.69</v>
+        <v>77.74</v>
       </c>
       <c r="I73" t="n" s="11">
-        <v>79.95</v>
+        <v>80.0</v>
       </c>
       <c r="J73" t="n" s="11">
-        <v>80.66</v>
+        <v>80.58</v>
       </c>
       <c r="K73" t="n" s="11">
-        <v>80.66</v>
+        <v>80.63</v>
       </c>
       <c r="L73" t="n" s="11">
-        <v>81.8</v>
+        <v>81.84</v>
       </c>
       <c r="M73" t="n" s="11">
-        <v>81.72</v>
+        <v>81.74</v>
       </c>
       <c r="N73" t="n" s="11">
-        <v>82.93</v>
+        <v>82.79</v>
       </c>
       <c r="O73" t="n" s="11">
         <v>82.14</v>
       </c>
       <c r="P73" t="n" s="11">
-        <v>81.95</v>
+        <v>81.99</v>
       </c>
       <c r="Q73" t="n" s="11">
+        <v>82.17</v>
+      </c>
+      <c r="R73" t="n" s="11">
         <v>82.14</v>
       </c>
-      <c r="R73" t="n" s="11">
-        <v>82.27</v>
-      </c>
       <c r="S73" t="n" s="11">
-        <v>82.97</v>
+        <v>82.99</v>
       </c>
       <c r="T73" t="n" s="11">
-        <v>83.65</v>
+        <v>83.73</v>
       </c>
       <c r="U73" t="n" s="11">
+        <v>84.14</v>
+      </c>
+      <c r="V73" t="n" s="11">
+        <v>84.68</v>
+      </c>
+      <c r="W73" t="n" s="11">
+        <v>84.46</v>
+      </c>
+      <c r="X73" t="n" s="11">
         <v>84.05</v>
       </c>
-      <c r="V73" t="n" s="11">
-        <v>84.83</v>
-      </c>
-      <c r="W73" t="n" s="11">
-        <v>84.41</v>
-      </c>
-      <c r="X73" t="n" s="11">
-        <v>84.0</v>
-      </c>
       <c r="Y73" t="n" s="11">
-        <v>84.07</v>
+        <v>84.09</v>
       </c>
       <c r="Z73" t="n" s="11">
-        <v>83.82</v>
+        <v>83.77</v>
       </c>
       <c r="AA73" t="n" s="11">
-        <v>83.64</v>
+        <v>83.72</v>
       </c>
       <c r="AB73" t="n" s="11">
-        <v>83.07</v>
+        <v>83.06</v>
       </c>
       <c r="AC73" t="n" s="11">
-        <v>82.68</v>
+        <v>82.69</v>
       </c>
       <c r="AD73" t="n" s="11">
         <v>82.35</v>
       </c>
       <c r="AE73" t="n" s="11">
-        <v>82.47</v>
+        <v>82.45</v>
       </c>
       <c r="AF73" t="n" s="11">
-        <v>83.05</v>
+        <v>83.09</v>
       </c>
       <c r="AG73" t="n" s="11">
-        <v>83.47</v>
+        <v>83.46</v>
       </c>
       <c r="AH73" t="n" s="11">
-        <v>84.16</v>
+        <v>84.14</v>
       </c>
       <c r="AI73" t="n" s="11">
-        <v>83.94</v>
+        <v>83.95</v>
       </c>
       <c r="AJ73" t="n" s="11">
-        <v>84.64</v>
+        <v>84.62</v>
       </c>
       <c r="AK73" t="n" s="11">
-        <v>84.29</v>
+        <v>84.27</v>
       </c>
       <c r="AL73" t="n" s="11">
-        <v>84.15</v>
+        <v>84.1</v>
       </c>
       <c r="AM73" t="n" s="11">
-        <v>84.64</v>
+        <v>84.6</v>
       </c>
       <c r="AN73" t="n" s="11">
         <v>84.27</v>
       </c>
       <c r="AO73" t="n" s="11">
-        <v>84.89</v>
+        <v>84.9</v>
       </c>
       <c r="AP73" t="n" s="11">
-        <v>85.02</v>
+        <v>85.05</v>
       </c>
       <c r="AQ73" t="n" s="11">
         <v>84.35</v>
       </c>
       <c r="AR73" t="n" s="11">
-        <v>84.57</v>
+        <v>84.59</v>
       </c>
       <c r="AS73" t="n" s="11">
-        <v>84.66</v>
+        <v>84.68</v>
       </c>
       <c r="AT73" t="n" s="11">
-        <v>85.08</v>
+        <v>85.09</v>
       </c>
       <c r="AU73" t="n" s="11">
-        <v>85.29</v>
+        <v>85.31</v>
       </c>
       <c r="AV73" t="n" s="11">
-        <v>85.38</v>
+        <v>85.37</v>
       </c>
       <c r="AW73" t="n" s="11">
-        <v>85.46</v>
+        <v>85.47</v>
       </c>
       <c r="AX73" t="n" s="11">
-        <v>85.79</v>
+        <v>85.82</v>
       </c>
       <c r="AY73" t="n" s="11">
-        <v>86.51</v>
+        <v>86.53</v>
       </c>
       <c r="AZ73" t="n" s="11">
-        <v>86.63</v>
+        <v>86.66</v>
       </c>
       <c r="BA73" t="n" s="11">
-        <v>86.74</v>
+        <v>86.75</v>
       </c>
       <c r="BB73" t="n" s="11">
-        <v>86.37</v>
+        <v>86.39</v>
       </c>
       <c r="BC73" t="n" s="11">
-        <v>86.47</v>
+        <v>86.45</v>
       </c>
       <c r="BD73" t="n" s="11">
         <v>86.4</v>
       </c>
       <c r="BE73" t="n" s="11">
-        <v>86.62</v>
+        <v>86.61</v>
       </c>
       <c r="BF73" t="n" s="11">
-        <v>86.96</v>
+        <v>86.9</v>
       </c>
       <c r="BG73" t="n" s="11">
-        <v>86.54</v>
+        <v>86.56</v>
       </c>
       <c r="BH73" t="n" s="11">
-        <v>86.44</v>
+        <v>86.39</v>
       </c>
       <c r="BI73" t="n" s="11">
-        <v>85.65</v>
+        <v>85.64</v>
       </c>
       <c r="BJ73" t="n" s="11">
-        <v>85.42</v>
+        <v>85.4</v>
       </c>
       <c r="BK73" t="n" s="11">
-        <v>84.93</v>
+        <v>84.89</v>
       </c>
       <c r="BL73" t="n" s="11">
-        <v>84.13</v>
+        <v>84.15</v>
       </c>
       <c r="BM73" t="n" s="11">
-        <v>84.15</v>
+        <v>84.16</v>
       </c>
       <c r="BN73" t="n" s="11">
         <v>83.31</v>
       </c>
       <c r="BO73" t="n" s="11">
-        <v>83.65</v>
+        <v>83.62</v>
       </c>
       <c r="BP73" t="n" s="11">
-        <v>83.74</v>
+        <v>83.8</v>
       </c>
       <c r="BQ73" t="n" s="11">
-        <v>83.83</v>
+        <v>83.94</v>
       </c>
       <c r="BR73" t="n" s="11">
-        <v>83.9</v>
+        <v>83.85</v>
       </c>
       <c r="BS73" t="n" s="11">
-        <v>84.36</v>
+        <v>84.15</v>
       </c>
       <c r="BT73" t="n" s="11">
-        <v>85.48</v>
+        <v>85.61</v>
       </c>
       <c r="BU73" t="n" s="11">
-        <v>86.78</v>
+        <v>87.02</v>
       </c>
       <c r="BV73" t="n" s="11">
-        <v>88.54</v>
+        <v>88.48</v>
       </c>
       <c r="BW73" t="n" s="11">
-        <v>92.22</v>
+        <v>91.75</v>
       </c>
       <c r="BX73" t="n" s="11">
-        <v>91.89</v>
+        <v>92.21</v>
       </c>
       <c r="BY73" t="n" s="11">
-        <v>92.24</v>
+        <v>92.44</v>
       </c>
       <c r="BZ73" t="n" s="11">
-        <v>91.5</v>
+        <v>91.41</v>
       </c>
       <c r="CA73" t="n" s="11">
-        <v>91.71</v>
+        <v>91.45</v>
       </c>
       <c r="CB73" t="n" s="11">
-        <v>90.69</v>
+        <v>90.8</v>
       </c>
       <c r="CC73" t="n" s="11">
-        <v>90.84</v>
+        <v>90.87</v>
       </c>
       <c r="CD73" t="n" s="11">
-        <v>90.95</v>
+        <v>90.9</v>
       </c>
       <c r="CE73" t="n" s="11">
-        <v>90.52</v>
+        <v>90.47</v>
       </c>
       <c r="CF73" t="n" s="11">
-        <v>91.19</v>
+        <v>91.17</v>
       </c>
       <c r="CG73" t="n" s="11">
-        <v>91.32</v>
+        <v>91.31</v>
       </c>
       <c r="CH73" t="n" s="11">
         <v>91.92</v>
       </c>
       <c r="CI73" t="n" s="11">
-        <v>92.92</v>
+        <v>92.88</v>
       </c>
       <c r="CJ73" t="n" s="11">
-        <v>93.83</v>
+        <v>93.84</v>
       </c>
       <c r="CK73" t="n" s="11">
-        <v>94.51</v>
+        <v>94.54</v>
       </c>
       <c r="CL73" t="n" s="11">
-        <v>95.19</v>
+        <v>95.21</v>
       </c>
       <c r="CM73" t="n" s="11">
-        <v>95.74</v>
+        <v>95.77</v>
       </c>
       <c r="CN73" t="n" s="11">
         <v>95.82</v>
@@ -25877,201 +25874,201 @@
         <v>96.28</v>
       </c>
       <c r="CP73" t="n" s="11">
-        <v>96.74</v>
+        <v>96.76</v>
       </c>
       <c r="CQ73" t="n" s="11">
         <v>96.91</v>
       </c>
       <c r="CR73" t="n" s="11">
-        <v>97.51</v>
+        <v>97.53</v>
       </c>
       <c r="CS73" t="n" s="11">
-        <v>97.93</v>
+        <v>97.94</v>
       </c>
       <c r="CT73" t="n" s="11">
-        <v>98.01</v>
+        <v>98.03</v>
       </c>
       <c r="CU73" t="n" s="11">
-        <v>99.15</v>
+        <v>99.14</v>
       </c>
       <c r="CV73" t="n" s="11">
-        <v>99.86</v>
+        <v>99.88</v>
       </c>
       <c r="CW73" t="n" s="11">
-        <v>100.17</v>
+        <v>100.16</v>
       </c>
       <c r="CX73" t="n" s="11">
-        <v>100.61</v>
+        <v>100.58</v>
       </c>
       <c r="CY73" t="n" s="11">
-        <v>100.66</v>
+        <v>100.68</v>
       </c>
       <c r="CZ73" t="n" s="11">
-        <v>100.98</v>
+        <v>100.94</v>
       </c>
       <c r="DA73" t="n" s="11">
-        <v>101.68</v>
+        <v>101.67</v>
       </c>
       <c r="DB73" t="n" s="11">
-        <v>102.32</v>
+        <v>102.31</v>
       </c>
       <c r="DC73" t="n" s="11">
-        <v>102.17</v>
+        <v>102.13</v>
       </c>
       <c r="DD73" t="n" s="11">
-        <v>102.45</v>
+        <v>102.48</v>
       </c>
       <c r="DE73" t="n" s="11">
-        <v>102.36</v>
+        <v>102.37</v>
       </c>
       <c r="DF73" t="n" s="11">
-        <v>102.72</v>
+        <v>102.77</v>
       </c>
       <c r="DG73" t="n" s="11">
-        <v>104.24</v>
+        <v>104.21</v>
       </c>
       <c r="DH73" t="n" s="11">
-        <v>104.95</v>
+        <v>104.97</v>
       </c>
       <c r="DI73" t="n" s="11">
-        <v>106.41</v>
+        <v>106.45</v>
       </c>
       <c r="DJ73" t="n" s="11">
-        <v>107.26</v>
+        <v>107.25</v>
       </c>
       <c r="DK73" t="n" s="11">
-        <v>107.29</v>
+        <v>107.15</v>
       </c>
       <c r="DL73" t="n" s="11">
-        <v>109.36</v>
+        <v>109.67</v>
       </c>
       <c r="DM73" t="n" s="11">
-        <v>109.64</v>
+        <v>109.58</v>
       </c>
       <c r="DN73" t="n" s="11">
-        <v>110.48</v>
+        <v>110.32</v>
       </c>
       <c r="DO73" t="n" s="11">
-        <v>111.59</v>
+        <v>111.29</v>
       </c>
       <c r="DP73" t="n" s="11">
-        <v>119.39</v>
+        <v>120.33</v>
       </c>
       <c r="DQ73" t="n" s="11">
-        <v>112.62</v>
+        <v>112.49</v>
       </c>
       <c r="DR73" t="n" s="11">
-        <v>113.81</v>
+        <v>113.3</v>
       </c>
       <c r="DS73" t="n" s="11">
-        <v>113.82</v>
+        <v>113.27</v>
       </c>
       <c r="DT73" t="n" s="11">
-        <v>114.32</v>
+        <v>115.06</v>
       </c>
       <c r="DU73" t="n" s="11">
-        <v>114.4</v>
-      </c>
-      <c r="DV73" t="s" s="11">
-        <v>44</v>
+        <v>114.49</v>
+      </c>
+      <c r="DV73" t="n" s="11">
+        <v>116.84</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="10">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B74" t="s" s="14">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C74" t="n" s="11">
         <v>72.1</v>
       </c>
       <c r="D74" t="n" s="11">
-        <v>73.82</v>
+        <v>73.85</v>
       </c>
       <c r="E74" t="n" s="11">
-        <v>74.08</v>
+        <v>74.11</v>
       </c>
       <c r="F74" t="n" s="11">
-        <v>75.54</v>
+        <v>75.47</v>
       </c>
       <c r="G74" t="n" s="11">
-        <v>76.38</v>
+        <v>76.35</v>
       </c>
       <c r="H74" t="n" s="11">
-        <v>78.16</v>
+        <v>78.2</v>
       </c>
       <c r="I74" t="n" s="11">
-        <v>80.18</v>
+        <v>80.22</v>
       </c>
       <c r="J74" t="n" s="11">
-        <v>80.78</v>
+        <v>80.7</v>
       </c>
       <c r="K74" t="n" s="11">
-        <v>81.31</v>
+        <v>81.28</v>
       </c>
       <c r="L74" t="n" s="11">
-        <v>82.12</v>
+        <v>82.18</v>
       </c>
       <c r="M74" t="n" s="11">
-        <v>82.17</v>
+        <v>82.2</v>
       </c>
       <c r="N74" t="n" s="11">
-        <v>83.02</v>
+        <v>82.92</v>
       </c>
       <c r="O74" t="n" s="11">
-        <v>82.66</v>
+        <v>82.67</v>
       </c>
       <c r="P74" t="n" s="11">
-        <v>82.49</v>
+        <v>82.54</v>
       </c>
       <c r="Q74" t="n" s="11">
-        <v>82.7</v>
+        <v>82.78</v>
       </c>
       <c r="R74" t="n" s="11">
-        <v>83.22</v>
+        <v>83.07</v>
       </c>
       <c r="S74" t="n" s="11">
-        <v>83.39</v>
+        <v>83.44</v>
       </c>
       <c r="T74" t="n" s="11">
-        <v>84.69</v>
+        <v>84.75</v>
       </c>
       <c r="U74" t="n" s="11">
-        <v>85.32</v>
+        <v>85.39</v>
       </c>
       <c r="V74" t="n" s="11">
-        <v>85.9</v>
+        <v>85.75</v>
       </c>
       <c r="W74" t="n" s="11">
-        <v>85.23</v>
+        <v>85.29</v>
       </c>
       <c r="X74" t="n" s="11">
-        <v>85.24</v>
+        <v>85.28</v>
       </c>
       <c r="Y74" t="n" s="11">
-        <v>85.08</v>
+        <v>85.11</v>
       </c>
       <c r="Z74" t="n" s="11">
-        <v>85.07</v>
+        <v>84.99</v>
       </c>
       <c r="AA74" t="n" s="11">
-        <v>85.57</v>
+        <v>85.6</v>
       </c>
       <c r="AB74" t="n" s="11">
-        <v>83.83</v>
+        <v>83.85</v>
       </c>
       <c r="AC74" t="n" s="11">
         <v>83.89</v>
       </c>
       <c r="AD74" t="n" s="11">
-        <v>83.81</v>
+        <v>83.79</v>
       </c>
       <c r="AE74" t="n" s="11">
         <v>83.46</v>
       </c>
       <c r="AF74" t="n" s="11">
-        <v>84.59</v>
+        <v>84.6</v>
       </c>
       <c r="AG74" t="n" s="11">
         <v>84.51</v>
@@ -26125,7 +26122,7 @@
         <v>86.63</v>
       </c>
       <c r="AX74" t="n" s="11">
-        <v>87.11</v>
+        <v>87.12</v>
       </c>
       <c r="AY74" t="n" s="11">
         <v>87.82</v>
@@ -26152,25 +26149,25 @@
         <v>87.3</v>
       </c>
       <c r="BG74" t="n" s="11">
-        <v>88.21</v>
+        <v>88.2</v>
       </c>
       <c r="BH74" t="n" s="11">
-        <v>86.81</v>
+        <v>86.8</v>
       </c>
       <c r="BI74" t="n" s="11">
-        <v>86.38</v>
+        <v>86.39</v>
       </c>
       <c r="BJ74" t="n" s="11">
-        <v>86.36</v>
+        <v>86.37</v>
       </c>
       <c r="BK74" t="n" s="11">
-        <v>85.2</v>
+        <v>85.21</v>
       </c>
       <c r="BL74" t="n" s="11">
-        <v>85.24</v>
+        <v>85.23</v>
       </c>
       <c r="BM74" t="n" s="11">
-        <v>85.03</v>
+        <v>85.04</v>
       </c>
       <c r="BN74" t="n" s="11">
         <v>84.16</v>
@@ -26179,55 +26176,55 @@
         <v>84.2</v>
       </c>
       <c r="BP74" t="n" s="11">
+        <v>84.77</v>
+      </c>
+      <c r="BQ74" t="n" s="11">
         <v>84.76</v>
       </c>
-      <c r="BQ74" t="n" s="11">
-        <v>84.72</v>
-      </c>
       <c r="BR74" t="n" s="11">
-        <v>84.74</v>
+        <v>84.71</v>
       </c>
       <c r="BS74" t="n" s="11">
-        <v>85.12</v>
+        <v>85.02</v>
       </c>
       <c r="BT74" t="n" s="11">
-        <v>85.5</v>
+        <v>85.56</v>
       </c>
       <c r="BU74" t="n" s="11">
-        <v>87.33</v>
+        <v>87.43</v>
       </c>
       <c r="BV74" t="n" s="11">
-        <v>89.75</v>
+        <v>89.7</v>
       </c>
       <c r="BW74" t="n" s="11">
-        <v>92.72</v>
+        <v>92.54</v>
       </c>
       <c r="BX74" t="n" s="11">
-        <v>93.55</v>
+        <v>93.66</v>
       </c>
       <c r="BY74" t="n" s="11">
-        <v>93.25</v>
+        <v>93.33</v>
       </c>
       <c r="BZ74" t="n" s="11">
-        <v>92.4</v>
+        <v>92.37</v>
       </c>
       <c r="CA74" t="n" s="11">
-        <v>92.4</v>
+        <v>92.29</v>
       </c>
       <c r="CB74" t="n" s="11">
-        <v>91.25</v>
+        <v>91.3</v>
       </c>
       <c r="CC74" t="n" s="11">
-        <v>91.32</v>
+        <v>91.33</v>
       </c>
       <c r="CD74" t="n" s="11">
-        <v>90.92</v>
+        <v>90.91</v>
       </c>
       <c r="CE74" t="n" s="11">
         <v>90.79</v>
       </c>
       <c r="CF74" t="n" s="11">
-        <v>91.48</v>
+        <v>91.49</v>
       </c>
       <c r="CG74" t="n" s="11">
         <v>91.61</v>
@@ -26287,193 +26284,193 @@
         <v>100.91</v>
       </c>
       <c r="CZ74" t="n" s="11">
-        <v>100.11</v>
+        <v>100.1</v>
       </c>
       <c r="DA74" t="n" s="11">
-        <v>101.24</v>
+        <v>101.25</v>
       </c>
       <c r="DB74" t="n" s="11">
-        <v>101.87</v>
+        <v>101.88</v>
       </c>
       <c r="DC74" t="n" s="11">
         <v>101.2</v>
       </c>
       <c r="DD74" t="n" s="11">
-        <v>102.52</v>
+        <v>102.5</v>
       </c>
       <c r="DE74" t="n" s="11">
-        <v>102.1</v>
+        <v>102.11</v>
       </c>
       <c r="DF74" t="n" s="11">
-        <v>102.68</v>
+        <v>102.72</v>
       </c>
       <c r="DG74" t="n" s="11">
-        <v>104.03</v>
+        <v>104.02</v>
       </c>
       <c r="DH74" t="n" s="11">
-        <v>104.22</v>
+        <v>104.21</v>
       </c>
       <c r="DI74" t="n" s="11">
-        <v>106.05</v>
+        <v>106.06</v>
       </c>
       <c r="DJ74" t="n" s="11">
-        <v>106.56</v>
+        <v>106.59</v>
       </c>
       <c r="DK74" t="n" s="11">
-        <v>106.77</v>
+        <v>106.66</v>
       </c>
       <c r="DL74" t="n" s="11">
-        <v>108.96</v>
+        <v>109.16</v>
       </c>
       <c r="DM74" t="n" s="11">
-        <v>108.65</v>
+        <v>108.55</v>
       </c>
       <c r="DN74" t="n" s="11">
-        <v>109.8</v>
+        <v>109.7</v>
       </c>
       <c r="DO74" t="n" s="11">
-        <v>109.85</v>
+        <v>109.62</v>
       </c>
       <c r="DP74" t="n" s="11">
-        <v>117.18</v>
+        <v>118.02</v>
       </c>
       <c r="DQ74" t="n" s="11">
-        <v>110.9</v>
+        <v>110.68</v>
       </c>
       <c r="DR74" t="n" s="11">
-        <v>111.4</v>
+        <v>111.13</v>
       </c>
       <c r="DS74" t="n" s="11">
-        <v>112.39</v>
+        <v>111.91</v>
       </c>
       <c r="DT74" t="n" s="11">
-        <v>112.5</v>
+        <v>113.19</v>
       </c>
       <c r="DU74" t="n" s="11">
         <v>112.85</v>
       </c>
-      <c r="DV74" t="s" s="11">
-        <v>44</v>
+      <c r="DV74" t="n" s="11">
+        <v>114.47</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="12">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="12">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="12">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="12">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="12">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="12">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="12">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="12">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="12">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="12">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="12">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s" s="12">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="12">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="12">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="12">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="12">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="12">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="12">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="12">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="12">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="13">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -26526,7 +26523,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:53:05&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:22:01&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>